--- a/Docker/excel/jadlospis2.xlsx
+++ b/Docker/excel/jadlospis2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMOWANIE\etmeall2\EatMeAll\BackEnd\ExcelReader\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMOWANIE\etmeall2\EatMeAll\Docker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC76115-FEAC-4FB2-8387-16FD70ABBBD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD525C-6FE9-4E67-83BF-36039E44CC0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{DC9E3696-05CD-4AC0-85C8-C796492A84E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="359">
   <si>
     <t>Koktajl mleczny z otrębami</t>
   </si>
@@ -459,9 +459,6 @@
     <t>Sałatka z pomidora, ogórka kiszonego  i cebulki</t>
   </si>
   <si>
-    <t>pomidory</t>
-  </si>
-  <si>
     <t>ogórki kiszone/konserwowe</t>
   </si>
   <si>
@@ -778,6 +775,337 @@
   </si>
   <si>
     <t>rozdrobnij widelcem twaróg i wymieszaj z twarogiem; dodaj posiekany szczypiorek; dopraw serek za pomocą ziół i pieprzu; podawaj z pieczywem z masłem</t>
+  </si>
+  <si>
+    <t>KANAPKI Z SZYNKĄ, SZPINAKIEM, POMIDOREM I OGÓRKIEM KISZONYM</t>
+  </si>
+  <si>
+    <t>masło extra</t>
+  </si>
+  <si>
+    <t>4 plasterki</t>
+  </si>
+  <si>
+    <t>ogórek kwaszony</t>
+  </si>
+  <si>
+    <t>chleb posmaruj masłem; na wierzch wyłóż szpinak plastry pomidora i ogórka; jogurt naturalny na deser</t>
+  </si>
+  <si>
+    <t>KANAPKI Z HUMMUSEM, JAJKIEM,OGÓRKIEM I RZODKIEWKĄ</t>
+  </si>
+  <si>
+    <t>rzodkiewka</t>
+  </si>
+  <si>
+    <t>ogórek zielony</t>
+  </si>
+  <si>
+    <t>0,3 szt.</t>
+  </si>
+  <si>
+    <t>ugotuj jajko na twardo; chleb posmaruj humusem, wyłóż pokrojone jajko oraz pokrojonego ogórka i rzodkiewkę; banan na deser</t>
+  </si>
+  <si>
+    <t>KASZA GRYCZANA Z WARZYWAMI I KURCZAKIEM</t>
+  </si>
+  <si>
+    <t>Suszone pomidory</t>
+  </si>
+  <si>
+    <t>2 sz.</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>0,4 szt.</t>
+  </si>
+  <si>
+    <t>5 szt.</t>
+  </si>
+  <si>
+    <t>0,6 ząbka</t>
+  </si>
+  <si>
+    <t>Kaszę ugotuj według przepisu znajdującego się na opakowaniu; Na patelnie rozgrzej olej, następnie pokrojoną paprykę, pieczarki i pora; Po chwili dodaj kawałki kurczaka; Przypraw pieprzem, solą i papryką; Dodaj pokrojone pomidory i przeciśnięty czosnek; Dodaj ugotowaną kaszę i posiekaną natkę. Przemieszaj i podgrzewaj jeszcze przez
+chwilę</t>
+  </si>
+  <si>
+    <t>Gruszka i migdały</t>
+  </si>
+  <si>
+    <t>migdały</t>
+  </si>
+  <si>
+    <t>GRZANKI Z SZYNKĄ, POMIDOREM, PIECZARKAMI I MOZZARELLĄ</t>
+  </si>
+  <si>
+    <t>3 plasterki</t>
+  </si>
+  <si>
+    <t>ser mozzarella</t>
+  </si>
+  <si>
+    <t>3 porcje</t>
+  </si>
+  <si>
+    <t>Pieczywo posmaruj oliwą; Na wierzch wyłóż plastry szynki, pomidora, pokrojone pieczarki i mozzarellę; Posyp bazylią i zapiecz w piekarniku (180 stopni, 10 min)</t>
+  </si>
+  <si>
+    <t>KANAPKI Z SERKIEM ŚMIETANKOWYM, OGÓRKIEM I POMIDOREM ORAZ JAJKA NA MIĘKKO</t>
+  </si>
+  <si>
+    <t>chleb pełnoziarnisty z żyta</t>
+  </si>
+  <si>
+    <t>serek naturalny do smarowania</t>
+  </si>
+  <si>
+    <t>Zagotuj osoloną wodę; Wrzuć jajka i nie przerywając wrzenia gotuj przez 5:30 min; Ostudź i usuń skorupkę; Pieczywo posmaruj serkiem; Na wierzch wyłóż plastry pomidora i ogórka</t>
+  </si>
+  <si>
+    <t>JOGURT Z MIGDAŁAMI, MANGO I ŻURAWINĄ</t>
+  </si>
+  <si>
+    <t>5 łyżek</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>Wymieszaj jogurt z migdałami; Dodaj pokrojone mango i żurawinę</t>
+  </si>
+  <si>
+    <t>SPAGHETTI Z MIĘSEM MIELONYM I FASOLĄ</t>
+  </si>
+  <si>
+    <t>mięso wołowe</t>
+  </si>
+  <si>
+    <t>1,5 porcji</t>
+  </si>
+  <si>
+    <t>0,4 ząbka</t>
+  </si>
+  <si>
+    <t>fasola czerwona</t>
+  </si>
+  <si>
+    <t>2,6 porcji</t>
+  </si>
+  <si>
+    <t>pomidory krojone w soku pomidorowym</t>
+  </si>
+  <si>
+    <t>0,4 opakowania</t>
+  </si>
+  <si>
+    <t>Rozgrzej olej na patelni i wrzuć posiekaną cebulę; Po chwili dodaj mięso i smaż mieszając; Dodaj posiekany czosnek i przyprawy (zioła prowansalskie, pieprz, chili, sól); Dodaj koncentrat pomidorowy i niewielką ilość wody; Dodaj pomidory z puszki i fasolę. Gotuj jeszcze przez chwilkę; Podawaj z makaronem ugotowanym al dente</t>
+  </si>
+  <si>
+    <t>MANGO I MIESZANKA STUDENCKA</t>
+  </si>
+  <si>
+    <t>Mieszanka Studencka</t>
+  </si>
+  <si>
+    <t>KANAPKI Z SZYNKĄ, PAPRYKĄ I KUKURYDZĄ</t>
+  </si>
+  <si>
+    <t>2,5 łyżeczki</t>
+  </si>
+  <si>
+    <t>5 plasterków</t>
+  </si>
+  <si>
+    <t>5 kromek</t>
+  </si>
+  <si>
+    <t>kukurydza, konserwowa</t>
+  </si>
+  <si>
+    <t>0,2 szt.</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj masłem; Na wierzch wyłóż , szynkę, pokrojoną paprykę, ogórka i posyp kukurydzą</t>
+  </si>
+  <si>
+    <t>OWSIANKA Z BANANEM, NASIONAMI CHIA I MASŁEM ORZECHOWYM</t>
+  </si>
+  <si>
+    <t>0,8 szklanka</t>
+  </si>
+  <si>
+    <t>płatki owsiane</t>
+  </si>
+  <si>
+    <t>nasiona chia</t>
+  </si>
+  <si>
+    <t>Płatki zalej niewielka ilością wrzątku i odstaw pod przykryciem by napęczniały; Dodaj mleko, pokrojonego banana oraz nasiona chia i masło orzechowe</t>
+  </si>
+  <si>
+    <t>SEREK WIEJSKI Z PESTKAMI DYNI</t>
+  </si>
+  <si>
+    <t>serek wiejski</t>
+  </si>
+  <si>
+    <t>1 opakowanie</t>
+  </si>
+  <si>
+    <t>Wafle ryżowe naturalne</t>
+  </si>
+  <si>
+    <t>pomarańcza</t>
+  </si>
+  <si>
+    <t>Wymieszaj serek wiejski z pestkami dyni; owoce zjesc ze smakiem</t>
+  </si>
+  <si>
+    <t>TORTILLA Z KURCZAKIEM I PASSATĄ POMIDOROWĄ I FETĄ</t>
+  </si>
+  <si>
+    <t>pasta pomidorowa</t>
+  </si>
+  <si>
+    <t>ser feta</t>
+  </si>
+  <si>
+    <t>1 poracja</t>
+  </si>
+  <si>
+    <t>Tortilla pełnoziarnista</t>
+  </si>
+  <si>
+    <t>0.25 szt.</t>
+  </si>
+  <si>
+    <t>Mięso pokrój w kostkę, natrzyj przyprawami (sól, pieprz, chili); Na patelni rozgrzej olej i dodaj mięso oraz posiekaną cebulę; Po chwili dodaj posiekany czosnek oraz passatę pomidorową; Podsmaż przez kilka
+minut,  by pomidory nieco odparowały.; Przypraw pieprzem oraz ziołami prowansalskimi; Placki tortilli podgrzej i wyłóż na nie kurczaka z sosem; Dodaj pokrojone pokruszoną fetą ; Zawiń</t>
+  </si>
+  <si>
+    <t>KANAPKI Z SAŁATĄ, POMIDOREM I MOZZARELLĄ</t>
+  </si>
+  <si>
+    <t>2 łyżeki</t>
+  </si>
+  <si>
+    <t>2 liście</t>
+  </si>
+  <si>
+    <t>4 porcje</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj masłem; Na wierzch wyłóż sałatę oraz pokrojonego pomidora i kawałki mozzarelli</t>
+  </si>
+  <si>
+    <t>KANAPKI Z SEREM BIAŁYM, RZODKIEWKĄ I SZCZYPIORKIEM</t>
+  </si>
+  <si>
+    <t>0,6 łyżeczki</t>
+  </si>
+  <si>
+    <t>Jabłko</t>
+  </si>
+  <si>
+    <t>Pieczywo posmaruj masłem; Na wierzch wyłóż biały ser oraz plastry rzodkiewki; Posyp szczypiorkiem i pieprzem; Umyj jabłko i zjedz jako przekąskę.</t>
+  </si>
+  <si>
+    <t>KOKTAJL BANANOWO-RODZYNKOWY Z KAKAO</t>
+  </si>
+  <si>
+    <t>rodzynki suszone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kakao </t>
+  </si>
+  <si>
+    <t>0,5 łyżki</t>
+  </si>
+  <si>
+    <t>Zmiksuj wszystkie składniki</t>
+  </si>
+  <si>
+    <t>KASZA JAGLANA Z PIECZARKAMI I JAJKIEM SADZONYM</t>
+  </si>
+  <si>
+    <t>4 sztuki</t>
+  </si>
+  <si>
+    <t>3 sztuki</t>
+  </si>
+  <si>
+    <t>kasza jaglana</t>
+  </si>
+  <si>
+    <t>0.25 sztuki</t>
+  </si>
+  <si>
+    <t>sok jabłkowy</t>
+  </si>
+  <si>
+    <t>Kaszę ugotuj; Na patelni rozgrzej połowę oliwy i zeszklij posiekaną cebulą; Dodaj posiekany czosnek oraz pokrojone pieczarki i paprykę; Przypraw pieprzem i odrobiną soli. Przesmaż po czym dodaj kaszę i szczypiorek; Wymieszaj; Pozostałą oliwę rozgrzej i wbij na nią jaja. Usmaż by żółtko pozostało płynne; Jaja wyłóż na kaszę</t>
+  </si>
+  <si>
+    <t>MIESZANKA STUDENCKA</t>
+  </si>
+  <si>
+    <t>1,5 garści</t>
+  </si>
+  <si>
+    <t>SAŁATKA Z TUŃCZYKIEM, POMIDOREM I FASOLĄ</t>
+  </si>
+  <si>
+    <t>Tuńczyk w sosie własnym</t>
+  </si>
+  <si>
+    <t>Pokrój pomidora i cebulę; Dodaj porwane na mniejsze części liście sałaty oraz kawałki tuńczyka; Dodaj fasolę i wymieszaj; Skrop oliwą i przypraw bazylią i oregano; Podawaj z pieczywem</t>
+  </si>
+  <si>
+    <t>NALEŚNIKI Z MUSEM JABŁKOWO-CYNAMONOWYM I JOGURTEM</t>
+  </si>
+  <si>
+    <t>0,4 szklanki</t>
+  </si>
+  <si>
+    <t>mąka pszenna typ 1850</t>
+  </si>
+  <si>
+    <t>4,5 łyżka</t>
+  </si>
+  <si>
+    <t>Do mleka dodaj taką samą ilość wody; Wbij jaja i wymieszaj; Dodaj mąkę i wymieszaj; Patelnię delikatnie wysmaruj olejem i wlewaj ciasto naleśnikowe. Usmaż z obu stron; Jabłko drobno posiekaj lub zetrzyj na tarce. Zalej niewielką ilością wrzątku, dodaj
+cynamon i gotuj 10 minut pod przykryciem; Na gotowe naleśniki wyłóż jogurt i mus jabłkowy.; Zwiń</t>
+  </si>
+  <si>
+    <t>KANAPKI Z SZYNKĄ, OGÓRKIEM I KUKURYDZĄ</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj masłem.; Na wierzch wyłóż szynkę, pokrojonego ogórka i posyp kukurydzą</t>
+  </si>
+  <si>
+    <t>dorsz świeży</t>
+  </si>
+  <si>
+    <t>RYBA PIECZONA Z PESTO I SUSZONYMI POMIDORAMI + KOKTAJL BANANOWO-SZPINAKOWY</t>
+  </si>
+  <si>
+    <t>0,8 szklanki</t>
+  </si>
+  <si>
+    <t>Rybę oprósz pieprzem i solą. Natrzyj posiekanym czosnkiem; Posmaruj rybę pesto, na wierzch wyłóż pokrojone w paski pomidory; Zawiń w folię do pieczenia i wstaw do rozgrzanego piekarnika (180 stopni).; Zapiekaj
+20-25 minut.; Na kilka minut przed końcem pieczenia rozwiń folię; Mleko, banan i szpinak zmiksować i wlać do szklanki</t>
+  </si>
+  <si>
+    <t>SEREK WIEJSKI (NATURALNY) + POMARAŃCZA</t>
+  </si>
+  <si>
+    <t>SAŁATKA Z JAJKIEM, POMIDOREM I AWOKADO</t>
+  </si>
+  <si>
+    <t>Jajko ugotuj na twardo, obierz i pokrój; Pokrój pomidora i cebulę; Dodaj obrane i pokrojone w drobną kostkę awokado. Wymieszaj; Skrop oliwą i przypraw bazylią i oregano; Podawaj z pieczywem</t>
   </si>
 </sst>
 </file>
@@ -1176,14 +1504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1838D449-8DD4-4711-984B-E0AC88629B5C}">
-  <dimension ref="A1:K208"/>
+  <dimension ref="A1:K374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K203" sqref="K203"/>
+    <sheetView tabSelected="1" topLeftCell="F344" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I364" sqref="I364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="45.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
@@ -1246,7 +1575,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1493,7 +1822,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1564,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1625,7 +1954,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1717,7 +2046,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1985,7 +2314,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2303,7 +2632,7 @@
         <v>143</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="F50" s="1">
         <v>300</v>
@@ -2315,7 +2644,7 @@
         <v>19</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J50" s="1">
         <v>350</v>
@@ -2330,7 +2659,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="1">
         <v>120</v>
@@ -2351,7 +2680,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="1">
         <v>30</v>
@@ -2360,7 +2689,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2372,7 +2701,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F53" s="1">
         <v>50</v>
@@ -2381,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2393,7 +2722,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
@@ -2435,7 +2764,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F56" s="1">
         <v>30</v>
@@ -2444,7 +2773,7 @@
         <v>6</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2476,7 +2805,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>53</v>
@@ -2491,7 +2820,7 @@
         <v>39</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J58" s="1">
         <v>350</v>
@@ -2547,10 +2876,10 @@
         <v>15</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="F61" s="1">
         <v>330</v>
@@ -2562,7 +2891,7 @@
         <v>39</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J61" s="1">
         <v>350</v>
@@ -2577,7 +2906,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F62" s="1">
         <v>25</v>
@@ -2586,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3139,7 +3468,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3401,7 +3730,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3748,16 +4077,16 @@
         <v>19</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C116" s="1">
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E116" t="s">
         <v>196</v>
-      </c>
-      <c r="E116" t="s">
-        <v>197</v>
       </c>
       <c r="F116" s="1">
         <v>240</v>
@@ -3798,16 +4127,16 @@
         <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C118" s="1">
         <v>5</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="F118" s="1">
         <v>150</v>
@@ -3816,7 +4145,7 @@
         <v>6</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>55</v>
@@ -3869,13 +4198,13 @@
         <v>21</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C121" s="1">
         <v>5</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>53</v>
@@ -3919,16 +4248,16 @@
         <v>22</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C123" s="1">
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F123" s="1">
         <v>200</v>
@@ -3969,16 +4298,16 @@
         <v>23</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C125" s="1">
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="F125" s="1">
         <v>250</v>
@@ -4019,16 +4348,16 @@
         <v>24</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C127" s="1">
         <v>5</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F127" s="1">
         <v>250</v>
@@ -4069,16 +4398,16 @@
         <v>25</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C129" s="1">
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F129" s="1">
         <v>40</v>
@@ -4087,7 +4416,7 @@
         <v>6</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>55</v>
@@ -4119,16 +4448,16 @@
         <v>26</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C131" s="1">
         <v>5</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F131" s="1">
         <v>25</v>
@@ -4169,16 +4498,16 @@
         <v>27</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C133" s="1">
         <v>15</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F133" s="1">
         <v>150</v>
@@ -4190,7 +4519,7 @@
         <v>39</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J133" s="1">
         <v>125</v>
@@ -4214,7 +4543,7 @@
         <v>6</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -4235,7 +4564,7 @@
         <v>6</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -4247,7 +4576,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F136" s="1">
         <v>20</v>
@@ -4268,7 +4597,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F137" s="1">
         <v>50</v>
@@ -4277,7 +4606,7 @@
         <v>6</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -4303,13 +4632,13 @@
         <v>28</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C139" s="1">
         <v>15</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>142</v>
@@ -4324,7 +4653,7 @@
         <v>17</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J139" s="1">
         <v>125</v>
@@ -4360,7 +4689,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F141" s="1">
         <v>35</v>
@@ -4369,7 +4698,7 @@
         <v>6</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
@@ -4381,7 +4710,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F142" s="1">
         <v>60</v>
@@ -4390,7 +4719,7 @@
         <v>6</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
@@ -4416,13 +4745,13 @@
         <v>29</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C144" s="1">
         <v>15</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>43</v>
@@ -4437,7 +4766,7 @@
         <v>52</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J144" s="1">
         <v>125</v>
@@ -4452,7 +4781,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F145" s="1">
         <v>120</v>
@@ -4473,7 +4802,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F146" s="1">
         <v>50</v>
@@ -4482,7 +4811,7 @@
         <v>6</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -4514,10 +4843,10 @@
         <v>6</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F148" s="1">
         <v>70</v>
@@ -4526,16 +4855,16 @@
         <v>6</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J148" s="1">
         <v>500</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4553,7 +4882,7 @@
         <v>6</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -4565,7 +4894,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F150" s="1">
         <v>60</v>
@@ -4574,7 +4903,7 @@
         <v>6</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -4595,7 +4924,7 @@
         <v>6</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -4637,7 +4966,7 @@
         <v>6</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -4649,7 +4978,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F154" s="1">
         <v>120</v>
@@ -4690,7 +5019,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>127</v>
@@ -4702,16 +5031,16 @@
         <v>6</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J156" s="1">
         <v>837</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4720,7 +5049,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F157" s="1">
         <v>30</v>
@@ -4729,7 +5058,7 @@
         <v>6</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -4776,16 +5105,16 @@
         <v>32</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C160" s="1">
         <v>5</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="F160" s="1">
         <v>30</v>
@@ -4803,7 +5132,7 @@
         <v>590</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4812,7 +5141,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F161" s="1">
         <v>35</v>
@@ -4821,7 +5150,7 @@
         <v>6</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -4853,7 +5182,7 @@
         <v>40</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>130</v>
@@ -4865,16 +5194,16 @@
         <v>6</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J163" s="1">
         <v>300</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4883,7 +5212,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F164" s="1">
         <v>100</v>
@@ -4892,7 +5221,7 @@
         <v>6</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -4925,7 +5254,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F166" s="1">
         <v>140</v>
@@ -4955,7 +5284,7 @@
         <v>6</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -4988,7 +5317,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F169" s="1">
         <v>50</v>
@@ -4997,7 +5326,7 @@
         <v>6</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -5009,7 +5338,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F170" s="1">
         <v>250</v>
@@ -5050,7 +5379,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>23</v>
@@ -5062,16 +5391,16 @@
         <v>6</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J172" s="1">
         <v>590</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5089,7 +5418,7 @@
         <v>6</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -5110,7 +5439,7 @@
         <v>6</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -5131,7 +5460,7 @@
         <v>6</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -5152,7 +5481,7 @@
         <v>6</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -5164,7 +5493,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F177" s="1">
         <v>10</v>
@@ -5185,7 +5514,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F178" s="1">
         <v>6</v>
@@ -5194,7 +5523,7 @@
         <v>6</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -5206,7 +5535,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F179" s="1">
         <v>2</v>
@@ -5247,10 +5576,10 @@
         <v>20</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F181" s="1">
         <v>30</v>
@@ -5262,13 +5591,13 @@
         <v>73</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J181" s="1">
         <v>606</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5319,7 +5648,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F184" s="1">
         <v>20</v>
@@ -5328,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -5340,7 +5669,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F185" s="1">
         <v>25</v>
@@ -5349,7 +5678,7 @@
         <v>6</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -5361,7 +5690,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F186" s="1">
         <v>30</v>
@@ -5402,7 +5731,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>115</v>
@@ -5417,13 +5746,13 @@
         <v>39</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J188" s="1">
         <v>538</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5432,7 +5761,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F189" s="1">
         <v>80</v>
@@ -5441,7 +5770,7 @@
         <v>6</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -5462,7 +5791,7 @@
         <v>6</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -5494,10 +5823,10 @@
         <v>30</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F192" s="1">
         <v>25</v>
@@ -5506,16 +5835,16 @@
         <v>6</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J192" s="1">
         <v>900</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5524,7 +5853,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F193" s="1">
         <v>40</v>
@@ -5545,7 +5874,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F194" s="1">
         <v>40</v>
@@ -5554,7 +5883,7 @@
         <v>6</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -5566,7 +5895,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F195" s="1">
         <v>200</v>
@@ -5575,7 +5904,7 @@
         <v>6</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -5587,7 +5916,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F196" s="1">
         <v>60</v>
@@ -5608,7 +5937,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F197" s="1">
         <v>10</v>
@@ -5638,7 +5967,7 @@
         <v>6</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -5664,16 +5993,16 @@
         <v>38</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="F200" s="1">
         <v>100</v>
@@ -5682,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>55</v>
@@ -5691,7 +6020,7 @@
         <v>300</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5720,7 +6049,7 @@
         <v>7</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>23</v>
@@ -5732,16 +6061,16 @@
         <v>6</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J202" s="1">
         <v>590</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5759,7 +6088,7 @@
         <v>6</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -5771,7 +6100,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F204" s="1">
         <v>100</v>
@@ -5780,7 +6109,7 @@
         <v>6</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -5822,7 +6151,7 @@
         <v>6</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -5834,7 +6163,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F207" s="1">
         <v>200</v>
@@ -5843,7 +6172,7 @@
         <v>6</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -5864,8 +6193,3558 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
     </row>
+    <row r="209" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>40</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C209" s="1">
+        <v>6</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F209" s="1">
+        <v>10</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J209" s="1">
+        <v>548</v>
+      </c>
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F210" s="1">
+        <v>60</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+    </row>
+    <row r="211" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F211" s="1">
+        <v>120</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F212" s="1">
+        <v>120</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+    </row>
+    <row r="213" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F213" s="1">
+        <v>60</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+    </row>
+    <row r="214" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F214" s="1">
+        <v>25</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F215" s="1">
+        <v>180</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+    </row>
+    <row r="216" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>41</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C217" s="1">
+        <v>10</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F217" s="1">
+        <v>56</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F218" s="1">
+        <v>60</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+    </row>
+    <row r="219" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F219" s="1">
+        <v>50</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+    </row>
+    <row r="220" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F220" s="1">
+        <v>40</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+    </row>
+    <row r="221" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F221" s="1">
+        <v>120</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+    </row>
+    <row r="222" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F222" s="1">
+        <v>120</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+    </row>
+    <row r="223" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+    </row>
+    <row r="224" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>42</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C224" s="1">
+        <v>30</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F224" s="1">
+        <v>200</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+    </row>
+    <row r="225" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F225" s="1">
+        <v>30</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+    </row>
+    <row r="226" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F226" s="1">
+        <v>6</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F227" s="1">
+        <v>50</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F228" s="1">
+        <v>50</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F229" s="1">
+        <v>100</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+    </row>
+    <row r="230" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F230" s="1">
+        <v>100</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+    </row>
+    <row r="231" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F231" s="1">
+        <v>10</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F232" s="1">
+        <v>3</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>43</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F234" s="1">
+        <v>130</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F235" s="1">
+        <v>30</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>44</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C237" s="1">
+        <v>15</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F237" s="1">
+        <v>45</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F238" s="1">
+        <v>45</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F239" s="1">
+        <v>90</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+    </row>
+    <row r="240" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F240" s="1">
+        <v>10</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+    </row>
+    <row r="241" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F241" s="1">
+        <v>120</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F242" s="1">
+        <v>40</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>45</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C244" s="1">
+        <v>15</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F244" s="1">
+        <v>168</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F245" s="1">
+        <v>60</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+    </row>
+    <row r="246" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F246" s="1">
+        <v>90</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+    </row>
+    <row r="247" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F247" s="1">
+        <v>120</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+    </row>
+    <row r="248" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F248" s="1">
+        <v>50</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F249" s="1">
+        <v>130</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+    </row>
+    <row r="251" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>46</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C251" s="1">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F251" s="1">
+        <v>60</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F252" s="1">
+        <v>140</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F253" s="1">
+        <v>180</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F254" s="1">
+        <v>30</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+    </row>
+    <row r="255" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+    </row>
+    <row r="256" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>47</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C256" s="1">
+        <v>25</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F256" s="1">
+        <v>150</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+    </row>
+    <row r="257" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F257" s="1">
+        <v>2</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+    </row>
+    <row r="258" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F258" s="1">
+        <v>60</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+    </row>
+    <row r="259" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F259" s="1">
+        <v>130</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+    </row>
+    <row r="260" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F260" s="1">
+        <v>50</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+    </row>
+    <row r="261" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F261" s="1">
+        <v>150</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+    </row>
+    <row r="262" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F262" s="1">
+        <v>25</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F263" s="1">
+        <v>10</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+    </row>
+    <row r="264" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+    </row>
+    <row r="265" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <v>48</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F265" s="1">
+        <v>140</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F266" s="1">
+        <v>40</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>49</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C268" s="1">
+        <v>15</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F268" s="1">
+        <v>60</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F269" s="1">
+        <v>12</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F270" s="1">
+        <v>75</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+    </row>
+    <row r="271" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F271" s="1">
+        <v>150</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+    </row>
+    <row r="272" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F272" s="1">
+        <v>30</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+    </row>
+    <row r="273" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F273" s="1">
+        <v>30</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="275" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <v>50</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C275" s="1">
+        <v>10</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F275" s="1">
+        <v>30</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F276" s="1">
+        <v>200</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F277" s="1">
+        <v>50</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F278" s="1">
+        <v>120</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F279" s="1">
+        <v>5</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+    </row>
+    <row r="280" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+    </row>
+    <row r="281" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <v>51</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C281" s="1">
+        <v>10</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F281" s="1">
+        <v>10</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F282" s="1">
+        <v>200</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F283" s="1">
+        <v>60</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I283" s="1"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F284" s="1">
+        <v>200</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+    </row>
+    <row r="285" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+    </row>
+    <row r="286" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>52</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C286" s="1">
+        <v>25</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F286" s="1">
+        <v>150</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+    </row>
+    <row r="287" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F287" s="1">
+        <v>50</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+    </row>
+    <row r="288" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F288" s="1">
+        <v>122</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+    </row>
+    <row r="289" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F289" s="1">
+        <v>40</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+    </row>
+    <row r="290" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F290" s="1">
+        <v>2</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+    </row>
+    <row r="291" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F291" s="1">
+        <v>25</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+    </row>
+    <row r="292" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F292" s="1">
+        <v>40</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+    </row>
+    <row r="293" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F293" s="1">
+        <v>5</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+    </row>
+    <row r="294" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F294" s="1">
+        <v>250</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+    </row>
+    <row r="295" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+    </row>
+    <row r="296" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>53</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C296" s="1">
+        <v>5</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F296" s="1">
+        <v>10</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+    </row>
+    <row r="297" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F297" s="1">
+        <v>120</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+    </row>
+    <row r="298" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F298" s="1">
+        <v>10</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+    </row>
+    <row r="299" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F299" s="1">
+        <v>120</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+    </row>
+    <row r="300" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F300" s="1">
+        <v>60</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+    </row>
+    <row r="301" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F301" s="1">
+        <v>75</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+    </row>
+    <row r="302" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+    </row>
+    <row r="303" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>54</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C303" s="1">
+        <v>7</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F303" s="1">
+        <v>60</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+    </row>
+    <row r="304" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F304" s="1">
+        <v>10</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1"/>
+    </row>
+    <row r="305" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F305" s="1">
+        <v>120</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+    </row>
+    <row r="306" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F306" s="1">
+        <v>120</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+    </row>
+    <row r="307" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F307" s="1">
+        <v>3</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1"/>
+    </row>
+    <row r="308" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F308" s="1">
+        <v>150</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I308" s="1"/>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1"/>
+    </row>
+    <row r="309" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
+    </row>
+    <row r="310" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <v>55</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C310" s="1">
+        <v>5</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F310" s="1">
+        <v>30</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1"/>
+    </row>
+    <row r="311" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F311" s="1">
+        <v>60</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I311" s="1"/>
+      <c r="J311" s="1"/>
+      <c r="K311" s="1"/>
+    </row>
+    <row r="312" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F312" s="1">
+        <v>5</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
+      <c r="K312" s="1"/>
+    </row>
+    <row r="313" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F313" s="1">
+        <v>120</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I313" s="1"/>
+      <c r="J313" s="1"/>
+      <c r="K313" s="1"/>
+    </row>
+    <row r="314" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F314" s="1">
+        <v>250</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I314" s="1"/>
+      <c r="J314" s="1"/>
+      <c r="K314" s="1"/>
+    </row>
+    <row r="315" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1"/>
+    </row>
+    <row r="316" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
+        <v>56</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C316" s="1">
+        <v>30</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F316" s="1">
+        <v>70</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J316" s="1"/>
+      <c r="K316" s="1"/>
+    </row>
+    <row r="317" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F317" s="1">
+        <v>80</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I317" s="1"/>
+      <c r="J317" s="1"/>
+      <c r="K317" s="1"/>
+    </row>
+    <row r="318" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F318" s="1">
+        <v>10</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I318" s="1"/>
+      <c r="J318" s="1"/>
+      <c r="K318" s="1"/>
+    </row>
+    <row r="319" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F319" s="1">
+        <v>5</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I319" s="1"/>
+      <c r="J319" s="1"/>
+      <c r="K319" s="1"/>
+    </row>
+    <row r="320" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F320" s="1">
+        <v>168</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I320" s="1"/>
+      <c r="J320" s="1"/>
+      <c r="K320" s="1"/>
+    </row>
+    <row r="321" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F321" s="1">
+        <v>100</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I321" s="1"/>
+      <c r="J321" s="1"/>
+      <c r="K321" s="1"/>
+    </row>
+    <row r="322" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F322" s="1">
+        <v>3</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I322" s="1"/>
+      <c r="J322" s="1"/>
+      <c r="K322" s="1"/>
+    </row>
+    <row r="323" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F323" s="1">
+        <v>25</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I323" s="1"/>
+      <c r="J323" s="1"/>
+      <c r="K323" s="1"/>
+    </row>
+    <row r="324" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F324" s="1">
+        <v>250</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I324" s="1"/>
+      <c r="J324" s="1"/>
+      <c r="K324" s="1"/>
+    </row>
+    <row r="325" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
+      <c r="J325" s="1"/>
+      <c r="K325" s="1"/>
+    </row>
+    <row r="326" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
+        <v>57</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C326" s="1">
+        <v>1</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F326" s="1">
+        <v>60</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I326" s="1"/>
+      <c r="J326" s="1"/>
+      <c r="K326" s="1"/>
+    </row>
+    <row r="327" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1"/>
+      <c r="I327" s="1"/>
+      <c r="J327" s="1"/>
+      <c r="K327" s="1"/>
+    </row>
+    <row r="328" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
+        <v>58</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C328" s="1">
+        <v>10</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F328" s="1">
+        <v>120</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J328" s="1"/>
+      <c r="K328" s="1"/>
+    </row>
+    <row r="329" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F329" s="1">
+        <v>20</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+      <c r="K329" s="1"/>
+    </row>
+    <row r="330" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F330" s="1">
+        <v>120</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I330" s="1"/>
+      <c r="J330" s="1"/>
+      <c r="K330" s="1"/>
+    </row>
+    <row r="331" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F331" s="1">
+        <v>40</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I331" s="1"/>
+      <c r="J331" s="1"/>
+      <c r="K331" s="1"/>
+    </row>
+    <row r="332" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F332" s="1">
+        <v>120</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I332" s="1"/>
+      <c r="J332" s="1"/>
+      <c r="K332" s="1"/>
+    </row>
+    <row r="333" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F333" s="1">
+        <v>10</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+      <c r="K333" s="1"/>
+    </row>
+    <row r="334" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F334" s="1">
+        <v>60</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+      <c r="K334" s="1"/>
+    </row>
+    <row r="335" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F335" s="1">
+        <v>250</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+      <c r="K335" s="1"/>
+    </row>
+    <row r="336" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1"/>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+      <c r="K336" s="1"/>
+    </row>
+    <row r="337" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
+        <v>59</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C337" s="1">
+        <v>30</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F337" s="1">
+        <v>5</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J337" s="1"/>
+      <c r="K337" s="1"/>
+    </row>
+    <row r="338" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F338" s="1">
+        <v>150</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+      <c r="K338" s="1"/>
+    </row>
+    <row r="339" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F339" s="1">
+        <v>100</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+    </row>
+    <row r="340" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F340" s="1">
+        <v>100</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+    </row>
+    <row r="341" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F341" s="1">
+        <v>90</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+      <c r="K341" s="1"/>
+    </row>
+    <row r="342" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F342" s="1">
+        <v>56</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
+      <c r="K342" s="1"/>
+    </row>
+    <row r="343" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+      <c r="K343" s="1"/>
+    </row>
+    <row r="344" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
+        <v>60</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C344" s="1">
+        <v>5</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F344" s="1">
+        <v>10</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J344" s="1"/>
+      <c r="K344" s="1"/>
+    </row>
+    <row r="345" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F345" s="1">
+        <v>40</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+      <c r="K345" s="1"/>
+    </row>
+    <row r="346" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F346" s="1">
+        <v>60</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
+      <c r="K346" s="1"/>
+    </row>
+    <row r="347" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F347" s="1">
+        <v>120</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1"/>
+      <c r="K347" s="1"/>
+    </row>
+    <row r="348" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F348" s="1">
+        <v>30</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+      <c r="K348" s="1"/>
+    </row>
+    <row r="349" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F349" s="1">
+        <v>260</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+    </row>
+    <row r="350" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+    </row>
+    <row r="351" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
+        <v>61</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C351" s="1">
+        <v>30</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F351" s="1">
+        <v>150</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J351" s="1"/>
+      <c r="K351" s="1"/>
+    </row>
+    <row r="352" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F352" s="1">
+        <v>420</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+      <c r="K352" s="1"/>
+    </row>
+    <row r="353" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F353" s="1">
+        <v>30</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+      <c r="K353" s="1"/>
+    </row>
+    <row r="354" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F354" s="1">
+        <v>20</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+    </row>
+    <row r="355" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F355" s="1">
+        <v>200</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+      <c r="K355" s="1"/>
+    </row>
+    <row r="356" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F356" s="1">
+        <v>2</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+      <c r="K356" s="1"/>
+    </row>
+    <row r="357" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F357" s="1">
+        <v>200</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+    </row>
+    <row r="358" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F358" s="1">
+        <v>120</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+    </row>
+    <row r="359" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F359" s="1">
+        <v>25</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+      <c r="K359" s="1"/>
+    </row>
+    <row r="360" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+      <c r="H360" s="1"/>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+      <c r="K360" s="1"/>
+    </row>
+    <row r="361" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
+        <v>62</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C361" s="1">
+        <v>1</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F361" s="1">
+        <v>200</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J361" s="1"/>
+      <c r="K361" s="1"/>
+    </row>
+    <row r="362" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F362" s="1">
+        <v>200</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+    </row>
+    <row r="363" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+      <c r="H363" s="1"/>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+    </row>
+    <row r="364" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>63</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C364" s="1">
+        <v>10</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F364" s="1">
+        <v>120</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J364" s="1"/>
+      <c r="K364" s="1"/>
+    </row>
+    <row r="365" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F365" s="1">
+        <v>56</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
+      <c r="K365" s="1"/>
+    </row>
+    <row r="366" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F366" s="1">
+        <v>70</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I366" s="1"/>
+      <c r="J366" s="1"/>
+      <c r="K366" s="1"/>
+    </row>
+    <row r="367" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F367" s="1">
+        <v>40</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I367" s="1"/>
+      <c r="J367" s="1"/>
+      <c r="K367" s="1"/>
+    </row>
+    <row r="368" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F368" s="1">
+        <v>120</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+      <c r="K368" s="1"/>
+    </row>
+    <row r="369" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F369" s="1">
+        <v>10</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I369" s="1"/>
+      <c r="J369" s="1"/>
+      <c r="K369" s="1"/>
+    </row>
+    <row r="370" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
+      <c r="H370" s="1"/>
+      <c r="I370" s="1"/>
+      <c r="J370" s="1"/>
+      <c r="K370" s="1"/>
+    </row>
+    <row r="371" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
+      <c r="G371" s="1"/>
+      <c r="H371" s="1"/>
+      <c r="I371" s="1"/>
+      <c r="J371" s="1"/>
+      <c r="K371" s="1"/>
+    </row>
+    <row r="372" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+      <c r="H372" s="1"/>
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
+      <c r="K372" s="1"/>
+    </row>
+    <row r="373" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="1"/>
+      <c r="I373" s="1"/>
+      <c r="J373" s="1"/>
+      <c r="K373" s="1"/>
+    </row>
+    <row r="374" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+      <c r="H374" s="1"/>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+      <c r="K374" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docker/excel/jadlospis2.xlsx
+++ b/Docker/excel/jadlospis2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMOWANIE\etmeall2\EatMeAll\Docker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD525C-6FE9-4E67-83BF-36039E44CC0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE900B-643D-4C6B-8FBF-F27C063513B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{DC9E3696-05CD-4AC0-85C8-C796492A84E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="506">
   <si>
     <t>Koktajl mleczny z otrębami</t>
   </si>
@@ -1106,6 +1106,462 @@
   </si>
   <si>
     <t>Jajko ugotuj na twardo, obierz i pokrój; Pokrój pomidora i cebulę; Dodaj obrane i pokrojone w drobną kostkę awokado. Wymieszaj; Skrop oliwą i przypraw bazylią i oregano; Podawaj z pieczywem</t>
+  </si>
+  <si>
+    <t>OWSIANKA Z MANDARYNKAMI, MIGDAŁAMI I ŻURAWINĄ</t>
+  </si>
+  <si>
+    <t>Płatki zalej niewielką ilością wrzątku i odstaw by napęczniały; Dodaj ciepłe mleko, obrane mandarynki, żurawinę oraz migdały</t>
+  </si>
+  <si>
+    <t>KANAPKI Z RUKOLĄ, POMIDOREM I MOZZARELLĄ</t>
+  </si>
+  <si>
+    <t>rukola</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj masłem; Na wierzch wyłóż rukolę oraz pokrojonego pomidora i mozzarellę</t>
+  </si>
+  <si>
+    <t>BULGUR Z INDYKIEM SUSZONYMI POMIDORAMI I CUKINIĄ</t>
+  </si>
+  <si>
+    <t>mięso z piersi indyka, bez skóry</t>
+  </si>
+  <si>
+    <t>cukinia</t>
+  </si>
+  <si>
+    <t>kasza bulgur</t>
+  </si>
+  <si>
+    <t>7,69 łyżka</t>
+  </si>
+  <si>
+    <t>Ugotuj bulgur; Mięso pokrój w kostkę i wrzuć na rozgrzany olej; Po chwili dodaj posiekany czosnek oraz pokrojoną cukinię i pomidory; Dodaj niewielką ilość wody oraz przyptawy (papryka ostra, pieprz, sól, zioła
+prowanskalskie). Duś przez kilka minut; Podawaj z kaszą</t>
+  </si>
+  <si>
+    <t>Umyj jabłko i zjedz jako przekąskę</t>
+  </si>
+  <si>
+    <t>JOGURT Z RODZYNKAMI</t>
+  </si>
+  <si>
+    <t>Dodaj rodzynki do jogurtu i wymieszaj</t>
+  </si>
+  <si>
+    <t>OMLET Z SZYNKĄ, PAPRYKĄ I SZCZYPIORKIEM</t>
+  </si>
+  <si>
+    <t>mąka pszenna typ 750</t>
+  </si>
+  <si>
+    <t>grapefruit</t>
+  </si>
+  <si>
+    <t>0,8 porcji</t>
+  </si>
+  <si>
+    <t>0,29 szt.</t>
+  </si>
+  <si>
+    <t>0,08 szkl</t>
+  </si>
+  <si>
+    <t>Białka jaja ubij, dodaj żółtka, mąkę, mleko oraz sól i pieprz. Wymieszaj; Wlej masę na rozgrzany olej i podgrzewaj chwilę; Dodaj pokrojoną szynkę, paprykę i szczypiorek; Przykryj całość i podgrzewaj aż omlet całkowicie się zetnie; Posyp pokruszonym serem feta</t>
+  </si>
+  <si>
+    <t>JAJECZNICA Z BOCZKIEM I SZCZYPIORKIEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boczek wędzony </t>
+  </si>
+  <si>
+    <t>1,4 łyczeczki</t>
+  </si>
+  <si>
+    <t>0,3 porcji</t>
+  </si>
+  <si>
+    <t>0,25 szt.</t>
+  </si>
+  <si>
+    <t>Boczek drobno pokrój. Wrzuć na rozgrzany olej i podsmażaj przez chwilkę; Wbij jajka i dodaj posiekany szczypiorek; Przypraw pieprzem i odrobiną soli; Podsmażaj cały czas mieszając aż do ścięcia jajecznicy; Podawaj z pieczywem posmarowanym masłem</t>
+  </si>
+  <si>
+    <t>KANAPKI Z SZYNKĄ, RUKOLĄ I RZODKIEWKĄ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     15 szt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
+  </si>
+  <si>
+    <t>Chleb posmaruj masłem; Na wierzch wyłóż rukolę, szynkę i pokrojoną rzodkiewkę</t>
+  </si>
+  <si>
+    <t>PĘCZAK Z KURCZAKIEM, PAPRYKĄ I MARCHEWKĄ</t>
+  </si>
+  <si>
+    <t>pomidory z puszki, krojone</t>
+  </si>
+  <si>
+    <t>kasza jęczmienna pęczak</t>
+  </si>
+  <si>
+    <t>mięso z piersi kurczaka, bez skóry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 szt. </t>
+  </si>
+  <si>
+    <t>6,67 łyżki</t>
+  </si>
+  <si>
+    <t>Kaszę ugotuj; Cebulę posiekaj i zeszklij na rozgrzanej oliwie; Dodaj po chwili pokrojoną paprykę i marchewkę; Po 5 minutach dodaj pokrojonego w kostkę i przyprawionego (chili, pieprz ziołowy)
+kurczaka; Gdy mięso się zetnie, dodaj pomidory i zioła prowansalskie. Duś kilka minut pod
+przykryciem; Wymieszaj z ugotowaną kaszą</t>
+  </si>
+  <si>
+    <t>KEFIR + BANAN</t>
+  </si>
+  <si>
+    <t>kefir</t>
+  </si>
+  <si>
+    <t>SAŁATKA Z TOFU I SŁONECZNIKIEM</t>
+  </si>
+  <si>
+    <t>słonecznik łuskany</t>
+  </si>
+  <si>
+    <t>sok cytrynowy</t>
+  </si>
+  <si>
+    <t>ogórek</t>
+  </si>
+  <si>
+    <t>tofu wędzone</t>
+  </si>
+  <si>
+    <t>5 liści</t>
+  </si>
+  <si>
+    <t>Pokrój tofu i warzywa; Dodaj liście sałaty oraz nasiona słonecznika; Całość polej sokiem z cytryny i wymieszaj; Podawaj z pieczywem z masłem</t>
+  </si>
+  <si>
+    <t>KANAPKI Z HUMMUSEM, JAJKIEM, SAŁATĄ I RZODKIEWKĄ</t>
+  </si>
+  <si>
+    <t>4 łyżeczki</t>
+  </si>
+  <si>
+    <t>Ugotuj jajko na twardo; Chleb posmaruj hummusem; Wyłóż sałatę oraz pokrojone jajko i rzodkiewkę</t>
+  </si>
+  <si>
+    <t>KANAPKI Z MASŁEM ORZECHOWYM I DŻEMEM</t>
+  </si>
+  <si>
+    <t>dżem wiśniowy, niskosłodzony</t>
+  </si>
+  <si>
+    <t>3 łyżeczki</t>
+  </si>
+  <si>
+    <t>Pieczywo posmaruj masłem orzechowym i dżemem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obiad </t>
+  </si>
+  <si>
+    <t>MAKARON ZE SZPINAKIEM, KURCZAKIEM I SEREM FETA</t>
+  </si>
+  <si>
+    <t>szpinak mrożony</t>
+  </si>
+  <si>
+    <t>pietruszka liście</t>
+  </si>
+  <si>
+    <t>1 porcja</t>
+  </si>
+  <si>
+    <t>1 ząbek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 szt. </t>
+  </si>
+  <si>
+    <t>1,86 szklanki</t>
+  </si>
+  <si>
+    <t>Ugotuj makaron; Podsmaż pokrojone w kostkę i przyprawione solą i pieprzem mięso na oliwie razem z
+wyciśniętym przez praskę czosnkiem; Po chwili dodaj szpinak i podsmaż jeszcze przez kilka minut; Dodaj pokruszony ser feta; Wymieszaj makaron ze szpinakiem; Pokrój pomidorki koktajlowe na pół i dodaj do potrawy na talerzu; Potrawę posyp pietruszką</t>
+  </si>
+  <si>
+    <t>BANAN+RODZYNKI, SUSZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 łyżki </t>
+  </si>
+  <si>
+    <t>SAŁATKA MAKARONOWA Z KURCZAKIEM, RUKOLĄ I SUSZONYMI
+POMIDORAMI</t>
+  </si>
+  <si>
+    <t>Mięso pokrój w paski, natrzyj oliwą i przyprawami (sól, pieprz, papryka); Mięso wrzuć do garnka i zalej niewielką ilością wrzątku, gotuj przez 10 minut; Makaron ugotuj al dente; Pomidory suszone pokrój na małe kawałki; Wymieszaj wszystkie składniki; Posyp nasionami słonecznika i skrop oliwą</t>
+  </si>
+  <si>
+    <t>TWAROŻEK Z MIODEM I ORZECHAMI</t>
+  </si>
+  <si>
+    <t>miód pszczeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cynamon </t>
+  </si>
+  <si>
+    <t>1,4 łyżeczki</t>
+  </si>
+  <si>
+    <t>0,4 łyżeczki</t>
+  </si>
+  <si>
+    <t>Ser rozgnieć widelcem i wymieszaj z jogurtem; Dodaj cynamon, posiekane orzechy oraz miód. Wymieszaj; Podawaj z pieczywem</t>
+  </si>
+  <si>
+    <t>KANAPKI Z HUMMUSEM, SAŁATĄ I SZYNKĄ</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj hummusem.; Na wierzch wyłóż sałatę i szynkę</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 szt. </t>
+  </si>
+  <si>
+    <t>KURCZAK Z RYŻEM, WARZYWAMI I CURRY</t>
+  </si>
+  <si>
+    <t>groszek zielony, konserwowy</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
+    <t>2 szczypty</t>
+  </si>
+  <si>
+    <t>Ryż ugotuj i wymieszaj z curry; Na rozgrzany olej wrzuć posiekaną cebulą oraz czosnek; Po chwili dodaj pokrojone w kostkę mięso (przypraw pieprzem, solą i curry); Dodaj pokrojoną w plasterki marchewkę i paprykę; Dodaj niewielką ilość wody i duś pod przykryciem ok. 15-20 minut; Chwile przed końcem dodaj kukurydzę i groszek</t>
+  </si>
+  <si>
+    <t>Umyj jabłko i zjedz jako przekąskę.</t>
+  </si>
+  <si>
+    <t>JABŁKO+MIESZANKA STUDENCKA</t>
+  </si>
+  <si>
+    <t>SAŁATKA Z POMIDOREM, OGÓRKIEM, MAKRELĄ WĘDZONĄ I RUKOLĄ</t>
+  </si>
+  <si>
+    <t>cebula czerwona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olej lniany </t>
+  </si>
+  <si>
+    <t>makrela wędzona</t>
+  </si>
+  <si>
+    <t>0.64 szt.</t>
+  </si>
+  <si>
+    <t>Pokrój pomidora, cebulę i ogórka; Wymieszaj warzywa oraz dodaj rukolę i kawałki makreli; Dodaj olej oraz pieprz i sól. Wymieszaj; Podawaj z pieczywem z masłem</t>
+  </si>
+  <si>
+    <t>OMLET OWSIANY Z MASŁEM ORZECHOWYM I BANANEM</t>
+  </si>
+  <si>
+    <t>0,3 łyżeczki</t>
+  </si>
+  <si>
+    <t>Jaja rozbij, dodaj łyżkę wody lub mleka oraz płatki. Przypraw pieprzem i solą i
+wymieszaj dokładnie; Patelnię przesmaruj olejem i wlej masę jajeczną. Omlet obsmaż z obu stron (gdy jedna
+strona się zarumieni możesz zsunąć omlet na talerz i przewrócić na drugą stronę); Omlet posmaruj masłem orzechowym. Na wierzch ułóż pokrojonego w plastry banana
+(możesz posypać cynamonem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunch </t>
+  </si>
+  <si>
+    <t>KANAPKI Z SZYNKĄ, MUSZTARDĄ, POMIDOREM I OGÓRKIEM KISZONYM</t>
+  </si>
+  <si>
+    <t>musztarda</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj masłem i musztardą; Na wierzch wyłóż szynkę, pokrojonego pomidora i ogórka</t>
+  </si>
+  <si>
+    <t>INDYK Z WARZYWAMI, SOSEM SOJOWYM I KUSKUSEMkuskus</t>
+  </si>
+  <si>
+    <t>sos sojowy ciemny</t>
+  </si>
+  <si>
+    <t>8,33 łyżki</t>
+  </si>
+  <si>
+    <t>Mięso pokrój w kostkę, natrzyj olejem oraz pieprzem i chili; Warzywa i pieczarki pokrój i wrzuć na patelnie, zalej niewielką ilością wody. Dodaj sos
+sojowy i duś kilka minut; Dodaj mięso i duś do czasu aż warzywa będą miękkie, a mięso ugotowane (w razie
+potrzeby dolewaj wody); Podawaj z przygotowanym kuskusem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przekąska </t>
+  </si>
+  <si>
+    <t>JOGURT Z PŁATKAMI KUKURYDZIANYMI I NASIONAMI SŁONECZNIKA</t>
+  </si>
+  <si>
+    <t>płatki kukurydziane</t>
+  </si>
+  <si>
+    <t>10 łyżek</t>
+  </si>
+  <si>
+    <t>Wymieszaj razem składniki i zjedz.</t>
+  </si>
+  <si>
+    <t>TWAROŻEK Z RZODKIEWKĄ I SZCZYPIORKIEM + KANAPKI Z HUMMUSEM I PAPRYKĄ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 szt. </t>
+  </si>
+  <si>
+    <t>3 łyżki</t>
+  </si>
+  <si>
+    <t>0,43 szt.</t>
+  </si>
+  <si>
+    <t>Rozdrobnij widelcem twaróg i wymieszaj z twarogiem; Dodaj pokrojoną rzodkiewkę i posiekany szczypiorek.; Dopraw serek za pomocą ziół i pieprzu</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj hummusem.; Na kanapki wyłóż pokrojoną paprykę</t>
+  </si>
+  <si>
+    <t>PLACKI Z SERKA WIEJSKIEGO Z DŻEMEM</t>
+  </si>
+  <si>
+    <t>dżem truskawowy, niskosłodzony</t>
+  </si>
+  <si>
+    <t>cukier wanilinowy</t>
+  </si>
+  <si>
+    <t>0,5 łyżeczki</t>
+  </si>
+  <si>
+    <t>3,33 łyżka</t>
+  </si>
+  <si>
+    <t>Białka jaj oddziel od żółtek i ubij na sztywną pianę; Wymieszaj żółtka, mąkę, serek, cukier i olej. Na koniec dodaj sztywną pianę z białka i
+delikatnie wymieszaj; Uformuj placki z otrzymanej masy na rozgrzanej patelni teflonowej bez użycia tłuszczu.
+Obsmaż obu stron; Posmaruj dżemem</t>
+  </si>
+  <si>
+    <t>KOKTAJL BANANOWO-POMARAŃCZOWY</t>
+  </si>
+  <si>
+    <t>BURGER WOŁOWY Z RUKOLĄ</t>
+  </si>
+  <si>
+    <t>bułki grahamki</t>
+  </si>
+  <si>
+    <t>2 garście</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zmiel mięso i przypraw solą oraz pieprzem; Mięso wyrabiaj ręką i uformuj płaski kotlet; Mięso możesz usmażyć na mocno rozgrzanej patelni grillowej bez użycia tłuszczu (po ok
+3 minuty z każdej strony) lub wstawić do piekarnika i piec ok. 15 minut; Bułkę przekrój na pół i zapiecz w tosterze lub piekarniku; Ba ciepłą bułkę wyłóż rukolę mięso, musztardę, ketchup oraz pokrojonego ogórka,
+pomidora i cebulę. Przykryj drugą połówką bułki </t>
+  </si>
+  <si>
+    <t>KANAPKI Z MAKRELĄ WĘDZONĄ, MUSZTARDĄ I POMIDOREM</t>
+  </si>
+  <si>
+    <t>0,64 szt.</t>
+  </si>
+  <si>
+    <t>Posmaruj pieczywo masłem; Kanapkę posmaruj musztardą; Na wierzch ułóż plastry pomidora i kawałki makreli</t>
+  </si>
+  <si>
+    <t>NALEŚNIKI Z JOGURTEM I KAKI</t>
+  </si>
+  <si>
+    <t>kaki</t>
+  </si>
+  <si>
+    <t>jogurt grecki</t>
+  </si>
+  <si>
+    <t>woda</t>
+  </si>
+  <si>
+    <t>0.5 szt.</t>
+  </si>
+  <si>
+    <t>Do mleka dodaj taką samą ilość wody; Wbij jaja i wymieszaj; Dodaj mąkę i wymieszaj; Patelnię delikatnie wysmaruj olejem i wlewaj ciasto naleśnikowe. Usmaż z obu stron; Naleśniki posmaruj jogurtem i wyłóż pokrojone kaki. Zwiń</t>
+  </si>
+  <si>
+    <t>KOKTAJL BANANOWO-TRUSKAWKOWY</t>
+  </si>
+  <si>
+    <t>truskawki mrożone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 łyżki </t>
+  </si>
+  <si>
+    <t>RYBA PIECZONA Z PAPRYKĄ I MOZZARELLĄ</t>
+  </si>
+  <si>
+    <t>brokuły mrożone</t>
+  </si>
+  <si>
+    <t>oliwki czarne</t>
+  </si>
+  <si>
+    <t>zioła prowansaldzkie</t>
+  </si>
+  <si>
+    <t>0,44 opakowania</t>
+  </si>
+  <si>
+    <t>0,36 szt.</t>
+  </si>
+  <si>
+    <t>0,33 łyżeczki</t>
+  </si>
+  <si>
+    <t>Rybę oprósz pieprzem i odrobiną soli. Skrop olejem; Paprykę drobno pokrój i posyp nią rybę; Na wierzch połóż mozzarellę i pokrojone oliwki. Posyp ziołami; Zawiń w folię do pieczenia i wstaw do piekarnika (200 stopni) na 20 minut. 5 minut
+przed końcem pieczenia rozwiń folię; Podawaj z ugotowanymi ziemniakami i brokulami</t>
+  </si>
+  <si>
+    <t>JOGURT Z MUSLI</t>
+  </si>
+  <si>
+    <t>Wymieszaj jogurt z musli</t>
+  </si>
+  <si>
+    <t>SAŁATKA Z POMIDOREM, OGÓRKIEM, SAŁATĄ I MOZZARELLĄsałata</t>
+  </si>
+  <si>
+    <t>3 liście</t>
+  </si>
+  <si>
+    <t>Pokrój pomidora, cebulę i ogórka; Wymieszaj warzywa oraz dodaj porwane na mniejsze części liście sałaty; Dodaj kawałki mozzarelli, oliwę oraz pieprz i sól. Wymieszaj; Podawaj z pieczywem z masłem</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1610,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1177,11 +1633,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1190,6 +1675,30 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1504,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1838D449-8DD4-4711-984B-E0AC88629B5C}">
-  <dimension ref="A1:K374"/>
+  <dimension ref="A1:K615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F344" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I364" sqref="I364"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A616" sqref="A616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9691,17 +10200,37 @@
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
     </row>
-    <row r="371" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="1"/>
-      <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
-      <c r="D371" s="1"/>
-      <c r="E371" s="1"/>
-      <c r="F371" s="1"/>
-      <c r="G371" s="1"/>
-      <c r="H371" s="1"/>
-      <c r="I371" s="1"/>
-      <c r="J371" s="1"/>
+    <row r="371" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
+        <v>64</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C371" s="1">
+        <v>10</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F371" s="1">
+        <v>50</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J371" s="1">
+        <v>629</v>
+      </c>
       <c r="K371" s="1"/>
     </row>
     <row r="372" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9709,10 +10238,18 @@
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
-      <c r="E372" s="1"/>
-      <c r="F372" s="1"/>
-      <c r="G372" s="1"/>
-      <c r="H372" s="1"/>
+      <c r="E372" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F372" s="1">
+        <v>24</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
@@ -9722,10 +10259,18 @@
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
-      <c r="E373" s="1"/>
-      <c r="F373" s="1"/>
-      <c r="G373" s="1"/>
-      <c r="H373" s="1"/>
+      <c r="E373" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F373" s="1">
+        <v>130</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
@@ -9735,13 +10280,3973 @@
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
-      <c r="E374" s="1"/>
-      <c r="F374" s="1"/>
-      <c r="G374" s="1"/>
-      <c r="H374" s="1"/>
+      <c r="E374" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F374" s="1">
+        <v>250</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
+    </row>
+    <row r="375" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F375" s="1">
+        <v>30</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+      <c r="K375" s="1"/>
+    </row>
+    <row r="376" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+      <c r="H376" s="1"/>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+      <c r="K376" s="1"/>
+    </row>
+    <row r="377" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
+        <v>65</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C377" s="1">
+        <v>5</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F377" s="1">
+        <v>10</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J377" s="1">
+        <v>618</v>
+      </c>
+      <c r="K377" s="1"/>
+    </row>
+    <row r="378" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F378" s="1">
+        <v>120</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+      <c r="K378" s="1"/>
+    </row>
+    <row r="379" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F379" s="1">
+        <v>120</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I379" s="1"/>
+      <c r="J379" s="1"/>
+      <c r="K379" s="1"/>
+    </row>
+    <row r="380" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F380" s="1">
+        <v>20</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I380" s="1"/>
+      <c r="J380" s="1"/>
+      <c r="K380" s="1"/>
+    </row>
+    <row r="381" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F381" s="1">
+        <v>60</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I381" s="1"/>
+      <c r="J381" s="1"/>
+      <c r="K381" s="1"/>
+    </row>
+    <row r="382" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F382" s="1">
+        <v>150</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J382" s="1"/>
+      <c r="K382" s="1"/>
+    </row>
+    <row r="383" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+      <c r="H383" s="1"/>
+      <c r="I383" s="1"/>
+      <c r="J383" s="1"/>
+      <c r="K383" s="1"/>
+    </row>
+    <row r="384" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
+        <v>66</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C384" s="1">
+        <v>30</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F384" s="1">
+        <v>200</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J384" s="1">
+        <v>859</v>
+      </c>
+      <c r="K384" s="1"/>
+    </row>
+    <row r="385" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F385" s="1">
+        <v>10</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+      <c r="K385" s="1"/>
+    </row>
+    <row r="386" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F386" s="1">
+        <v>150</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I386" s="1"/>
+      <c r="J386" s="1"/>
+      <c r="K386" s="1"/>
+    </row>
+    <row r="387" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F387" s="1">
+        <v>3</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+      <c r="K387" s="1"/>
+    </row>
+    <row r="388" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F388" s="1">
+        <v>3</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+      <c r="K388" s="1"/>
+    </row>
+    <row r="389" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F389" s="1">
+        <v>100</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I389" s="1"/>
+      <c r="J389" s="1"/>
+      <c r="K389" s="1"/>
+    </row>
+    <row r="390" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F390" s="1">
+        <v>250</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+      <c r="K390" s="1"/>
+    </row>
+    <row r="391" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F391" s="1">
+        <v>260</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J391" s="1"/>
+      <c r="K391" s="1"/>
+    </row>
+    <row r="392" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+      <c r="H392" s="1"/>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+      <c r="K392" s="1"/>
+    </row>
+    <row r="393" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="1">
+        <v>67</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C393" s="1">
+        <v>5</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F393" s="1">
+        <v>60</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J393" s="1">
+        <v>279</v>
+      </c>
+      <c r="K393" s="1"/>
+    </row>
+    <row r="394" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F394" s="1">
+        <v>180</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+      <c r="K394" s="1"/>
+    </row>
+    <row r="395" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+      <c r="K395" s="1"/>
+    </row>
+    <row r="396" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="1">
+        <v>68</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C396" s="1">
+        <v>15</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F396" s="1">
+        <v>40</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J396" s="1">
+        <v>573</v>
+      </c>
+      <c r="K396" s="1"/>
+    </row>
+    <row r="397" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F397" s="1">
+        <v>5</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+      <c r="K397" s="1"/>
+    </row>
+    <row r="398" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F398" s="1">
+        <v>40</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+      <c r="K398" s="1"/>
+    </row>
+    <row r="399" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F399" s="1">
+        <v>3</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+      <c r="K399" s="1"/>
+    </row>
+    <row r="400" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F400" s="1">
+        <v>45</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+      <c r="K400" s="1"/>
+    </row>
+    <row r="401" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F401" s="1">
+        <v>15</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+      <c r="K401" s="1"/>
+    </row>
+    <row r="402" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F402" s="1">
+        <v>20</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+      <c r="K402" s="1"/>
+    </row>
+    <row r="403" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F403" s="1">
+        <v>168</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+      <c r="K403" s="1"/>
+    </row>
+    <row r="404" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F404" s="1">
+        <v>220</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J404" s="1"/>
+      <c r="K404" s="1"/>
+    </row>
+    <row r="405" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+      <c r="H405" s="1"/>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1"/>
+      <c r="K405" s="1"/>
+    </row>
+    <row r="406" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="1">
+        <v>69</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C406" s="1">
+        <v>15</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F406" s="1">
+        <v>7</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J406" s="1">
+        <v>624</v>
+      </c>
+      <c r="K406" s="1"/>
+    </row>
+    <row r="407" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F407" s="1">
+        <v>90</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1"/>
+      <c r="K407" s="1"/>
+    </row>
+    <row r="408" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F408" s="1">
+        <v>30</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I408" s="1"/>
+      <c r="J408" s="1"/>
+      <c r="K408" s="1"/>
+    </row>
+    <row r="409" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F409" s="1">
+        <v>5</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+      <c r="K409" s="1"/>
+    </row>
+    <row r="410" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F410" s="1">
+        <v>25</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+      <c r="K410" s="1"/>
+    </row>
+    <row r="411" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F411" s="1">
+        <v>3</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+      <c r="K411" s="1"/>
+    </row>
+    <row r="412" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F412" s="1">
+        <v>168</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+      <c r="K412" s="1"/>
+    </row>
+    <row r="413" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F413" s="1"/>
+      <c r="G413" s="1"/>
+      <c r="H413" s="1"/>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+      <c r="K413" s="1"/>
+    </row>
+    <row r="414" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="1">
+        <v>70</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C414" s="1">
+        <v>5</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F414" s="1">
+        <v>10</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J414" s="1">
+        <v>638</v>
+      </c>
+      <c r="K414" s="1"/>
+    </row>
+    <row r="415" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F415" s="1">
+        <v>60</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+      <c r="K415" s="1"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E416" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F416" s="4">
+        <v>120</v>
+      </c>
+      <c r="G416" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H416" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E417" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F417" s="4">
+        <v>60</v>
+      </c>
+      <c r="G417" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H417" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E418" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F418" s="4">
+        <v>20</v>
+      </c>
+      <c r="G418" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H418" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E419" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F419" s="4">
+        <v>75</v>
+      </c>
+      <c r="G419" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H419" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I419" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E420" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>71</v>
+      </c>
+      <c r="B421" t="s">
+        <v>64</v>
+      </c>
+      <c r="C421">
+        <v>30</v>
+      </c>
+      <c r="D421" t="s">
+        <v>390</v>
+      </c>
+      <c r="E421" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F421" s="6">
+        <v>10</v>
+      </c>
+      <c r="G421" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H421" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I421" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="J421">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E422" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F422" s="6">
+        <v>200</v>
+      </c>
+      <c r="G422" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H422" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E423" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F423" s="6">
+        <v>50</v>
+      </c>
+      <c r="G423" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H423" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E424" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F424" s="6">
+        <v>45</v>
+      </c>
+      <c r="G424" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H424" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E425" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F425" s="6">
+        <v>100</v>
+      </c>
+      <c r="G425" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H425" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E426" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F426" s="6">
+        <v>200</v>
+      </c>
+      <c r="G426" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H426" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E427" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F427" s="6">
+        <v>70</v>
+      </c>
+      <c r="G427" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H427" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E428" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F428" s="6">
+        <v>250</v>
+      </c>
+      <c r="G428" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H428" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E429" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F429" s="6">
+        <v>200</v>
+      </c>
+      <c r="G429" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H429" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I429" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E430" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>72</v>
+      </c>
+      <c r="B431" t="s">
+        <v>174</v>
+      </c>
+      <c r="D431" t="s">
+        <v>397</v>
+      </c>
+      <c r="E431" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F431" s="6">
+        <v>250</v>
+      </c>
+      <c r="G431" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H431" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I431" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J431">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E432" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F432" s="6">
+        <v>120</v>
+      </c>
+      <c r="G432" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H432" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I432" s="7"/>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E433" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>73</v>
+      </c>
+      <c r="B434" t="s">
+        <v>96</v>
+      </c>
+      <c r="C434">
+        <v>10</v>
+      </c>
+      <c r="D434" t="s">
+        <v>399</v>
+      </c>
+      <c r="E434" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F434" s="6">
+        <v>7</v>
+      </c>
+      <c r="G434" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H434" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I434" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J434">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E435" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F435" s="6">
+        <v>90</v>
+      </c>
+      <c r="G435" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H435" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E436" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F436" s="6">
+        <v>20</v>
+      </c>
+      <c r="G436" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H436" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E437" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F437" s="6">
+        <v>6</v>
+      </c>
+      <c r="G437" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H437" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E438" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F438" s="6">
+        <v>80</v>
+      </c>
+      <c r="G438" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H438" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E439" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F439" s="6">
+        <v>70</v>
+      </c>
+      <c r="G439" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H439" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E440" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F440" s="6">
+        <v>25</v>
+      </c>
+      <c r="G440" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H440" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E441" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F441" s="6">
+        <v>90</v>
+      </c>
+      <c r="G441" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H441" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E442" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F442" s="6">
+        <v>250</v>
+      </c>
+      <c r="G442" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H442" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E443" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>74</v>
+      </c>
+      <c r="B444" t="s">
+        <v>123</v>
+      </c>
+      <c r="C444">
+        <v>10</v>
+      </c>
+      <c r="D444" t="s">
+        <v>406</v>
+      </c>
+      <c r="E444" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F444" s="6">
+        <v>20</v>
+      </c>
+      <c r="G444" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H444" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I444" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J444">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E445" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F445" s="6">
+        <v>112</v>
+      </c>
+      <c r="G445" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H445" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E446" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F446" s="6">
+        <v>60</v>
+      </c>
+      <c r="G446" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H446" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E447" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F447" s="6">
+        <v>40</v>
+      </c>
+      <c r="G447" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H447" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E448" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F448" s="6">
+        <v>120</v>
+      </c>
+      <c r="G448" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H448" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E449" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>75</v>
+      </c>
+      <c r="B450" t="s">
+        <v>63</v>
+      </c>
+      <c r="C450">
+        <v>5</v>
+      </c>
+      <c r="D450" t="s">
+        <v>409</v>
+      </c>
+      <c r="E450" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F450" s="6">
+        <v>45</v>
+      </c>
+      <c r="G450" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H450" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="I450" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="J450">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E451" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F451" s="6">
+        <v>90</v>
+      </c>
+      <c r="G451" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H451" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E452" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F452" s="6">
+        <v>45</v>
+      </c>
+      <c r="G452" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H452" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E453" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>76</v>
+      </c>
+      <c r="B454" t="s">
+        <v>413</v>
+      </c>
+      <c r="C454">
+        <v>25</v>
+      </c>
+      <c r="D454" t="s">
+        <v>414</v>
+      </c>
+      <c r="E454" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F454" s="6">
+        <v>200</v>
+      </c>
+      <c r="G454" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H454" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I454" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="J454">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E455" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F455" s="6">
+        <v>50</v>
+      </c>
+      <c r="G455" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H455" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E456" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F456" s="6">
+        <v>5</v>
+      </c>
+      <c r="G456" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H456" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E457" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F457" s="6">
+        <v>200</v>
+      </c>
+      <c r="G457" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H457" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E458" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F458" s="6">
+        <v>5</v>
+      </c>
+      <c r="G458" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H458" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E459" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F459" s="6">
+        <v>100</v>
+      </c>
+      <c r="G459" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H459" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E460" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F460" s="6">
+        <v>12</v>
+      </c>
+      <c r="G460" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H460" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E461" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F461" s="6">
+        <v>130</v>
+      </c>
+      <c r="G461" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H461" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E462" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>77</v>
+      </c>
+      <c r="B463" t="s">
+        <v>174</v>
+      </c>
+      <c r="D463" t="s">
+        <v>422</v>
+      </c>
+      <c r="E463" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F463" s="6">
+        <v>120</v>
+      </c>
+      <c r="G463" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H463" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I463" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J463">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E464" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F464" s="6">
+        <v>60</v>
+      </c>
+      <c r="G464" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H464" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E465" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>78</v>
+      </c>
+      <c r="B466" t="s">
+        <v>96</v>
+      </c>
+      <c r="C466">
+        <v>25</v>
+      </c>
+      <c r="D466" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E466" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F466" s="6">
+        <v>70</v>
+      </c>
+      <c r="G466" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H466" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I466" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="J466">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E467" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F467" s="6">
+        <v>20</v>
+      </c>
+      <c r="G467" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H467" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E468" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F468" s="6">
+        <v>150</v>
+      </c>
+      <c r="G468" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H468" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E469" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F469" s="6">
+        <v>10</v>
+      </c>
+      <c r="G469" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H469" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E470" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F470" s="6">
+        <v>10</v>
+      </c>
+      <c r="G470" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H470" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E471" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F471" s="6">
+        <v>30</v>
+      </c>
+      <c r="G471" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H471" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E472" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>79</v>
+      </c>
+      <c r="B473" t="s">
+        <v>123</v>
+      </c>
+      <c r="C473">
+        <v>10</v>
+      </c>
+      <c r="D473" t="s">
+        <v>426</v>
+      </c>
+      <c r="E473" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F473" s="6">
+        <v>7</v>
+      </c>
+      <c r="G473" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H473" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I473" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J473">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E474" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F474" s="6">
+        <v>90</v>
+      </c>
+      <c r="G474" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H474" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E475" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F475" s="6">
+        <v>100</v>
+      </c>
+      <c r="G475" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H475" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E476" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F476" s="6">
+        <v>100</v>
+      </c>
+      <c r="G476" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H476" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E477" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F477" s="6">
+        <v>24</v>
+      </c>
+      <c r="G477" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H477" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E478" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F478" s="6">
+        <v>2</v>
+      </c>
+      <c r="G478" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H478" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E479" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F479" s="6">
+        <v>15</v>
+      </c>
+      <c r="G479" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H479" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E480" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>80</v>
+      </c>
+      <c r="B481" t="s">
+        <v>63</v>
+      </c>
+      <c r="C481">
+        <v>5</v>
+      </c>
+      <c r="D481" t="s">
+        <v>432</v>
+      </c>
+      <c r="E481" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F481" s="6">
+        <v>20</v>
+      </c>
+      <c r="G481" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H481" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I481" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="J481">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E482" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F482" s="6">
+        <v>120</v>
+      </c>
+      <c r="G482" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H482" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E483" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F483" s="6">
+        <v>40</v>
+      </c>
+      <c r="G483" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H483" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E484" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F484" s="6">
+        <v>60</v>
+      </c>
+      <c r="G484" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H484" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E485" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F485" s="6">
+        <v>260</v>
+      </c>
+      <c r="G485" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H485" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="I485" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E486" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>81</v>
+      </c>
+      <c r="B487" t="s">
+        <v>64</v>
+      </c>
+      <c r="C487">
+        <v>30</v>
+      </c>
+      <c r="D487" t="s">
+        <v>435</v>
+      </c>
+      <c r="E487" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F487" s="6">
+        <v>30</v>
+      </c>
+      <c r="G487" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H487" t="s">
+        <v>17</v>
+      </c>
+      <c r="I487" t="s">
+        <v>439</v>
+      </c>
+      <c r="J487">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E488" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F488" s="6">
+        <v>70</v>
+      </c>
+      <c r="G488" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H488" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E489" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F489" s="6">
+        <v>200</v>
+      </c>
+      <c r="G489" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H489" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E490" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F490" s="6">
+        <v>32</v>
+      </c>
+      <c r="G490" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H490" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E491" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F491" s="6">
+        <v>2</v>
+      </c>
+      <c r="G491" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H491" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E492" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F492" s="6">
+        <v>50</v>
+      </c>
+      <c r="G492" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H492" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E493" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F493" s="6">
+        <v>10</v>
+      </c>
+      <c r="G493" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H493" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E494" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F494" s="6">
+        <v>45</v>
+      </c>
+      <c r="G494" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H494" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E495" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F495" s="6">
+        <v>5</v>
+      </c>
+      <c r="G495" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H495" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E496" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F496" s="6">
+        <v>100</v>
+      </c>
+      <c r="G496" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H496" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E497" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F497" s="6">
+        <v>250</v>
+      </c>
+      <c r="G497" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H497" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E498" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>82</v>
+      </c>
+      <c r="B499" t="s">
+        <v>174</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" t="s">
+        <v>441</v>
+      </c>
+      <c r="E499" t="s">
+        <v>168</v>
+      </c>
+      <c r="F499" s="6">
+        <v>150</v>
+      </c>
+      <c r="G499" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H499" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I499" t="s">
+        <v>440</v>
+      </c>
+      <c r="J499">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E500" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F500" s="6">
+        <v>40</v>
+      </c>
+      <c r="G500" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H500" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E501" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>83</v>
+      </c>
+      <c r="B502" t="s">
+        <v>96</v>
+      </c>
+      <c r="C502">
+        <v>15</v>
+      </c>
+      <c r="D502" t="s">
+        <v>442</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F502" s="6">
+        <v>7</v>
+      </c>
+      <c r="G502" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H502" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I502" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J502">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E503" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F503" s="6">
+        <v>90</v>
+      </c>
+      <c r="G503" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H503" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E504" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F504" s="6">
+        <v>20</v>
+      </c>
+      <c r="G504" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H504" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E505" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F505" s="6">
+        <v>30</v>
+      </c>
+      <c r="G505" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H505" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E506" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F506" s="6">
+        <v>120</v>
+      </c>
+      <c r="G506" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H506" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E507" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F507" s="6">
+        <v>10</v>
+      </c>
+      <c r="G507" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H507" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E508" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F508" s="6">
+        <v>60</v>
+      </c>
+      <c r="G508" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H508" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E509" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F509" s="6">
+        <v>80</v>
+      </c>
+      <c r="G509" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H509" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E510" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F510" s="6">
+        <v>250</v>
+      </c>
+      <c r="G510" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H510" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E511" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>84</v>
+      </c>
+      <c r="B512" t="s">
+        <v>123</v>
+      </c>
+      <c r="C512">
+        <v>15</v>
+      </c>
+      <c r="D512" t="s">
+        <v>448</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F512" s="6">
+        <v>120</v>
+      </c>
+      <c r="G512" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H512" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I512" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="J512">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E513" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F513" s="6">
+        <v>30</v>
+      </c>
+      <c r="G513" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H513" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E514" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F514" s="6">
+        <v>3</v>
+      </c>
+      <c r="G514" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H514" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E515" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F515" s="6">
+        <v>112</v>
+      </c>
+      <c r="G515" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H515" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E516" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F516" s="6">
+        <v>40</v>
+      </c>
+      <c r="G516" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H516" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E517" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>85</v>
+      </c>
+      <c r="B518" t="s">
+        <v>451</v>
+      </c>
+      <c r="C518">
+        <v>5</v>
+      </c>
+      <c r="D518" t="s">
+        <v>452</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F518" s="6">
+        <v>10</v>
+      </c>
+      <c r="G518" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H518" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I518" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J518">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E519" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F519" s="6">
+        <v>60</v>
+      </c>
+      <c r="G519" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H519" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E520" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F520" s="6">
+        <v>120</v>
+      </c>
+      <c r="G520" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H520" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E521" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F521" s="6">
+        <v>120</v>
+      </c>
+      <c r="G521" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H521" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E522" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F522" s="6">
+        <v>60</v>
+      </c>
+      <c r="G522" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H522" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E523" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F523" s="6">
+        <v>20</v>
+      </c>
+      <c r="G523" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H523" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E524" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F524" s="6">
+        <v>200</v>
+      </c>
+      <c r="G524" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H524" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E525" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>86</v>
+      </c>
+      <c r="B526" t="s">
+        <v>64</v>
+      </c>
+      <c r="C526">
+        <v>25</v>
+      </c>
+      <c r="D526" t="s">
+        <v>455</v>
+      </c>
+      <c r="F526" s="6">
+        <v>100</v>
+      </c>
+      <c r="G526" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H526" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="I526" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="J526">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E527" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F527" s="7">
+        <v>20</v>
+      </c>
+      <c r="G527" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H527" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E528" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F528" s="7">
+        <v>60</v>
+      </c>
+      <c r="G528" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H528" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E529" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F529" s="7">
+        <v>150</v>
+      </c>
+      <c r="G529" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H529" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E530" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F530" s="7">
+        <v>70</v>
+      </c>
+      <c r="G530" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H530" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E531" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F531" s="7">
+        <v>20</v>
+      </c>
+      <c r="G531" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H531" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E532" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F532" s="7">
+        <v>200</v>
+      </c>
+      <c r="G532" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H532" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E533" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F533" s="7">
+        <v>250</v>
+      </c>
+      <c r="G533" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H533" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E534" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>87</v>
+      </c>
+      <c r="B535" t="s">
+        <v>459</v>
+      </c>
+      <c r="C535">
+        <v>5</v>
+      </c>
+      <c r="D535" t="s">
+        <v>460</v>
+      </c>
+      <c r="E535" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F535" s="7">
+        <v>10</v>
+      </c>
+      <c r="G535" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H535" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I535" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="J535">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E536" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F536" s="7">
+        <v>30</v>
+      </c>
+      <c r="G536" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H536" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E537" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F537" s="7">
+        <v>200</v>
+      </c>
+      <c r="G537" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H537" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E538" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>88</v>
+      </c>
+      <c r="B539" t="s">
+        <v>96</v>
+      </c>
+      <c r="C539">
+        <v>12</v>
+      </c>
+      <c r="D539" t="s">
+        <v>464</v>
+      </c>
+      <c r="E539" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F539" s="7">
+        <v>30</v>
+      </c>
+      <c r="G539" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H539" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="I539" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="J539">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E540" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F540" s="7">
+        <v>100</v>
+      </c>
+      <c r="G540" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H540" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E541" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F541" s="7">
+        <v>60</v>
+      </c>
+      <c r="G541" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H541" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E542" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F542" s="7">
+        <v>10</v>
+      </c>
+      <c r="G542" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H542" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E543" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F543" s="7">
+        <v>120</v>
+      </c>
+      <c r="G543" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H543" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I543" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E544" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F544" s="7">
+        <v>40</v>
+      </c>
+      <c r="G544" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H544" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E545" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F545" s="7">
+        <v>60</v>
+      </c>
+      <c r="G545" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H545" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E546" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>89</v>
+      </c>
+      <c r="B547" t="s">
+        <v>123</v>
+      </c>
+      <c r="C547">
+        <v>20</v>
+      </c>
+      <c r="D547" t="s">
+        <v>470</v>
+      </c>
+      <c r="E547" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F547" s="7">
+        <v>30</v>
+      </c>
+      <c r="G547" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H547" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I547" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="J547">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E548" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F548" s="7">
+        <v>2</v>
+      </c>
+      <c r="G548" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H548" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E549" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F549" s="7">
+        <v>10</v>
+      </c>
+      <c r="G549" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H549" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E550" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F550" s="7">
+        <v>50</v>
+      </c>
+      <c r="G550" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H550" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E551" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F551" s="7">
+        <v>56</v>
+      </c>
+      <c r="G551" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H551" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E552" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F552" s="7">
+        <v>200</v>
+      </c>
+      <c r="G552" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H552" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E553" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>90</v>
+      </c>
+      <c r="B554" t="s">
+        <v>63</v>
+      </c>
+      <c r="C554">
+        <v>5</v>
+      </c>
+      <c r="D554" t="s">
+        <v>476</v>
+      </c>
+      <c r="E554" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F554" s="7">
+        <v>250</v>
+      </c>
+      <c r="G554" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H554" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I554" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J554">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E555" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F555" s="7">
+        <v>40</v>
+      </c>
+      <c r="G555" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H555" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E556" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F556" s="7">
+        <v>120</v>
+      </c>
+      <c r="G556" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H556" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E557" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F557" s="7">
+        <v>200</v>
+      </c>
+      <c r="G557" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H557" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E558" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F558" s="7">
+        <v>45</v>
+      </c>
+      <c r="G558" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H558" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E559" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G559" s="7"/>
+    </row>
+    <row r="560" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>91</v>
+      </c>
+      <c r="B560" t="s">
+        <v>64</v>
+      </c>
+      <c r="C560">
+        <v>30</v>
+      </c>
+      <c r="D560" t="s">
+        <v>477</v>
+      </c>
+      <c r="E560" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F560" s="7">
+        <v>200</v>
+      </c>
+      <c r="G560" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H560" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I560" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="J560">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E561" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F561" s="7">
+        <v>20</v>
+      </c>
+      <c r="G561" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H561" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E562" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F562" s="7">
+        <v>30</v>
+      </c>
+      <c r="G562" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H562" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E563" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F563" s="7">
+        <v>20</v>
+      </c>
+      <c r="G563" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H563" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E564" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F564" s="7">
+        <v>120</v>
+      </c>
+      <c r="G564" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H564" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E565" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F565" s="7">
+        <v>130</v>
+      </c>
+      <c r="G565" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H565" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E566" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F566" s="7">
+        <v>40</v>
+      </c>
+      <c r="G566" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H566" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E567" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F567" s="7">
+        <v>120</v>
+      </c>
+      <c r="G567" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H567" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E568" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F568" s="7">
+        <v>250</v>
+      </c>
+      <c r="G568" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H568" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E569" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F569" s="7">
+        <v>130</v>
+      </c>
+      <c r="G569" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H569" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I569" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E570" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>92</v>
+      </c>
+      <c r="B571" t="s">
+        <v>174</v>
+      </c>
+      <c r="D571" t="s">
+        <v>340</v>
+      </c>
+      <c r="E571" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F571" s="7">
+        <v>60</v>
+      </c>
+      <c r="G571" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H571" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I571" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J571">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E572" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>93</v>
+      </c>
+      <c r="B573" t="s">
+        <v>96</v>
+      </c>
+      <c r="C573">
+        <v>10</v>
+      </c>
+      <c r="D573" t="s">
+        <v>481</v>
+      </c>
+      <c r="E573" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F573" s="7">
+        <v>20</v>
+      </c>
+      <c r="G573" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H573" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I573" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="J573">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E574" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F574" s="9">
+        <v>120</v>
+      </c>
+      <c r="G574" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H574" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E575" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F575" s="7">
+        <v>10</v>
+      </c>
+      <c r="G575" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H575" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E576" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F576" s="10">
+        <v>80</v>
+      </c>
+      <c r="G576" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H576" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E577" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F577" s="7">
+        <v>120</v>
+      </c>
+      <c r="G577" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H577" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E578" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>94</v>
+      </c>
+      <c r="B579" t="s">
+        <v>123</v>
+      </c>
+      <c r="C579">
+        <v>30</v>
+      </c>
+      <c r="D579" t="s">
+        <v>484</v>
+      </c>
+      <c r="E579" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F579" s="9">
+        <v>125</v>
+      </c>
+      <c r="G579" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H579" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="I579" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="J579">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E580" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F580" s="9">
+        <v>80</v>
+      </c>
+      <c r="G580" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H580" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E581" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F581" s="9">
+        <v>5</v>
+      </c>
+      <c r="G581" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H581" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E582" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F582" s="9">
+        <v>56</v>
+      </c>
+      <c r="G582" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H582" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E583" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F583" s="9">
+        <v>100</v>
+      </c>
+      <c r="G583" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H583" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E584" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F584" s="9">
+        <v>100</v>
+      </c>
+      <c r="G584" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H584" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E585" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F585" s="9">
+        <v>100</v>
+      </c>
+      <c r="G585" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H585" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E586" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>95</v>
+      </c>
+      <c r="B587" t="s">
+        <v>63</v>
+      </c>
+      <c r="C587">
+        <v>5</v>
+      </c>
+      <c r="D587" t="s">
+        <v>490</v>
+      </c>
+      <c r="E587" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F587" s="9">
+        <v>30</v>
+      </c>
+      <c r="G587" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H587" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I587" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="J587">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E588" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F588" s="9">
+        <v>30</v>
+      </c>
+      <c r="G588" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H588" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E589" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F589" s="9">
+        <v>120</v>
+      </c>
+      <c r="G589" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H589" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E590" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F590" s="9">
+        <v>200</v>
+      </c>
+      <c r="G590" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H590" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E591" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F591" s="9">
+        <v>250</v>
+      </c>
+      <c r="G591" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H591" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E592" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G592" s="9"/>
+    </row>
+    <row r="593" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>96</v>
+      </c>
+      <c r="B593" t="s">
+        <v>64</v>
+      </c>
+      <c r="C593">
+        <v>30</v>
+      </c>
+      <c r="D593" t="s">
+        <v>493</v>
+      </c>
+      <c r="E593" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F593" s="9">
+        <v>200</v>
+      </c>
+      <c r="G593" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H593" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I593" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="J593">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E594" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F594" s="9">
+        <v>420</v>
+      </c>
+      <c r="G594" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H594" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E595" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F595" s="9">
+        <v>50</v>
+      </c>
+      <c r="G595" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H595" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E596" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F596" s="9">
+        <v>15</v>
+      </c>
+      <c r="G596" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H596" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E597" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F597" s="9">
+        <v>5</v>
+      </c>
+      <c r="G597" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H597" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E598" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F598" s="9">
+        <v>1</v>
+      </c>
+      <c r="G598" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H598" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E599" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F599" s="9">
+        <v>45</v>
+      </c>
+      <c r="G599" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H599" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E600" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F600" s="9">
+        <v>200</v>
+      </c>
+      <c r="G600" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H600" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E601" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F601" s="9">
+        <v>250</v>
+      </c>
+      <c r="G601" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H601" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E602" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>97</v>
+      </c>
+      <c r="B603" t="s">
+        <v>174</v>
+      </c>
+      <c r="C603">
+        <v>5</v>
+      </c>
+      <c r="D603" t="s">
+        <v>501</v>
+      </c>
+      <c r="E603" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F603" s="9">
+        <v>50</v>
+      </c>
+      <c r="G603" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H603" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I603" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="J603">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E604" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F604" s="9">
+        <v>180</v>
+      </c>
+      <c r="G604" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H604" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E605" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>98</v>
+      </c>
+      <c r="B606" t="s">
+        <v>96</v>
+      </c>
+      <c r="C606">
+        <v>15</v>
+      </c>
+      <c r="D606" t="s">
+        <v>503</v>
+      </c>
+      <c r="E606" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F606" s="9">
+        <v>15</v>
+      </c>
+      <c r="G606" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H606" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="I606" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="J606">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E607" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F607" s="9">
+        <v>30</v>
+      </c>
+      <c r="G607" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H607" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E608" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F608" s="9">
+        <v>120</v>
+      </c>
+      <c r="G608" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H608" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="609" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E609" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F609" s="9">
+        <v>60</v>
+      </c>
+      <c r="G609" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H609" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="610" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E610" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F610" s="9">
+        <v>60</v>
+      </c>
+      <c r="G610" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H610" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="611" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E611" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F611" s="9">
+        <v>10</v>
+      </c>
+      <c r="G611" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H611" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="612" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E612" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F612" s="9">
+        <v>90</v>
+      </c>
+      <c r="G612" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H612" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="613" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E613" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F613" s="9">
+        <v>7</v>
+      </c>
+      <c r="G613" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H613" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="614" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E614" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F614" s="9">
+        <v>250</v>
+      </c>
+      <c r="G614" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H614" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E615" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docker/excel/jadlospis2.xlsx
+++ b/Docker/excel/jadlospis2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMOWANIE\etmeall2\EatMeAll\Docker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE900B-643D-4C6B-8FBF-F27C063513B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5028186-AE8A-401A-B798-D4E96A251CA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{DC9E3696-05CD-4AC0-85C8-C796492A84E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="505">
   <si>
     <t>Koktajl mleczny z otrębami</t>
   </si>
@@ -1120,9 +1120,6 @@
     <t>rukola</t>
   </si>
   <si>
-    <t>Chleb posmaruj masłem; Na wierzch wyłóż rukolę oraz pokrojonego pomidora i mozzarellę</t>
-  </si>
-  <si>
     <t>BULGUR Z INDYKIEM SUSZONYMI POMIDORAMI I CUKINIĄ</t>
   </si>
   <si>
@@ -1138,13 +1135,6 @@
     <t>7,69 łyżka</t>
   </si>
   <si>
-    <t>Ugotuj bulgur; Mięso pokrój w kostkę i wrzuć na rozgrzany olej; Po chwili dodaj posiekany czosnek oraz pokrojoną cukinię i pomidory; Dodaj niewielką ilość wody oraz przyptawy (papryka ostra, pieprz, sól, zioła
-prowanskalskie). Duś przez kilka minut; Podawaj z kaszą</t>
-  </si>
-  <si>
-    <t>Umyj jabłko i zjedz jako przekąskę</t>
-  </si>
-  <si>
     <t>JOGURT Z RODZYNKAMI</t>
   </si>
   <si>
@@ -1199,9 +1189,6 @@
     <t xml:space="preserve">X </t>
   </si>
   <si>
-    <t>Chleb posmaruj masłem; Na wierzch wyłóż rukolę, szynkę i pokrojoną rzodkiewkę</t>
-  </si>
-  <si>
     <t>PĘCZAK Z KURCZAKIEM, PAPRYKĄ I MARCHEWKĄ</t>
   </si>
   <si>
@@ -1218,11 +1205,6 @@
   </si>
   <si>
     <t>6,67 łyżki</t>
-  </si>
-  <si>
-    <t>Kaszę ugotuj; Cebulę posiekaj i zeszklij na rozgrzanej oliwie; Dodaj po chwili pokrojoną paprykę i marchewkę; Po 5 minutach dodaj pokrojonego w kostkę i przyprawionego (chili, pieprz ziołowy)
-kurczaka; Gdy mięso się zetnie, dodaj pomidory i zioła prowansalskie. Duś kilka minut pod
-przykryciem; Wymieszaj z ugotowaną kaszą</t>
   </si>
   <si>
     <t>KEFIR + BANAN</t>
@@ -1333,9 +1315,6 @@
   </si>
   <si>
     <t>KANAPKI Z HUMMUSEM, SAŁATĄ I SZYNKĄ</t>
-  </si>
-  <si>
-    <t>Chleb posmaruj hummusem.; Na wierzch wyłóż sałatę i szynkę</t>
   </si>
   <si>
     <t xml:space="preserve">4 szt. </t>
@@ -1562,6 +1541,24 @@
   </si>
   <si>
     <t>Pokrój pomidora, cebulę i ogórka; Wymieszaj warzywa oraz dodaj porwane na mniejsze części liście sałaty; Dodaj kawałki mozzarelli, oliwę oraz pieprz i sól. Wymieszaj; Podawaj z pieczywem z masłem</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj masłem; Na wierzch wyłóż rukolę oraz pokrojonego pomidora i mozzarellę; Umyj jabłko i zjedz jako przekąskę</t>
+  </si>
+  <si>
+    <t>Ugotuj bulgur; Mięso pokrój w kostkę i wrzuć na rozgrzany olej; Po chwili dodaj posiekany czosnek oraz pokrojoną cukinię i pomidory; Dodaj niewielką ilość wody oraz przyptawy (papryka ostra, pieprz, sól, zioła
+prowanskalskie). Duś przez kilka minut; Podawaj z kaszą; Zjesc ze smakiem</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj masłem; Na wierzch wyłóż rukolę, szynkę i pokrojoną rzodkiewkę; Zjesc ze smakiem</t>
+  </si>
+  <si>
+    <t>Kaszę ugotuj; Cebulę posiekaj i zeszklij na rozgrzanej oliwie; Dodaj po chwili pokrojoną paprykę i marchewkę; Po 5 minutach dodaj pokrojonego w kostkę i przyprawionego (chili, pieprz ziołowy); Zjesc ze smakiem
+kurczaka; Gdy mięso się zetnie, dodaj pomidory i zioła prowansalskie. Duś kilka minut pod
+przykryciem; Wymieszaj z ugotowaną kaszą</t>
+  </si>
+  <si>
+    <t>Chleb posmaruj hummusem.; Na wierzch wyłóż sałatę i szynk; Zjeść ze zmakiem</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1607,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1633,40 +1630,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1675,30 +1643,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2015,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1838D449-8DD4-4711-984B-E0AC88629B5C}">
   <dimension ref="A1:K615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A616" sqref="A616"/>
+    <sheetView tabSelected="1" topLeftCell="A462" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I612" sqref="I612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6733,7 +6677,9 @@
       <c r="J209" s="1">
         <v>548</v>
       </c>
-      <c r="K209" s="1"/>
+      <c r="K209" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="210" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
@@ -6905,7 +6851,9 @@
         <v>259</v>
       </c>
       <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
+      <c r="K217" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="218" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
@@ -7056,7 +7004,9 @@
         <v>267</v>
       </c>
       <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
+      <c r="K224" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="225" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
@@ -7241,7 +7191,7 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>43</v>
       </c>
@@ -7270,7 +7220,9 @@
         <v>55</v>
       </c>
       <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
+      <c r="K234" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="235" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
@@ -7337,7 +7289,9 @@
         <v>274</v>
       </c>
       <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
+      <c r="K237" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="238" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
@@ -7488,7 +7442,9 @@
         <v>278</v>
       </c>
       <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
+      <c r="K244" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="245" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
@@ -7610,7 +7566,7 @@
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>46</v>
       </c>
@@ -7639,7 +7595,9 @@
         <v>282</v>
       </c>
       <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
+      <c r="K251" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="252" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
@@ -7748,7 +7706,9 @@
         <v>291</v>
       </c>
       <c r="J256" s="1"/>
-      <c r="K256" s="1"/>
+      <c r="K256" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="257" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
@@ -7912,7 +7872,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>48</v>
       </c>
@@ -7941,7 +7901,9 @@
         <v>55</v>
       </c>
       <c r="J265" s="1"/>
-      <c r="K265" s="1"/>
+      <c r="K265" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="266" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
@@ -8008,7 +7970,9 @@
         <v>300</v>
       </c>
       <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
+      <c r="K268" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="269" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
@@ -8159,7 +8123,9 @@
         <v>305</v>
       </c>
       <c r="J275" s="1"/>
-      <c r="K275" s="1"/>
+      <c r="K275" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="276" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
@@ -8260,7 +8226,7 @@
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>51</v>
       </c>
@@ -8289,7 +8255,9 @@
         <v>311</v>
       </c>
       <c r="J281" s="1"/>
-      <c r="K281" s="1"/>
+      <c r="K281" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="282" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
@@ -8398,7 +8366,9 @@
         <v>318</v>
       </c>
       <c r="J286" s="1"/>
-      <c r="K286" s="1"/>
+      <c r="K286" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="287" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
@@ -8612,7 +8582,9 @@
         <v>323</v>
       </c>
       <c r="J296" s="1"/>
-      <c r="K296" s="1"/>
+      <c r="K296" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="297" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
@@ -8763,7 +8735,9 @@
         <v>327</v>
       </c>
       <c r="J303" s="1"/>
-      <c r="K303" s="1"/>
+      <c r="K303" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="304" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
@@ -8885,7 +8859,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>55</v>
       </c>
@@ -8914,7 +8888,9 @@
         <v>332</v>
       </c>
       <c r="J310" s="1"/>
-      <c r="K310" s="1"/>
+      <c r="K310" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="311" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
@@ -9044,7 +9020,9 @@
         <v>339</v>
       </c>
       <c r="J316" s="1"/>
-      <c r="K316" s="1"/>
+      <c r="K316" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="317" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
@@ -9302,7 +9280,9 @@
         <v>344</v>
       </c>
       <c r="J328" s="1"/>
-      <c r="K328" s="1"/>
+      <c r="K328" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="329" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
@@ -9495,7 +9475,9 @@
         <v>349</v>
       </c>
       <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
+      <c r="K337" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="338" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
@@ -9617,7 +9599,7 @@
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>60</v>
       </c>
@@ -9646,7 +9628,9 @@
         <v>351</v>
       </c>
       <c r="J344" s="1"/>
-      <c r="K344" s="1"/>
+      <c r="K344" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="345" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
@@ -9797,7 +9781,9 @@
         <v>355</v>
       </c>
       <c r="J351" s="1"/>
-      <c r="K351" s="1"/>
+      <c r="K351" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="352" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
@@ -10011,7 +9997,9 @@
         <v>55</v>
       </c>
       <c r="J361" s="1"/>
-      <c r="K361" s="1"/>
+      <c r="K361" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="362" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
@@ -10078,7 +10066,9 @@
         <v>358</v>
       </c>
       <c r="J364" s="1"/>
-      <c r="K364" s="1"/>
+      <c r="K364" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="365" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
@@ -10231,7 +10221,9 @@
       <c r="J371" s="1">
         <v>629</v>
       </c>
-      <c r="K371" s="1"/>
+      <c r="K371" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="372" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
@@ -10332,7 +10324,7 @@
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
     </row>
-    <row r="377" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>65</v>
       </c>
@@ -10345,7 +10337,7 @@
       <c r="D377" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E377" s="4" t="s">
+      <c r="E377" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F377" s="1">
@@ -10358,12 +10350,14 @@
         <v>162</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>363</v>
+        <v>500</v>
       </c>
       <c r="J377" s="1">
         <v>618</v>
       </c>
-      <c r="K377" s="1"/>
+      <c r="K377" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="378" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
@@ -10466,9 +10460,7 @@
       <c r="H382" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I382" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="I382" s="1"/>
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
     </row>
@@ -10498,10 +10490,10 @@
         <v>30</v>
       </c>
       <c r="D384" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E384" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="F384" s="1">
         <v>200</v>
@@ -10513,12 +10505,14 @@
         <v>237</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>369</v>
+        <v>501</v>
       </c>
       <c r="J384" s="1">
         <v>859</v>
       </c>
-      <c r="K384" s="1"/>
+      <c r="K384" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="385" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1"/>
@@ -10547,7 +10541,7 @@
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F386" s="1">
         <v>150</v>
@@ -10610,7 +10604,7 @@
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F389" s="1">
         <v>100</v>
@@ -10619,7 +10613,7 @@
         <v>6</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
@@ -10663,9 +10657,7 @@
       <c r="H391" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I391" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="I391" s="1"/>
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
     </row>
@@ -10684,7 +10676,7 @@
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
     </row>
-    <row r="393" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>67</v>
       </c>
@@ -10695,7 +10687,7 @@
         <v>5</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>329</v>
@@ -10710,12 +10702,14 @@
         <v>14</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J393" s="1">
         <v>279</v>
       </c>
-      <c r="K393" s="1"/>
+      <c r="K393" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="394" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1"/>
@@ -10764,7 +10758,7 @@
         <v>15</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>314</v>
@@ -10776,15 +10770,17 @@
         <v>6</v>
       </c>
       <c r="H396" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I396" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="I396" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="J396" s="1">
         <v>573</v>
       </c>
-      <c r="K396" s="1"/>
+      <c r="K396" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="397" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1"/>
@@ -10822,7 +10818,7 @@
         <v>6</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -10876,7 +10872,7 @@
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F401" s="1">
         <v>15</v>
@@ -10906,7 +10902,7 @@
         <v>6</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -10939,7 +10935,7 @@
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F404" s="1">
         <v>220</v>
@@ -10982,7 +10978,7 @@
         <v>15</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>251</v>
@@ -10994,15 +10990,17 @@
         <v>6</v>
       </c>
       <c r="H406" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I406" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="I406" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="J406" s="1">
         <v>624</v>
       </c>
-      <c r="K406" s="1"/>
+      <c r="K406" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="407" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1"/>
@@ -11031,7 +11029,7 @@
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F408" s="1">
         <v>30</v>
@@ -11040,7 +11038,7 @@
         <v>6</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
@@ -11082,7 +11080,7 @@
         <v>6</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
@@ -11145,7 +11143,7 @@
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
     </row>
-    <row r="414" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>70</v>
       </c>
@@ -11156,7 +11154,7 @@
         <v>5</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>251</v>
@@ -11171,12 +11169,14 @@
         <v>162</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>389</v>
+        <v>502</v>
       </c>
       <c r="J414" s="1">
         <v>638</v>
       </c>
-      <c r="K414" s="1"/>
+      <c r="K414" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="415" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1"/>
@@ -11199,3054 +11199,4415 @@
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E416" s="4" t="s">
+    <row r="416" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F416" s="4">
+      <c r="F416" s="1">
         <v>120</v>
       </c>
-      <c r="G416" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H416" s="4" t="s">
+      <c r="G416" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H416" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E417" s="4" t="s">
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+    </row>
+    <row r="417" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="E417" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F417" s="4">
+      <c r="F417" s="1">
         <v>60</v>
       </c>
-      <c r="G417" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H417" s="4" t="s">
+      <c r="G417" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H417" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E418" s="4" t="s">
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+      <c r="K417" s="1"/>
+    </row>
+    <row r="418" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F418" s="4">
+      <c r="F418" s="1">
         <v>20</v>
       </c>
-      <c r="G418" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H418" s="4" t="s">
+      <c r="G418" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H418" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E419" s="4" t="s">
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+      <c r="K418" s="1"/>
+    </row>
+    <row r="419" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+      <c r="E419" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F419" s="4">
+      <c r="F419" s="1">
         <v>75</v>
       </c>
-      <c r="G419" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H419" s="4" t="s">
+      <c r="G419" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I419" s="1"/>
+      <c r="J419" s="1"/>
+      <c r="K419" s="1"/>
+    </row>
+    <row r="420" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F420" s="1"/>
+      <c r="G420" s="1"/>
+      <c r="H420" s="1"/>
+      <c r="I420" s="1"/>
+      <c r="J420" s="1"/>
+      <c r="K420" s="1"/>
+    </row>
+    <row r="421" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="1">
+        <v>71</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C421" s="1">
+        <v>30</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F421" s="1">
+        <v>10</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J421" s="1">
+        <v>908</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I419" s="5" t="s">
+      <c r="F422" s="1">
+        <v>200</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I422" s="1"/>
+      <c r="J422" s="1"/>
+      <c r="K422" s="1"/>
+    </row>
+    <row r="423" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
+      <c r="E423" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F423" s="1">
+        <v>50</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I423" s="1"/>
+      <c r="J423" s="1"/>
+      <c r="K423" s="1"/>
+    </row>
+    <row r="424" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
+      <c r="E424" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F424" s="1">
+        <v>45</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I424" s="1"/>
+      <c r="J424" s="1"/>
+      <c r="K424" s="1"/>
+    </row>
+    <row r="425" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F425" s="1">
+        <v>100</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I425" s="1"/>
+      <c r="J425" s="1"/>
+      <c r="K425" s="1"/>
+    </row>
+    <row r="426" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
+      <c r="E426" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F426" s="1">
+        <v>200</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I426" s="1"/>
+      <c r="J426" s="1"/>
+      <c r="K426" s="1"/>
+    </row>
+    <row r="427" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+      <c r="E427" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F427" s="1">
+        <v>70</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I427" s="1"/>
+      <c r="J427" s="1"/>
+      <c r="K427" s="1"/>
+    </row>
+    <row r="428" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+      <c r="D428" s="1"/>
+      <c r="E428" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F428" s="1">
+        <v>250</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I428" s="1"/>
+      <c r="J428" s="1"/>
+      <c r="K428" s="1"/>
+    </row>
+    <row r="429" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+      <c r="D429" s="1"/>
+      <c r="E429" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F429" s="1">
+        <v>200</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I429" s="1"/>
+      <c r="J429" s="1"/>
+      <c r="K429" s="1"/>
+    </row>
+    <row r="430" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
+      <c r="E430" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F430" s="1"/>
+      <c r="G430" s="1"/>
+      <c r="H430" s="1"/>
+      <c r="I430" s="1"/>
+      <c r="J430" s="1"/>
+      <c r="K430" s="1"/>
+    </row>
+    <row r="431" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="1">
+        <v>72</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F431" s="1">
+        <v>250</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I431" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E420" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="421" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A421">
-        <v>71</v>
-      </c>
-      <c r="B421" t="s">
+      <c r="J431" s="1">
+        <v>218</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+      <c r="D432" s="1"/>
+      <c r="E432" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F432" s="1">
+        <v>120</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I432" s="1"/>
+      <c r="J432" s="1"/>
+      <c r="K432" s="1"/>
+    </row>
+    <row r="433" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
+      <c r="E433" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F433" s="1"/>
+      <c r="G433" s="1"/>
+      <c r="H433" s="1"/>
+      <c r="I433" s="1"/>
+      <c r="J433" s="1"/>
+      <c r="K433" s="1"/>
+    </row>
+    <row r="434" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="1">
+        <v>73</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C434" s="1">
+        <v>10</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F434" s="1">
+        <v>7</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J434" s="1">
+        <v>572</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="E435" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F435" s="1">
+        <v>90</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I435" s="1"/>
+      <c r="J435" s="1"/>
+      <c r="K435" s="1"/>
+    </row>
+    <row r="436" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
+      <c r="E436" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F436" s="1">
+        <v>20</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I436" s="1"/>
+      <c r="J436" s="1"/>
+      <c r="K436" s="1"/>
+    </row>
+    <row r="437" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F437" s="1">
+        <v>6</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I437" s="1"/>
+      <c r="J437" s="1"/>
+      <c r="K437" s="1"/>
+    </row>
+    <row r="438" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F438" s="1">
+        <v>80</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I438" s="1"/>
+      <c r="J438" s="1"/>
+      <c r="K438" s="1"/>
+    </row>
+    <row r="439" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+      <c r="E439" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F439" s="1">
+        <v>70</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I439" s="1"/>
+      <c r="J439" s="1"/>
+      <c r="K439" s="1"/>
+    </row>
+    <row r="440" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+      <c r="E440" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F440" s="1">
+        <v>25</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I440" s="1"/>
+      <c r="J440" s="1"/>
+      <c r="K440" s="1"/>
+    </row>
+    <row r="441" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F441" s="1">
+        <v>90</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I441" s="1"/>
+      <c r="J441" s="1"/>
+      <c r="K441" s="1"/>
+    </row>
+    <row r="442" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="E442" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F442" s="1">
+        <v>250</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I442" s="1"/>
+      <c r="J442" s="1"/>
+      <c r="K442" s="1"/>
+    </row>
+    <row r="443" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F443" s="1"/>
+      <c r="G443" s="1"/>
+      <c r="H443" s="1"/>
+      <c r="I443" s="1"/>
+      <c r="J443" s="1"/>
+      <c r="K443" s="1"/>
+    </row>
+    <row r="444" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="1">
+        <v>74</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C444" s="1">
+        <v>10</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F444" s="1">
+        <v>20</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J444" s="1">
+        <v>574</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+      <c r="E445" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F445" s="1">
+        <v>112</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I445" s="1"/>
+      <c r="J445" s="1"/>
+      <c r="K445" s="1"/>
+    </row>
+    <row r="446" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+      <c r="E446" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F446" s="1">
+        <v>60</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I446" s="1"/>
+      <c r="J446" s="1"/>
+      <c r="K446" s="1"/>
+    </row>
+    <row r="447" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+      <c r="E447" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F447" s="1">
+        <v>40</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I447" s="1"/>
+      <c r="J447" s="1"/>
+      <c r="K447" s="1"/>
+    </row>
+    <row r="448" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+      <c r="D448" s="1"/>
+      <c r="E448" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F448" s="1">
+        <v>120</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I448" s="1"/>
+      <c r="J448" s="1"/>
+      <c r="K448" s="1"/>
+    </row>
+    <row r="449" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+      <c r="D449" s="1"/>
+      <c r="E449" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+      <c r="H449" s="1"/>
+      <c r="I449" s="1"/>
+      <c r="J449" s="1"/>
+      <c r="K449" s="1"/>
+    </row>
+    <row r="450" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="1">
+        <v>75</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C450" s="1">
+        <v>5</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F450" s="1">
+        <v>45</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J450" s="1">
+        <v>554</v>
+      </c>
+      <c r="K450" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
+      <c r="E451" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F451" s="1">
+        <v>90</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I451" s="1"/>
+      <c r="J451" s="1"/>
+      <c r="K451" s="1"/>
+    </row>
+    <row r="452" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
+      <c r="E452" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F452" s="1">
+        <v>45</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I452" s="1"/>
+      <c r="J452" s="1"/>
+      <c r="K452" s="1"/>
+    </row>
+    <row r="453" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+      <c r="D453" s="1"/>
+      <c r="E453" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+      <c r="H453" s="1"/>
+      <c r="I453" s="1"/>
+      <c r="J453" s="1"/>
+      <c r="K453" s="1"/>
+    </row>
+    <row r="454" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="1">
+        <v>76</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C454" s="1">
+        <v>25</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F454" s="1">
+        <v>200</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J454" s="1">
+        <v>890</v>
+      </c>
+      <c r="K454" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
+      <c r="E455" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F455" s="1">
+        <v>50</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I455" s="1"/>
+      <c r="J455" s="1"/>
+      <c r="K455" s="1"/>
+    </row>
+    <row r="456" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+      <c r="D456" s="1"/>
+      <c r="E456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F456" s="1">
+        <v>5</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I456" s="1"/>
+      <c r="J456" s="1"/>
+      <c r="K456" s="1"/>
+    </row>
+    <row r="457" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+      <c r="D457" s="1"/>
+      <c r="E457" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F457" s="1">
+        <v>200</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I457" s="1"/>
+      <c r="J457" s="1"/>
+      <c r="K457" s="1"/>
+    </row>
+    <row r="458" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+      <c r="D458" s="1"/>
+      <c r="E458" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F458" s="1">
+        <v>5</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I458" s="1"/>
+      <c r="J458" s="1"/>
+      <c r="K458" s="1"/>
+    </row>
+    <row r="459" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+      <c r="D459" s="1"/>
+      <c r="E459" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F459" s="1">
+        <v>100</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I459" s="1"/>
+      <c r="J459" s="1"/>
+      <c r="K459" s="1"/>
+    </row>
+    <row r="460" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="1"/>
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
+      <c r="D460" s="1"/>
+      <c r="E460" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F460" s="1">
+        <v>12</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I460" s="1"/>
+      <c r="J460" s="1"/>
+      <c r="K460" s="1"/>
+    </row>
+    <row r="461" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="1"/>
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
+      <c r="D461" s="1"/>
+      <c r="E461" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F461" s="1">
+        <v>130</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I461" s="1"/>
+      <c r="J461" s="1"/>
+      <c r="K461" s="1"/>
+    </row>
+    <row r="462" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
+      <c r="D462" s="1"/>
+      <c r="E462" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+      <c r="H462" s="1"/>
+      <c r="I462" s="1"/>
+      <c r="J462" s="1"/>
+      <c r="K462" s="1"/>
+    </row>
+    <row r="463" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="1">
+        <v>77</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F463" s="1">
+        <v>120</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J463" s="1">
+        <v>288</v>
+      </c>
+      <c r="K463" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="1"/>
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
+      <c r="D464" s="1"/>
+      <c r="E464" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F464" s="1">
+        <v>60</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I464" s="1"/>
+      <c r="J464" s="1"/>
+      <c r="K464" s="1"/>
+    </row>
+    <row r="465" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="1"/>
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
+      <c r="D465" s="1"/>
+      <c r="E465" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+      <c r="H465" s="1"/>
+      <c r="I465" s="1"/>
+      <c r="J465" s="1"/>
+      <c r="K465" s="1"/>
+    </row>
+    <row r="466" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="1">
+        <v>78</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C466" s="1">
+        <v>25</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F466" s="1">
+        <v>70</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J466" s="1">
+        <v>616</v>
+      </c>
+      <c r="K466" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
+      <c r="D467" s="1"/>
+      <c r="E467" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F467" s="1">
+        <v>20</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I467" s="1"/>
+      <c r="J467" s="1"/>
+      <c r="K467" s="1"/>
+    </row>
+    <row r="468" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+      <c r="D468" s="1"/>
+      <c r="E468" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F468" s="1">
+        <v>150</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I468" s="1"/>
+      <c r="J468" s="1"/>
+      <c r="K468" s="1"/>
+    </row>
+    <row r="469" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="1"/>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+      <c r="D469" s="1"/>
+      <c r="E469" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F469" s="1">
+        <v>10</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I469" s="1"/>
+      <c r="J469" s="1"/>
+      <c r="K469" s="1"/>
+    </row>
+    <row r="470" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="1"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+      <c r="E470" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F470" s="1">
+        <v>10</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I470" s="1"/>
+      <c r="J470" s="1"/>
+      <c r="K470" s="1"/>
+    </row>
+    <row r="471" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+      <c r="D471" s="1"/>
+      <c r="E471" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F471" s="1">
+        <v>30</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I471" s="1"/>
+      <c r="J471" s="1"/>
+      <c r="K471" s="1"/>
+    </row>
+    <row r="472" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="1"/>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+      <c r="D472" s="1"/>
+      <c r="E472" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+      <c r="H472" s="1"/>
+      <c r="I472" s="1"/>
+      <c r="J472" s="1"/>
+      <c r="K472" s="1"/>
+    </row>
+    <row r="473" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A473" s="1">
+        <v>79</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C473" s="1">
+        <v>10</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F473" s="1">
+        <v>7</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J473" s="1">
+        <v>596</v>
+      </c>
+      <c r="K473" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="1"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+      <c r="E474" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F474" s="1">
+        <v>90</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I474" s="1"/>
+      <c r="J474" s="1"/>
+      <c r="K474" s="1"/>
+    </row>
+    <row r="475" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="1"/>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+      <c r="D475" s="1"/>
+      <c r="E475" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F475" s="1">
+        <v>100</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I475" s="1"/>
+      <c r="J475" s="1"/>
+      <c r="K475" s="1"/>
+    </row>
+    <row r="476" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
+      <c r="E476" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F476" s="1">
+        <v>100</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I476" s="1"/>
+      <c r="J476" s="1"/>
+      <c r="K476" s="1"/>
+    </row>
+    <row r="477" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A477" s="1"/>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+      <c r="D477" s="1"/>
+      <c r="E477" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F477" s="1">
+        <v>24</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I477" s="1"/>
+      <c r="J477" s="1"/>
+      <c r="K477" s="1"/>
+    </row>
+    <row r="478" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="1"/>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
+      <c r="D478" s="1"/>
+      <c r="E478" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F478" s="1">
+        <v>2</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I478" s="1"/>
+      <c r="J478" s="1"/>
+      <c r="K478" s="1"/>
+    </row>
+    <row r="479" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+      <c r="D479" s="1"/>
+      <c r="E479" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F479" s="1">
+        <v>15</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I479" s="1"/>
+      <c r="J479" s="1"/>
+      <c r="K479" s="1"/>
+    </row>
+    <row r="480" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
+      <c r="E480" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+      <c r="H480" s="1"/>
+      <c r="I480" s="1"/>
+      <c r="J480" s="1"/>
+      <c r="K480" s="1"/>
+    </row>
+    <row r="481" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A481" s="1">
+        <v>80</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C481" s="1">
+        <v>5</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F481" s="1">
+        <v>20</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J481" s="1">
+        <v>581</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="1"/>
+      <c r="E482" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F482" s="1">
+        <v>120</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I482" s="1"/>
+      <c r="J482" s="1"/>
+      <c r="K482" s="1"/>
+    </row>
+    <row r="483" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+      <c r="D483" s="1"/>
+      <c r="E483" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F483" s="1">
+        <v>40</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I483" s="1"/>
+      <c r="J483" s="1"/>
+      <c r="K483" s="1"/>
+    </row>
+    <row r="484" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+      <c r="D484" s="1"/>
+      <c r="E484" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F484" s="1">
+        <v>60</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I484" s="1"/>
+      <c r="J484" s="1"/>
+      <c r="K484" s="1"/>
+    </row>
+    <row r="485" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
+      <c r="E485" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F485" s="1">
+        <v>260</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I485" s="1"/>
+      <c r="J485" s="1"/>
+      <c r="K485" s="1"/>
+    </row>
+    <row r="486" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="1"/>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+      <c r="D486" s="1"/>
+      <c r="E486" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+      <c r="H486" s="1"/>
+      <c r="I486" s="1"/>
+      <c r="J486" s="1"/>
+      <c r="K486" s="1"/>
+    </row>
+    <row r="487" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A487" s="1">
+        <v>81</v>
+      </c>
+      <c r="B487" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C421">
+      <c r="C487" s="1">
         <v>30</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D487" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F487" s="1">
+        <v>30</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J487" s="1">
+        <v>852</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="1"/>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+      <c r="D488" s="1"/>
+      <c r="E488" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F488" s="1">
+        <v>70</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I488" s="1"/>
+      <c r="J488" s="1"/>
+      <c r="K488" s="1"/>
+    </row>
+    <row r="489" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="1"/>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+      <c r="D489" s="1"/>
+      <c r="E489" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F489" s="1">
+        <v>200</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I489" s="1"/>
+      <c r="J489" s="1"/>
+      <c r="K489" s="1"/>
+    </row>
+    <row r="490" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="1"/>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
+      <c r="D490" s="1"/>
+      <c r="E490" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F490" s="1">
+        <v>32</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I490" s="1"/>
+      <c r="J490" s="1"/>
+      <c r="K490" s="1"/>
+    </row>
+    <row r="491" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A491" s="1"/>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+      <c r="D491" s="1"/>
+      <c r="E491" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F491" s="1">
+        <v>2</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I491" s="1"/>
+      <c r="J491" s="1"/>
+      <c r="K491" s="1"/>
+    </row>
+    <row r="492" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A492" s="1"/>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+      <c r="D492" s="1"/>
+      <c r="E492" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F492" s="1">
+        <v>50</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I492" s="1"/>
+      <c r="J492" s="1"/>
+      <c r="K492" s="1"/>
+    </row>
+    <row r="493" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+      <c r="D493" s="1"/>
+      <c r="E493" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F493" s="1">
+        <v>10</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I493" s="1"/>
+      <c r="J493" s="1"/>
+      <c r="K493" s="1"/>
+    </row>
+    <row r="494" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="1"/>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+      <c r="D494" s="1"/>
+      <c r="E494" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F494" s="1">
+        <v>45</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H494" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E421" s="4" t="s">
+      <c r="I494" s="1"/>
+      <c r="J494" s="1"/>
+      <c r="K494" s="1"/>
+    </row>
+    <row r="495" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="1"/>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+      <c r="D495" s="1"/>
+      <c r="E495" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F495" s="1">
+        <v>5</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I495" s="1"/>
+      <c r="J495" s="1"/>
+      <c r="K495" s="1"/>
+    </row>
+    <row r="496" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A496" s="1"/>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
+      <c r="D496" s="1"/>
+      <c r="E496" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F496" s="1">
+        <v>100</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I496" s="1"/>
+      <c r="J496" s="1"/>
+      <c r="K496" s="1"/>
+    </row>
+    <row r="497" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A497" s="1"/>
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+      <c r="D497" s="1"/>
+      <c r="E497" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F497" s="1">
+        <v>250</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I497" s="1"/>
+      <c r="J497" s="1"/>
+      <c r="K497" s="1"/>
+    </row>
+    <row r="498" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A498" s="1"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+      <c r="D498" s="1"/>
+      <c r="E498" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+      <c r="H498" s="1"/>
+      <c r="I498" s="1"/>
+      <c r="J498" s="1"/>
+      <c r="K498" s="1"/>
+    </row>
+    <row r="499" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A499" s="1">
+        <v>82</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C499" s="1">
+        <v>1</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F499" s="1">
+        <v>150</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J499" s="1">
+        <v>284</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="1"/>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
+      <c r="D500" s="1"/>
+      <c r="E500" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F500" s="1">
+        <v>40</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I500" s="1"/>
+      <c r="J500" s="1"/>
+      <c r="K500" s="1"/>
+    </row>
+    <row r="501" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A501" s="1"/>
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
+      <c r="D501" s="1"/>
+      <c r="E501" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F501" s="1"/>
+      <c r="G501" s="1"/>
+      <c r="H501" s="1"/>
+      <c r="I501" s="1"/>
+      <c r="J501" s="1"/>
+      <c r="K501" s="1"/>
+    </row>
+    <row r="502" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="1">
+        <v>83</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C502" s="1">
+        <v>15</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F502" s="1">
+        <v>7</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J502" s="1">
+        <v>614</v>
+      </c>
+      <c r="K502" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+      <c r="D503" s="1"/>
+      <c r="E503" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F503" s="1">
+        <v>90</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I503" s="1"/>
+      <c r="J503" s="1"/>
+      <c r="K503" s="1"/>
+    </row>
+    <row r="504" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="1"/>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
+      <c r="D504" s="1"/>
+      <c r="E504" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F504" s="1">
+        <v>20</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I504" s="1"/>
+      <c r="J504" s="1"/>
+      <c r="K504" s="1"/>
+    </row>
+    <row r="505" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
+      <c r="D505" s="1"/>
+      <c r="E505" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F505" s="1">
+        <v>30</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I505" s="1"/>
+      <c r="J505" s="1"/>
+      <c r="K505" s="1"/>
+    </row>
+    <row r="506" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="1"/>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
+      <c r="E506" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F506" s="1">
+        <v>120</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I506" s="1"/>
+      <c r="J506" s="1"/>
+      <c r="K506" s="1"/>
+    </row>
+    <row r="507" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
+      <c r="D507" s="1"/>
+      <c r="E507" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F507" s="1">
+        <v>10</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I507" s="1"/>
+      <c r="J507" s="1"/>
+      <c r="K507" s="1"/>
+    </row>
+    <row r="508" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
+      <c r="D508" s="1"/>
+      <c r="E508" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F508" s="1">
+        <v>60</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I508" s="1"/>
+      <c r="J508" s="1"/>
+      <c r="K508" s="1"/>
+    </row>
+    <row r="509" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="1"/>
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
+      <c r="D509" s="1"/>
+      <c r="E509" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F509" s="1">
+        <v>80</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I509" s="1"/>
+      <c r="J509" s="1"/>
+      <c r="K509" s="1"/>
+    </row>
+    <row r="510" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A510" s="1"/>
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
+      <c r="D510" s="1"/>
+      <c r="E510" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F510" s="1">
+        <v>250</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I510" s="1"/>
+      <c r="J510" s="1"/>
+      <c r="K510" s="1"/>
+    </row>
+    <row r="511" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
+      <c r="D511" s="1"/>
+      <c r="E511" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F511" s="1"/>
+      <c r="G511" s="1"/>
+      <c r="H511" s="1"/>
+      <c r="I511" s="1"/>
+      <c r="J511" s="1"/>
+      <c r="K511" s="1"/>
+    </row>
+    <row r="512" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A512" s="1">
+        <v>84</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C512" s="1">
+        <v>15</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F512" s="1">
+        <v>120</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J512" s="1">
+        <v>630</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
+      <c r="D513" s="1"/>
+      <c r="E513" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F513" s="1">
+        <v>30</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I513" s="1"/>
+      <c r="J513" s="1"/>
+      <c r="K513" s="1"/>
+    </row>
+    <row r="514" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A514" s="1"/>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
+      <c r="D514" s="1"/>
+      <c r="E514" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F421" s="6">
+      <c r="F514" s="1">
+        <v>3</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I514" s="1"/>
+      <c r="J514" s="1"/>
+      <c r="K514" s="1"/>
+    </row>
+    <row r="515" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A515" s="1"/>
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
+      <c r="D515" s="1"/>
+      <c r="E515" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F515" s="1">
+        <v>112</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I515" s="1"/>
+      <c r="J515" s="1"/>
+      <c r="K515" s="1"/>
+    </row>
+    <row r="516" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A516" s="1"/>
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
+      <c r="D516" s="1"/>
+      <c r="E516" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F516" s="1">
+        <v>40</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I516" s="1"/>
+      <c r="J516" s="1"/>
+      <c r="K516" s="1"/>
+    </row>
+    <row r="517" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A517" s="1"/>
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
+      <c r="D517" s="1"/>
+      <c r="E517" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F517" s="1"/>
+      <c r="G517" s="1"/>
+      <c r="H517" s="1"/>
+      <c r="I517" s="1"/>
+      <c r="J517" s="1"/>
+      <c r="K517" s="1"/>
+    </row>
+    <row r="518" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A518" s="1">
+        <v>85</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C518" s="1">
+        <v>5</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F518" s="1">
         <v>10</v>
       </c>
-      <c r="G421" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H421" s="7" t="s">
+      <c r="G518" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J518" s="1">
+        <v>561</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A519" s="1"/>
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
+      <c r="D519" s="1"/>
+      <c r="E519" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F519" s="1">
+        <v>60</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I519" s="1"/>
+      <c r="J519" s="1"/>
+      <c r="K519" s="1"/>
+    </row>
+    <row r="520" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A520" s="1"/>
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
+      <c r="D520" s="1"/>
+      <c r="E520" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F520" s="1">
+        <v>120</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I520" s="1"/>
+      <c r="J520" s="1"/>
+      <c r="K520" s="1"/>
+    </row>
+    <row r="521" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A521" s="1"/>
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
+      <c r="D521" s="1"/>
+      <c r="E521" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F521" s="1">
+        <v>120</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I521" s="1"/>
+      <c r="J521" s="1"/>
+      <c r="K521" s="1"/>
+    </row>
+    <row r="522" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
+      <c r="C522" s="1"/>
+      <c r="D522" s="1"/>
+      <c r="E522" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F522" s="1">
+        <v>60</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I522" s="1"/>
+      <c r="J522" s="1"/>
+      <c r="K522" s="1"/>
+    </row>
+    <row r="523" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A523" s="1"/>
+      <c r="B523" s="1"/>
+      <c r="C523" s="1"/>
+      <c r="D523" s="1"/>
+      <c r="E523" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F523" s="1">
+        <v>20</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I523" s="1"/>
+      <c r="J523" s="1"/>
+      <c r="K523" s="1"/>
+    </row>
+    <row r="524" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A524" s="1"/>
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
+      <c r="D524" s="1"/>
+      <c r="E524" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F524" s="1">
+        <v>200</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I524" s="1"/>
+      <c r="J524" s="1"/>
+      <c r="K524" s="1"/>
+    </row>
+    <row r="525" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A525" s="1"/>
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
+      <c r="D525" s="1"/>
+      <c r="E525" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F525" s="1"/>
+      <c r="G525" s="1"/>
+      <c r="H525" s="1"/>
+      <c r="I525" s="1"/>
+      <c r="J525" s="1"/>
+      <c r="K525" s="1"/>
+    </row>
+    <row r="526" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A526" s="1">
+        <v>86</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C526" s="1">
+        <v>25</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E526" s="1"/>
+      <c r="F526" s="1">
+        <v>100</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J526" s="1">
+        <v>895</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A527" s="1"/>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
+      <c r="D527" s="1"/>
+      <c r="E527" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F527" s="1">
+        <v>20</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I527" s="1"/>
+      <c r="J527" s="1"/>
+      <c r="K527" s="1"/>
+    </row>
+    <row r="528" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A528" s="1"/>
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
+      <c r="D528" s="1"/>
+      <c r="E528" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F528" s="1">
+        <v>60</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I528" s="1"/>
+      <c r="J528" s="1"/>
+      <c r="K528" s="1"/>
+    </row>
+    <row r="529" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A529" s="1"/>
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
+      <c r="D529" s="1"/>
+      <c r="E529" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F529" s="1">
+        <v>150</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I529" s="1"/>
+      <c r="J529" s="1"/>
+      <c r="K529" s="1"/>
+    </row>
+    <row r="530" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
+      <c r="D530" s="1"/>
+      <c r="E530" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F530" s="1">
+        <v>70</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I530" s="1"/>
+      <c r="J530" s="1"/>
+      <c r="K530" s="1"/>
+    </row>
+    <row r="531" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A531" s="1"/>
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
+      <c r="D531" s="1"/>
+      <c r="E531" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F531" s="1">
+        <v>20</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I531" s="1"/>
+      <c r="J531" s="1"/>
+      <c r="K531" s="1"/>
+    </row>
+    <row r="532" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A532" s="1"/>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+      <c r="D532" s="1"/>
+      <c r="E532" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F532" s="1">
+        <v>200</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I532" s="1"/>
+      <c r="J532" s="1"/>
+      <c r="K532" s="1"/>
+    </row>
+    <row r="533" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A533" s="1"/>
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
+      <c r="D533" s="1"/>
+      <c r="E533" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F533" s="1">
+        <v>250</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I533" s="1"/>
+      <c r="J533" s="1"/>
+      <c r="K533" s="1"/>
+    </row>
+    <row r="534" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
+      <c r="D534" s="1"/>
+      <c r="E534" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F534" s="1"/>
+      <c r="G534" s="1"/>
+      <c r="H534" s="1"/>
+      <c r="I534" s="1"/>
+      <c r="J534" s="1"/>
+      <c r="K534" s="1"/>
+    </row>
+    <row r="535" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A535" s="1">
+        <v>87</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C535" s="1">
+        <v>5</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F535" s="1">
+        <v>10</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H535" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I421" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="J421">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E422" s="4" t="s">
+      <c r="I535" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J535" s="1">
+        <v>289</v>
+      </c>
+      <c r="K535" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A536" s="1"/>
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
+      <c r="D536" s="1"/>
+      <c r="E536" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F536" s="1">
+        <v>30</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I536" s="1"/>
+      <c r="J536" s="1"/>
+      <c r="K536" s="1"/>
+    </row>
+    <row r="537" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
+      <c r="D537" s="1"/>
+      <c r="E537" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F537" s="1">
+        <v>200</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I537" s="1"/>
+      <c r="J537" s="1"/>
+      <c r="K537" s="1"/>
+    </row>
+    <row r="538" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
+      <c r="D538" s="1"/>
+      <c r="E538" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F538" s="1"/>
+      <c r="G538" s="1"/>
+      <c r="H538" s="1"/>
+      <c r="I538" s="1"/>
+      <c r="J538" s="1"/>
+      <c r="K538" s="1"/>
+    </row>
+    <row r="539" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A539" s="1">
+        <v>88</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C539" s="1">
+        <v>12</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F539" s="1">
+        <v>30</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J539" s="1">
+        <v>565</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A540" s="1"/>
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
+      <c r="D540" s="1"/>
+      <c r="E540" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F540" s="1">
+        <v>100</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I540" s="1"/>
+      <c r="J540" s="1"/>
+      <c r="K540" s="1"/>
+    </row>
+    <row r="541" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A541" s="1"/>
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
+      <c r="D541" s="1"/>
+      <c r="E541" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F541" s="1">
+        <v>60</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I541" s="1"/>
+      <c r="J541" s="1"/>
+      <c r="K541" s="1"/>
+    </row>
+    <row r="542" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+      <c r="D542" s="1"/>
+      <c r="E542" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F542" s="1">
+        <v>10</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I542" s="1"/>
+      <c r="J542" s="1"/>
+      <c r="K542" s="1"/>
+    </row>
+    <row r="543" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A543" s="1"/>
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
+      <c r="D543" s="1"/>
+      <c r="E543" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F543" s="1">
+        <v>120</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J543" s="1"/>
+      <c r="K543" s="1"/>
+    </row>
+    <row r="544" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A544" s="1"/>
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
+      <c r="D544" s="1"/>
+      <c r="E544" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F544" s="1">
+        <v>40</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I544" s="1"/>
+      <c r="J544" s="1"/>
+      <c r="K544" s="1"/>
+    </row>
+    <row r="545" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A545" s="1"/>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
+      <c r="D545" s="1"/>
+      <c r="E545" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F545" s="1">
+        <v>60</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I545" s="1"/>
+      <c r="J545" s="1"/>
+      <c r="K545" s="1"/>
+    </row>
+    <row r="546" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A546" s="1"/>
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
+      <c r="D546" s="1"/>
+      <c r="E546" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F546" s="1"/>
+      <c r="G546" s="1"/>
+      <c r="H546" s="1"/>
+      <c r="I546" s="1"/>
+      <c r="J546" s="1"/>
+      <c r="K546" s="1"/>
+    </row>
+    <row r="547" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A547" s="1">
+        <v>89</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C547" s="1">
+        <v>20</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F547" s="1">
+        <v>30</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J547" s="1">
+        <v>581</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A548" s="1"/>
+      <c r="B548" s="1"/>
+      <c r="C548" s="1"/>
+      <c r="D548" s="1"/>
+      <c r="E548" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F548" s="1">
+        <v>2</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I548" s="1"/>
+      <c r="J548" s="1"/>
+      <c r="K548" s="1"/>
+    </row>
+    <row r="549" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A549" s="1"/>
+      <c r="B549" s="1"/>
+      <c r="C549" s="1"/>
+      <c r="D549" s="1"/>
+      <c r="E549" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F549" s="1">
+        <v>10</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I549" s="1"/>
+      <c r="J549" s="1"/>
+      <c r="K549" s="1"/>
+    </row>
+    <row r="550" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A550" s="1"/>
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
+      <c r="D550" s="1"/>
+      <c r="E550" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F550" s="1">
+        <v>50</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I550" s="1"/>
+      <c r="J550" s="1"/>
+      <c r="K550" s="1"/>
+    </row>
+    <row r="551" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
+      <c r="C551" s="1"/>
+      <c r="D551" s="1"/>
+      <c r="E551" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F551" s="1">
+        <v>56</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I551" s="1"/>
+      <c r="J551" s="1"/>
+      <c r="K551" s="1"/>
+    </row>
+    <row r="552" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A552" s="1"/>
+      <c r="B552" s="1"/>
+      <c r="C552" s="1"/>
+      <c r="D552" s="1"/>
+      <c r="E552" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F552" s="1">
+        <v>200</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I552" s="1"/>
+      <c r="J552" s="1"/>
+      <c r="K552" s="1"/>
+    </row>
+    <row r="553" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A553" s="1"/>
+      <c r="B553" s="1"/>
+      <c r="C553" s="1"/>
+      <c r="D553" s="1"/>
+      <c r="E553" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F553" s="1"/>
+      <c r="G553" s="1"/>
+      <c r="H553" s="1"/>
+      <c r="I553" s="1"/>
+      <c r="J553" s="1"/>
+      <c r="K553" s="1"/>
+    </row>
+    <row r="554" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A554" s="1">
+        <v>90</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C554" s="1">
+        <v>5</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F554" s="1">
+        <v>250</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J554" s="1">
+        <v>617</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A555" s="1"/>
+      <c r="B555" s="1"/>
+      <c r="C555" s="1"/>
+      <c r="D555" s="1"/>
+      <c r="E555" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F555" s="1">
+        <v>40</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I555" s="1"/>
+      <c r="J555" s="1"/>
+      <c r="K555" s="1"/>
+    </row>
+    <row r="556" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A556" s="1"/>
+      <c r="B556" s="1"/>
+      <c r="C556" s="1"/>
+      <c r="D556" s="1"/>
+      <c r="E556" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F556" s="1">
+        <v>120</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I556" s="1"/>
+      <c r="J556" s="1"/>
+      <c r="K556" s="1"/>
+    </row>
+    <row r="557" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A557" s="1"/>
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
+      <c r="D557" s="1"/>
+      <c r="E557" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F557" s="1">
+        <v>200</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I557" s="1"/>
+      <c r="J557" s="1"/>
+      <c r="K557" s="1"/>
+    </row>
+    <row r="558" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A558" s="1"/>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
+      <c r="D558" s="1"/>
+      <c r="E558" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F558" s="1">
+        <v>45</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I558" s="1"/>
+      <c r="J558" s="1"/>
+      <c r="K558" s="1"/>
+    </row>
+    <row r="559" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
+      <c r="C559" s="1"/>
+      <c r="D559" s="1"/>
+      <c r="E559" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F559" s="1"/>
+      <c r="G559" s="1"/>
+      <c r="H559" s="1"/>
+      <c r="I559" s="1"/>
+      <c r="J559" s="1"/>
+      <c r="K559" s="1"/>
+    </row>
+    <row r="560" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A560" s="1">
+        <v>91</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C560" s="1">
+        <v>30</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F560" s="1">
+        <v>200</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J560" s="1">
+        <v>882</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A561" s="1"/>
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
+      <c r="D561" s="1"/>
+      <c r="E561" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F561" s="1">
+        <v>20</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I561" s="1"/>
+      <c r="J561" s="1"/>
+      <c r="K561" s="1"/>
+    </row>
+    <row r="562" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A562" s="1"/>
+      <c r="B562" s="1"/>
+      <c r="C562" s="1"/>
+      <c r="D562" s="1"/>
+      <c r="E562" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F562" s="1">
+        <v>30</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I562" s="1"/>
+      <c r="J562" s="1"/>
+      <c r="K562" s="1"/>
+    </row>
+    <row r="563" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A563" s="1"/>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
+      <c r="D563" s="1"/>
+      <c r="E563" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F563" s="1">
+        <v>20</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I563" s="1"/>
+      <c r="J563" s="1"/>
+      <c r="K563" s="1"/>
+    </row>
+    <row r="564" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A564" s="1"/>
+      <c r="B564" s="1"/>
+      <c r="C564" s="1"/>
+      <c r="D564" s="1"/>
+      <c r="E564" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F564" s="1">
+        <v>120</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I564" s="1"/>
+      <c r="J564" s="1"/>
+      <c r="K564" s="1"/>
+    </row>
+    <row r="565" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A565" s="1"/>
+      <c r="B565" s="1"/>
+      <c r="C565" s="1"/>
+      <c r="D565" s="1"/>
+      <c r="E565" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F565" s="1">
+        <v>130</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I565" s="1"/>
+      <c r="J565" s="1"/>
+      <c r="K565" s="1"/>
+    </row>
+    <row r="566" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A566" s="1"/>
+      <c r="B566" s="1"/>
+      <c r="C566" s="1"/>
+      <c r="D566" s="1"/>
+      <c r="E566" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F566" s="1">
+        <v>40</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I566" s="1"/>
+      <c r="J566" s="1"/>
+      <c r="K566" s="1"/>
+    </row>
+    <row r="567" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A567" s="1"/>
+      <c r="B567" s="1"/>
+      <c r="C567" s="1"/>
+      <c r="D567" s="1"/>
+      <c r="E567" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F567" s="1">
+        <v>120</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I567" s="1"/>
+      <c r="J567" s="1"/>
+      <c r="K567" s="1"/>
+    </row>
+    <row r="568" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A568" s="1"/>
+      <c r="B568" s="1"/>
+      <c r="C568" s="1"/>
+      <c r="D568" s="1"/>
+      <c r="E568" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F568" s="1">
+        <v>250</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I568" s="1"/>
+      <c r="J568" s="1"/>
+      <c r="K568" s="1"/>
+    </row>
+    <row r="569" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
+      <c r="C569" s="1"/>
+      <c r="D569" s="1"/>
+      <c r="E569" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F569" s="1">
+        <v>130</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I569" s="1"/>
+      <c r="J569" s="1"/>
+      <c r="K569" s="1"/>
+    </row>
+    <row r="570" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A570" s="1"/>
+      <c r="B570" s="1"/>
+      <c r="C570" s="1"/>
+      <c r="D570" s="1"/>
+      <c r="E570" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F570" s="1"/>
+      <c r="G570" s="1"/>
+      <c r="H570" s="1"/>
+      <c r="I570" s="1"/>
+      <c r="J570" s="1"/>
+      <c r="K570" s="1"/>
+    </row>
+    <row r="571" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A571" s="1">
+        <v>92</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C571" s="1"/>
+      <c r="D571" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F571" s="1">
+        <v>60</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J571" s="1">
+        <v>314</v>
+      </c>
+      <c r="K571" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A572" s="1"/>
+      <c r="B572" s="1"/>
+      <c r="C572" s="1"/>
+      <c r="D572" s="1"/>
+      <c r="E572" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F572" s="1"/>
+      <c r="G572" s="1"/>
+      <c r="H572" s="1"/>
+      <c r="I572" s="1"/>
+      <c r="J572" s="1"/>
+      <c r="K572" s="1"/>
+    </row>
+    <row r="573" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A573" s="1">
+        <v>93</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C573" s="1">
+        <v>10</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F573" s="1">
+        <v>20</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J573" s="1">
+        <v>596</v>
+      </c>
+      <c r="K573" s="1"/>
+    </row>
+    <row r="574" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A574" s="1"/>
+      <c r="B574" s="1"/>
+      <c r="C574" s="1"/>
+      <c r="D574" s="1"/>
+      <c r="E574" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F574" s="1">
+        <v>120</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I574" s="1"/>
+      <c r="J574" s="1"/>
+      <c r="K574" s="1"/>
+    </row>
+    <row r="575" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A575" s="1"/>
+      <c r="B575" s="1"/>
+      <c r="C575" s="1"/>
+      <c r="D575" s="1"/>
+      <c r="E575" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F575" s="1">
+        <v>10</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I575" s="1"/>
+      <c r="J575" s="1"/>
+      <c r="K575" s="1"/>
+    </row>
+    <row r="576" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A576" s="1"/>
+      <c r="B576" s="1"/>
+      <c r="C576" s="1"/>
+      <c r="D576" s="1"/>
+      <c r="E576" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F576" s="1">
+        <v>80</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I576" s="1"/>
+      <c r="J576" s="1"/>
+      <c r="K576" s="1"/>
+    </row>
+    <row r="577" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
+      <c r="C577" s="1"/>
+      <c r="D577" s="1"/>
+      <c r="E577" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F577" s="1">
+        <v>120</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I577" s="1"/>
+      <c r="J577" s="1"/>
+      <c r="K577" s="1"/>
+    </row>
+    <row r="578" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A578" s="1"/>
+      <c r="B578" s="1"/>
+      <c r="C578" s="1"/>
+      <c r="D578" s="1"/>
+      <c r="E578" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F578" s="1"/>
+      <c r="G578" s="1"/>
+      <c r="H578" s="1"/>
+      <c r="I578" s="1"/>
+      <c r="J578" s="1"/>
+      <c r="K578" s="1"/>
+    </row>
+    <row r="579" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A579" s="1">
+        <v>94</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C579" s="1">
+        <v>30</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F579" s="1">
+        <v>125</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J579" s="1">
+        <v>636</v>
+      </c>
+      <c r="K579" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A580" s="1"/>
+      <c r="B580" s="1"/>
+      <c r="C580" s="1"/>
+      <c r="D580" s="1"/>
+      <c r="E580" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F580" s="1">
+        <v>80</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I580" s="1"/>
+      <c r="J580" s="1"/>
+      <c r="K580" s="1"/>
+    </row>
+    <row r="581" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A581" s="1"/>
+      <c r="B581" s="1"/>
+      <c r="C581" s="1"/>
+      <c r="D581" s="1"/>
+      <c r="E581" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F581" s="1">
+        <v>5</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I581" s="1"/>
+      <c r="J581" s="1"/>
+      <c r="K581" s="1"/>
+    </row>
+    <row r="582" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A582" s="1"/>
+      <c r="B582" s="1"/>
+      <c r="C582" s="1"/>
+      <c r="D582" s="1"/>
+      <c r="E582" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F582" s="1">
+        <v>56</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I582" s="1"/>
+      <c r="J582" s="1"/>
+      <c r="K582" s="1"/>
+    </row>
+    <row r="583" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A583" s="1"/>
+      <c r="B583" s="1"/>
+      <c r="C583" s="1"/>
+      <c r="D583" s="1"/>
+      <c r="E583" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F583" s="1">
+        <v>100</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I583" s="1"/>
+      <c r="J583" s="1"/>
+      <c r="K583" s="1"/>
+    </row>
+    <row r="584" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A584" s="1"/>
+      <c r="B584" s="1"/>
+      <c r="C584" s="1"/>
+      <c r="D584" s="1"/>
+      <c r="E584" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F584" s="1">
+        <v>100</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H584" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F422" s="6">
+      <c r="I584" s="1"/>
+      <c r="J584" s="1"/>
+      <c r="K584" s="1"/>
+    </row>
+    <row r="585" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A585" s="1"/>
+      <c r="B585" s="1"/>
+      <c r="C585" s="1"/>
+      <c r="D585" s="1"/>
+      <c r="E585" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F585" s="1">
+        <v>100</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I585" s="1"/>
+      <c r="J585" s="1"/>
+      <c r="K585" s="1"/>
+    </row>
+    <row r="586" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A586" s="1"/>
+      <c r="B586" s="1"/>
+      <c r="C586" s="1"/>
+      <c r="D586" s="1"/>
+      <c r="E586" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F586" s="1"/>
+      <c r="G586" s="1"/>
+      <c r="H586" s="1"/>
+      <c r="I586" s="1"/>
+      <c r="J586" s="1"/>
+      <c r="K586" s="1"/>
+    </row>
+    <row r="587" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A587" s="1">
+        <v>95</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C587" s="1">
+        <v>5</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F587" s="1">
+        <v>30</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J587" s="1">
+        <v>603</v>
+      </c>
+      <c r="K587" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A588" s="1"/>
+      <c r="B588" s="1"/>
+      <c r="C588" s="1"/>
+      <c r="D588" s="1"/>
+      <c r="E588" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F588" s="1">
+        <v>30</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I588" s="1"/>
+      <c r="J588" s="1"/>
+      <c r="K588" s="1"/>
+    </row>
+    <row r="589" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A589" s="1"/>
+      <c r="B589" s="1"/>
+      <c r="C589" s="1"/>
+      <c r="D589" s="1"/>
+      <c r="E589" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F589" s="1">
+        <v>120</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I589" s="1"/>
+      <c r="J589" s="1"/>
+      <c r="K589" s="1"/>
+    </row>
+    <row r="590" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A590" s="1"/>
+      <c r="B590" s="1"/>
+      <c r="C590" s="1"/>
+      <c r="D590" s="1"/>
+      <c r="E590" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F590" s="1">
         <v>200</v>
       </c>
-      <c r="G422" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H422" s="7" t="s">
+      <c r="G590" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H590" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E423" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F423" s="6">
+      <c r="I590" s="1"/>
+      <c r="J590" s="1"/>
+      <c r="K590" s="1"/>
+    </row>
+    <row r="591" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="1"/>
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
+      <c r="D591" s="1"/>
+      <c r="E591" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F591" s="1">
+        <v>250</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I591" s="1"/>
+      <c r="J591" s="1"/>
+      <c r="K591" s="1"/>
+    </row>
+    <row r="592" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
+      <c r="D592" s="1"/>
+      <c r="E592" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F592" s="1"/>
+      <c r="G592" s="1"/>
+      <c r="H592" s="1"/>
+      <c r="I592" s="1"/>
+      <c r="J592" s="1"/>
+      <c r="K592" s="1"/>
+    </row>
+    <row r="593" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="1">
+        <v>96</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C593" s="1">
+        <v>30</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F593" s="1">
+        <v>200</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J593" s="1">
+        <v>814</v>
+      </c>
+      <c r="K593" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="1"/>
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
+      <c r="D594" s="1"/>
+      <c r="E594" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F594" s="1">
+        <v>420</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I594" s="1"/>
+      <c r="J594" s="1"/>
+      <c r="K594" s="1"/>
+    </row>
+    <row r="595" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="1"/>
+      <c r="B595" s="1"/>
+      <c r="C595" s="1"/>
+      <c r="D595" s="1"/>
+      <c r="E595" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F595" s="1">
         <v>50</v>
       </c>
-      <c r="G423" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H423" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E424" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F424" s="6">
+      <c r="G595" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I595" s="1"/>
+      <c r="J595" s="1"/>
+      <c r="K595" s="1"/>
+    </row>
+    <row r="596" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="1"/>
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
+      <c r="D596" s="1"/>
+      <c r="E596" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F596" s="1">
+        <v>15</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I596" s="1"/>
+      <c r="J596" s="1"/>
+      <c r="K596" s="1"/>
+    </row>
+    <row r="597" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="1"/>
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
+      <c r="D597" s="1"/>
+      <c r="E597" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F597" s="1">
+        <v>5</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I597" s="1"/>
+      <c r="J597" s="1"/>
+      <c r="K597" s="1"/>
+    </row>
+    <row r="598" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="1"/>
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
+      <c r="D598" s="1"/>
+      <c r="E598" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F598" s="1">
+        <v>1</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I598" s="1"/>
+      <c r="J598" s="1"/>
+      <c r="K598" s="1"/>
+    </row>
+    <row r="599" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="1"/>
+      <c r="B599" s="1"/>
+      <c r="C599" s="1"/>
+      <c r="D599" s="1"/>
+      <c r="E599" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F599" s="1">
         <v>45</v>
       </c>
-      <c r="G424" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H424" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E425" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F425" s="6">
-        <v>100</v>
-      </c>
-      <c r="G425" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H425" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="426" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E426" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F426" s="6">
+      <c r="G599" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I599" s="1"/>
+      <c r="J599" s="1"/>
+      <c r="K599" s="1"/>
+    </row>
+    <row r="600" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
+      <c r="C600" s="1"/>
+      <c r="D600" s="1"/>
+      <c r="E600" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F600" s="1">
         <v>200</v>
       </c>
-      <c r="G426" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H426" s="7" t="s">
+      <c r="G600" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H600" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E427" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F427" s="6">
-        <v>70</v>
-      </c>
-      <c r="G427" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H427" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E428" s="4" t="s">
+      <c r="I600" s="1"/>
+      <c r="J600" s="1"/>
+      <c r="K600" s="1"/>
+    </row>
+    <row r="601" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="1"/>
+      <c r="B601" s="1"/>
+      <c r="C601" s="1"/>
+      <c r="D601" s="1"/>
+      <c r="E601" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F428" s="6">
+      <c r="F601" s="1">
         <v>250</v>
       </c>
-      <c r="G428" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H428" s="7" t="s">
+      <c r="G601" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H601" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E429" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F429" s="6">
-        <v>200</v>
-      </c>
-      <c r="G429" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H429" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I429" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E430" s="4" t="s">
+      <c r="I601" s="1"/>
+      <c r="J601" s="1"/>
+      <c r="K601" s="1"/>
+    </row>
+    <row r="602" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="1"/>
+      <c r="B602" s="1"/>
+      <c r="C602" s="1"/>
+      <c r="D602" s="1"/>
+      <c r="E602" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="431" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A431">
-        <v>72</v>
-      </c>
-      <c r="B431" t="s">
+      <c r="F602" s="1"/>
+      <c r="G602" s="1"/>
+      <c r="H602" s="1"/>
+      <c r="I602" s="1"/>
+      <c r="J602" s="1"/>
+      <c r="K602" s="1"/>
+    </row>
+    <row r="603" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="1">
+        <v>97</v>
+      </c>
+      <c r="B603" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D431" t="s">
-        <v>397</v>
-      </c>
-      <c r="E431" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F431" s="6">
+      <c r="C603" s="1">
+        <v>5</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F603" s="1">
+        <v>50</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J603" s="1">
+        <v>304</v>
+      </c>
+      <c r="K603" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="1"/>
+      <c r="B604" s="1"/>
+      <c r="C604" s="1"/>
+      <c r="D604" s="1"/>
+      <c r="E604" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F604" s="1">
+        <v>180</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I604" s="1"/>
+      <c r="J604" s="1"/>
+      <c r="K604" s="1"/>
+    </row>
+    <row r="605" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="1"/>
+      <c r="B605" s="1"/>
+      <c r="C605" s="1"/>
+      <c r="D605" s="1"/>
+      <c r="E605" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F605" s="1"/>
+      <c r="G605" s="1"/>
+      <c r="H605" s="1"/>
+      <c r="I605" s="1"/>
+      <c r="J605" s="1"/>
+      <c r="K605" s="1"/>
+    </row>
+    <row r="606" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="1">
+        <v>98</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C606" s="1">
+        <v>15</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F606" s="1">
+        <v>15</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J606" s="1">
+        <v>599</v>
+      </c>
+      <c r="K606" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="1"/>
+      <c r="B607" s="1"/>
+      <c r="C607" s="1"/>
+      <c r="D607" s="1"/>
+      <c r="E607" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F607" s="1">
+        <v>30</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I607" s="1"/>
+      <c r="J607" s="1"/>
+      <c r="K607" s="1"/>
+    </row>
+    <row r="608" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="1"/>
+      <c r="B608" s="1"/>
+      <c r="C608" s="1"/>
+      <c r="D608" s="1"/>
+      <c r="E608" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F608" s="1">
+        <v>120</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I608" s="1"/>
+      <c r="J608" s="1"/>
+      <c r="K608" s="1"/>
+    </row>
+    <row r="609" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="1"/>
+      <c r="B609" s="1"/>
+      <c r="C609" s="1"/>
+      <c r="D609" s="1"/>
+      <c r="E609" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F609" s="1">
+        <v>60</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I609" s="1"/>
+      <c r="J609" s="1"/>
+      <c r="K609" s="1"/>
+    </row>
+    <row r="610" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="1"/>
+      <c r="B610" s="1"/>
+      <c r="C610" s="1"/>
+      <c r="D610" s="1"/>
+      <c r="E610" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F610" s="1">
+        <v>60</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I610" s="1"/>
+      <c r="J610" s="1"/>
+      <c r="K610" s="1"/>
+    </row>
+    <row r="611" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="1"/>
+      <c r="B611" s="1"/>
+      <c r="C611" s="1"/>
+      <c r="D611" s="1"/>
+      <c r="E611" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F611" s="1">
+        <v>10</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I611" s="1"/>
+      <c r="J611" s="1"/>
+      <c r="K611" s="1"/>
+    </row>
+    <row r="612" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="1"/>
+      <c r="B612" s="1"/>
+      <c r="C612" s="1"/>
+      <c r="D612" s="1"/>
+      <c r="E612" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F612" s="1">
+        <v>90</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I612" s="1"/>
+      <c r="J612" s="1"/>
+      <c r="K612" s="1"/>
+    </row>
+    <row r="613" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="1"/>
+      <c r="B613" s="1"/>
+      <c r="C613" s="1"/>
+      <c r="D613" s="1"/>
+      <c r="E613" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F613" s="1">
+        <v>7</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I613" s="1"/>
+      <c r="J613" s="1"/>
+      <c r="K613" s="1"/>
+    </row>
+    <row r="614" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="1"/>
+      <c r="B614" s="1"/>
+      <c r="C614" s="1"/>
+      <c r="D614" s="1"/>
+      <c r="E614" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F614" s="1">
         <v>250</v>
       </c>
-      <c r="G431" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H431" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="I431" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J431">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E432" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F432" s="6">
-        <v>120</v>
-      </c>
-      <c r="G432" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H432" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I432" s="7"/>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E433" s="4" t="s">
+      <c r="G614" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I614" s="1"/>
+      <c r="J614" s="1"/>
+      <c r="K614" s="1"/>
+    </row>
+    <row r="615" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="1"/>
+      <c r="B615" s="1"/>
+      <c r="C615" s="1"/>
+      <c r="D615" s="1"/>
+      <c r="E615" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="434" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A434">
-        <v>73</v>
-      </c>
-      <c r="B434" t="s">
-        <v>96</v>
-      </c>
-      <c r="C434">
-        <v>10</v>
-      </c>
-      <c r="D434" t="s">
-        <v>399</v>
-      </c>
-      <c r="E434" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F434" s="6">
-        <v>7</v>
-      </c>
-      <c r="G434" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H434" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="I434" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="J434">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E435" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F435" s="6">
-        <v>90</v>
-      </c>
-      <c r="G435" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H435" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E436" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F436" s="6">
-        <v>20</v>
-      </c>
-      <c r="G436" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H436" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E437" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F437" s="6">
-        <v>6</v>
-      </c>
-      <c r="G437" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H437" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E438" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F438" s="6">
-        <v>80</v>
-      </c>
-      <c r="G438" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H438" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E439" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F439" s="6">
-        <v>70</v>
-      </c>
-      <c r="G439" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H439" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E440" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F440" s="6">
-        <v>25</v>
-      </c>
-      <c r="G440" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H440" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="441" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E441" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F441" s="6">
-        <v>90</v>
-      </c>
-      <c r="G441" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H441" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E442" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F442" s="6">
-        <v>250</v>
-      </c>
-      <c r="G442" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H442" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E443" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="444" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A444">
-        <v>74</v>
-      </c>
-      <c r="B444" t="s">
-        <v>123</v>
-      </c>
-      <c r="C444">
-        <v>10</v>
-      </c>
-      <c r="D444" t="s">
-        <v>406</v>
-      </c>
-      <c r="E444" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F444" s="6">
-        <v>20</v>
-      </c>
-      <c r="G444" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H444" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I444" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="J444">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E445" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F445" s="6">
-        <v>112</v>
-      </c>
-      <c r="G445" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H445" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E446" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F446" s="6">
-        <v>60</v>
-      </c>
-      <c r="G446" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H446" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E447" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F447" s="6">
-        <v>40</v>
-      </c>
-      <c r="G447" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H447" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E448" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F448" s="6">
-        <v>120</v>
-      </c>
-      <c r="G448" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H448" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E449" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A450">
-        <v>75</v>
-      </c>
-      <c r="B450" t="s">
-        <v>63</v>
-      </c>
-      <c r="C450">
-        <v>5</v>
-      </c>
-      <c r="D450" t="s">
-        <v>409</v>
-      </c>
-      <c r="E450" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F450" s="6">
-        <v>45</v>
-      </c>
-      <c r="G450" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H450" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="I450" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="J450">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E451" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F451" s="6">
-        <v>90</v>
-      </c>
-      <c r="G451" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H451" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="452" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E452" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F452" s="6">
-        <v>45</v>
-      </c>
-      <c r="G452" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H452" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E453" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="454" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A454">
-        <v>76</v>
-      </c>
-      <c r="B454" t="s">
-        <v>413</v>
-      </c>
-      <c r="C454">
-        <v>25</v>
-      </c>
-      <c r="D454" t="s">
-        <v>414</v>
-      </c>
-      <c r="E454" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F454" s="6">
-        <v>200</v>
-      </c>
-      <c r="G454" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H454" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I454" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="J454">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E455" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F455" s="6">
-        <v>50</v>
-      </c>
-      <c r="G455" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H455" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E456" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F456" s="6">
-        <v>5</v>
-      </c>
-      <c r="G456" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H456" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E457" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F457" s="6">
-        <v>200</v>
-      </c>
-      <c r="G457" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H457" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E458" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F458" s="6">
-        <v>5</v>
-      </c>
-      <c r="G458" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H458" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E459" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F459" s="6">
-        <v>100</v>
-      </c>
-      <c r="G459" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H459" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E460" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F460" s="6">
-        <v>12</v>
-      </c>
-      <c r="G460" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H460" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E461" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F461" s="6">
-        <v>130</v>
-      </c>
-      <c r="G461" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H461" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E462" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A463">
-        <v>77</v>
-      </c>
-      <c r="B463" t="s">
-        <v>174</v>
-      </c>
-      <c r="D463" t="s">
-        <v>422</v>
-      </c>
-      <c r="E463" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F463" s="6">
-        <v>120</v>
-      </c>
-      <c r="G463" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H463" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I463" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J463">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E464" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F464" s="6">
-        <v>60</v>
-      </c>
-      <c r="G464" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H464" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E465" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="466" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A466">
-        <v>78</v>
-      </c>
-      <c r="B466" t="s">
-        <v>96</v>
-      </c>
-      <c r="C466">
-        <v>25</v>
-      </c>
-      <c r="D466" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E466" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F466" s="6">
-        <v>70</v>
-      </c>
-      <c r="G466" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H466" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I466" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="J466">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E467" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F467" s="6">
-        <v>20</v>
-      </c>
-      <c r="G467" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H467" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="468" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E468" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F468" s="6">
-        <v>150</v>
-      </c>
-      <c r="G468" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H468" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E469" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F469" s="6">
-        <v>10</v>
-      </c>
-      <c r="G469" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H469" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E470" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F470" s="6">
-        <v>10</v>
-      </c>
-      <c r="G470" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H470" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E471" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F471" s="6">
-        <v>30</v>
-      </c>
-      <c r="G471" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H471" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E472" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="473" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A473">
-        <v>79</v>
-      </c>
-      <c r="B473" t="s">
-        <v>123</v>
-      </c>
-      <c r="C473">
-        <v>10</v>
-      </c>
-      <c r="D473" t="s">
-        <v>426</v>
-      </c>
-      <c r="E473" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F473" s="6">
-        <v>7</v>
-      </c>
-      <c r="G473" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H473" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="I473" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="J473">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E474" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F474" s="6">
-        <v>90</v>
-      </c>
-      <c r="G474" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H474" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E475" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F475" s="6">
-        <v>100</v>
-      </c>
-      <c r="G475" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H475" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="476" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E476" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F476" s="6">
-        <v>100</v>
-      </c>
-      <c r="G476" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H476" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E477" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F477" s="6">
-        <v>24</v>
-      </c>
-      <c r="G477" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H477" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E478" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F478" s="6">
-        <v>2</v>
-      </c>
-      <c r="G478" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H478" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E479" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F479" s="6">
-        <v>15</v>
-      </c>
-      <c r="G479" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H479" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E480" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A481">
-        <v>80</v>
-      </c>
-      <c r="B481" t="s">
-        <v>63</v>
-      </c>
-      <c r="C481">
-        <v>5</v>
-      </c>
-      <c r="D481" t="s">
-        <v>432</v>
-      </c>
-      <c r="E481" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F481" s="6">
-        <v>20</v>
-      </c>
-      <c r="G481" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H481" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I481" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="J481">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E482" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F482" s="6">
-        <v>120</v>
-      </c>
-      <c r="G482" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H482" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E483" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F483" s="6">
-        <v>40</v>
-      </c>
-      <c r="G483" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H483" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E484" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F484" s="6">
-        <v>60</v>
-      </c>
-      <c r="G484" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H484" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E485" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F485" s="6">
-        <v>260</v>
-      </c>
-      <c r="G485" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H485" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="I485" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E486" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A487">
-        <v>81</v>
-      </c>
-      <c r="B487" t="s">
-        <v>64</v>
-      </c>
-      <c r="C487">
-        <v>30</v>
-      </c>
-      <c r="D487" t="s">
-        <v>435</v>
-      </c>
-      <c r="E487" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F487" s="6">
-        <v>30</v>
-      </c>
-      <c r="G487" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H487" t="s">
-        <v>17</v>
-      </c>
-      <c r="I487" t="s">
-        <v>439</v>
-      </c>
-      <c r="J487">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E488" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F488" s="6">
-        <v>70</v>
-      </c>
-      <c r="G488" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H488" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="489" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E489" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F489" s="6">
-        <v>200</v>
-      </c>
-      <c r="G489" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H489" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="490" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E490" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F490" s="6">
-        <v>32</v>
-      </c>
-      <c r="G490" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H490" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E491" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F491" s="6">
-        <v>2</v>
-      </c>
-      <c r="G491" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H491" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E492" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F492" s="6">
-        <v>50</v>
-      </c>
-      <c r="G492" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H492" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E493" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F493" s="6">
-        <v>10</v>
-      </c>
-      <c r="G493" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H493" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E494" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F494" s="6">
-        <v>45</v>
-      </c>
-      <c r="G494" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H494" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E495" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F495" s="6">
-        <v>5</v>
-      </c>
-      <c r="G495" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H495" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E496" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F496" s="6">
-        <v>100</v>
-      </c>
-      <c r="G496" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H496" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E497" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F497" s="6">
-        <v>250</v>
-      </c>
-      <c r="G497" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H497" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E498" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A499">
-        <v>82</v>
-      </c>
-      <c r="B499" t="s">
-        <v>174</v>
-      </c>
-      <c r="C499">
-        <v>1</v>
-      </c>
-      <c r="D499" t="s">
-        <v>441</v>
-      </c>
-      <c r="E499" t="s">
-        <v>168</v>
-      </c>
-      <c r="F499" s="6">
-        <v>150</v>
-      </c>
-      <c r="G499" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H499" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I499" t="s">
-        <v>440</v>
-      </c>
-      <c r="J499">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E500" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F500" s="6">
-        <v>40</v>
-      </c>
-      <c r="G500" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H500" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E501" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="502" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A502">
-        <v>83</v>
-      </c>
-      <c r="B502" t="s">
-        <v>96</v>
-      </c>
-      <c r="C502">
-        <v>15</v>
-      </c>
-      <c r="D502" t="s">
-        <v>442</v>
-      </c>
-      <c r="E502" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F502" s="6">
-        <v>7</v>
-      </c>
-      <c r="G502" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H502" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="I502" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="J502">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E503" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F503" s="6">
-        <v>90</v>
-      </c>
-      <c r="G503" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H503" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E504" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="F504" s="6">
-        <v>20</v>
-      </c>
-      <c r="G504" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H504" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E505" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F505" s="6">
-        <v>30</v>
-      </c>
-      <c r="G505" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H505" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E506" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F506" s="6">
-        <v>120</v>
-      </c>
-      <c r="G506" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H506" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E507" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F507" s="6">
-        <v>10</v>
-      </c>
-      <c r="G507" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H507" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E508" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F508" s="6">
-        <v>60</v>
-      </c>
-      <c r="G508" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H508" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E509" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F509" s="6">
-        <v>80</v>
-      </c>
-      <c r="G509" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H509" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E510" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F510" s="6">
-        <v>250</v>
-      </c>
-      <c r="G510" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H510" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E511" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="512" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A512">
-        <v>84</v>
-      </c>
-      <c r="B512" t="s">
-        <v>123</v>
-      </c>
-      <c r="C512">
-        <v>15</v>
-      </c>
-      <c r="D512" t="s">
-        <v>448</v>
-      </c>
-      <c r="E512" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F512" s="6">
-        <v>120</v>
-      </c>
-      <c r="G512" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H512" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I512" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="J512">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E513" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F513" s="6">
-        <v>30</v>
-      </c>
-      <c r="G513" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H513" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E514" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F514" s="6">
-        <v>3</v>
-      </c>
-      <c r="G514" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H514" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E515" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F515" s="6">
-        <v>112</v>
-      </c>
-      <c r="G515" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H515" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E516" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F516" s="6">
-        <v>40</v>
-      </c>
-      <c r="G516" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H516" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E517" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="518" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A518">
-        <v>85</v>
-      </c>
-      <c r="B518" t="s">
-        <v>451</v>
-      </c>
-      <c r="C518">
-        <v>5</v>
-      </c>
-      <c r="D518" t="s">
-        <v>452</v>
-      </c>
-      <c r="E518" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F518" s="6">
-        <v>10</v>
-      </c>
-      <c r="G518" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H518" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I518" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="J518">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E519" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F519" s="6">
-        <v>60</v>
-      </c>
-      <c r="G519" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H519" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E520" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F520" s="6">
-        <v>120</v>
-      </c>
-      <c r="G520" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H520" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E521" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F521" s="6">
-        <v>120</v>
-      </c>
-      <c r="G521" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H521" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E522" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F522" s="6">
-        <v>60</v>
-      </c>
-      <c r="G522" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H522" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E523" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F523" s="6">
-        <v>20</v>
-      </c>
-      <c r="G523" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H523" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E524" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F524" s="6">
-        <v>200</v>
-      </c>
-      <c r="G524" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H524" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E525" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="526" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A526">
-        <v>86</v>
-      </c>
-      <c r="B526" t="s">
-        <v>64</v>
-      </c>
-      <c r="C526">
-        <v>25</v>
-      </c>
-      <c r="D526" t="s">
-        <v>455</v>
-      </c>
-      <c r="F526" s="6">
-        <v>100</v>
-      </c>
-      <c r="G526" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H526" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="I526" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="J526">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E527" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F527" s="7">
-        <v>20</v>
-      </c>
-      <c r="G527" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H527" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E528" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F528" s="7">
-        <v>60</v>
-      </c>
-      <c r="G528" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H528" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E529" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F529" s="7">
-        <v>150</v>
-      </c>
-      <c r="G529" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H529" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E530" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F530" s="7">
-        <v>70</v>
-      </c>
-      <c r="G530" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H530" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E531" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F531" s="7">
-        <v>20</v>
-      </c>
-      <c r="G531" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H531" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="532" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E532" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F532" s="7">
-        <v>200</v>
-      </c>
-      <c r="G532" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H532" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E533" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F533" s="7">
-        <v>250</v>
-      </c>
-      <c r="G533" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H533" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E534" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A535">
-        <v>87</v>
-      </c>
-      <c r="B535" t="s">
-        <v>459</v>
-      </c>
-      <c r="C535">
-        <v>5</v>
-      </c>
-      <c r="D535" t="s">
-        <v>460</v>
-      </c>
-      <c r="E535" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F535" s="7">
-        <v>10</v>
-      </c>
-      <c r="G535" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H535" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I535" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="J535">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E536" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="F536" s="7">
-        <v>30</v>
-      </c>
-      <c r="G536" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H536" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E537" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F537" s="7">
-        <v>200</v>
-      </c>
-      <c r="G537" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H537" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E538" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="539" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A539">
-        <v>88</v>
-      </c>
-      <c r="B539" t="s">
-        <v>96</v>
-      </c>
-      <c r="C539">
-        <v>12</v>
-      </c>
-      <c r="D539" t="s">
-        <v>464</v>
-      </c>
-      <c r="E539" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F539" s="7">
-        <v>30</v>
-      </c>
-      <c r="G539" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H539" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I539" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="J539">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="540" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E540" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F540" s="7">
-        <v>100</v>
-      </c>
-      <c r="G540" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H540" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E541" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F541" s="7">
-        <v>60</v>
-      </c>
-      <c r="G541" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H541" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E542" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F542" s="7">
-        <v>10</v>
-      </c>
-      <c r="G542" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H542" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E543" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F543" s="7">
-        <v>120</v>
-      </c>
-      <c r="G543" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H543" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I543" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E544" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F544" s="7">
-        <v>40</v>
-      </c>
-      <c r="G544" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H544" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E545" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F545" s="7">
-        <v>60</v>
-      </c>
-      <c r="G545" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H545" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E546" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="547" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A547">
-        <v>89</v>
-      </c>
-      <c r="B547" t="s">
-        <v>123</v>
-      </c>
-      <c r="C547">
-        <v>20</v>
-      </c>
-      <c r="D547" t="s">
-        <v>470</v>
-      </c>
-      <c r="E547" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F547" s="7">
-        <v>30</v>
-      </c>
-      <c r="G547" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H547" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I547" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="J547">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E548" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F548" s="7">
-        <v>2</v>
-      </c>
-      <c r="G548" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H548" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E549" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F549" s="7">
-        <v>10</v>
-      </c>
-      <c r="G549" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H549" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E550" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F550" s="7">
-        <v>50</v>
-      </c>
-      <c r="G550" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H550" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E551" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F551" s="7">
-        <v>56</v>
-      </c>
-      <c r="G551" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H551" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="552" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E552" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F552" s="7">
-        <v>200</v>
-      </c>
-      <c r="G552" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H552" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E553" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A554">
-        <v>90</v>
-      </c>
-      <c r="B554" t="s">
-        <v>63</v>
-      </c>
-      <c r="C554">
-        <v>5</v>
-      </c>
-      <c r="D554" t="s">
-        <v>476</v>
-      </c>
-      <c r="E554" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F554" s="7">
-        <v>250</v>
-      </c>
-      <c r="G554" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H554" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I554" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="J554">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E555" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F555" s="7">
-        <v>40</v>
-      </c>
-      <c r="G555" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H555" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E556" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F556" s="7">
-        <v>120</v>
-      </c>
-      <c r="G556" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H556" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E557" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F557" s="7">
-        <v>200</v>
-      </c>
-      <c r="G557" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H557" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E558" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F558" s="7">
-        <v>45</v>
-      </c>
-      <c r="G558" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H558" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E559" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G559" s="7"/>
-    </row>
-    <row r="560" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A560">
-        <v>91</v>
-      </c>
-      <c r="B560" t="s">
-        <v>64</v>
-      </c>
-      <c r="C560">
-        <v>30</v>
-      </c>
-      <c r="D560" t="s">
-        <v>477</v>
-      </c>
-      <c r="E560" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F560" s="7">
-        <v>200</v>
-      </c>
-      <c r="G560" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H560" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I560" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J560">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E561" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F561" s="7">
-        <v>20</v>
-      </c>
-      <c r="G561" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H561" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E562" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F562" s="7">
-        <v>30</v>
-      </c>
-      <c r="G562" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H562" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E563" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F563" s="7">
-        <v>20</v>
-      </c>
-      <c r="G563" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H563" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E564" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F564" s="7">
-        <v>120</v>
-      </c>
-      <c r="G564" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H564" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E565" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="F565" s="7">
-        <v>130</v>
-      </c>
-      <c r="G565" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H565" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E566" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F566" s="7">
-        <v>40</v>
-      </c>
-      <c r="G566" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H566" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E567" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F567" s="7">
-        <v>120</v>
-      </c>
-      <c r="G567" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H567" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E568" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F568" s="7">
-        <v>250</v>
-      </c>
-      <c r="G568" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H568" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E569" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F569" s="7">
-        <v>130</v>
-      </c>
-      <c r="G569" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H569" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I569" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E570" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A571">
-        <v>92</v>
-      </c>
-      <c r="B571" t="s">
-        <v>174</v>
-      </c>
-      <c r="D571" t="s">
-        <v>340</v>
-      </c>
-      <c r="E571" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F571" s="7">
-        <v>60</v>
-      </c>
-      <c r="G571" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H571" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="I571" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J571">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E572" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="573" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A573">
-        <v>93</v>
-      </c>
-      <c r="B573" t="s">
-        <v>96</v>
-      </c>
-      <c r="C573">
-        <v>10</v>
-      </c>
-      <c r="D573" t="s">
-        <v>481</v>
-      </c>
-      <c r="E573" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="F573" s="7">
-        <v>20</v>
-      </c>
-      <c r="G573" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H573" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I573" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="J573">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E574" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F574" s="9">
-        <v>120</v>
-      </c>
-      <c r="G574" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H574" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E575" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F575" s="7">
-        <v>10</v>
-      </c>
-      <c r="G575" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H575" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E576" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F576" s="10">
-        <v>80</v>
-      </c>
-      <c r="G576" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H576" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E577" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F577" s="7">
-        <v>120</v>
-      </c>
-      <c r="G577" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H577" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E578" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A579">
-        <v>94</v>
-      </c>
-      <c r="B579" t="s">
-        <v>123</v>
-      </c>
-      <c r="C579">
-        <v>30</v>
-      </c>
-      <c r="D579" t="s">
-        <v>484</v>
-      </c>
-      <c r="E579" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F579" s="9">
-        <v>125</v>
-      </c>
-      <c r="G579" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H579" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="I579" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="J579">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E580" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="F580" s="9">
-        <v>80</v>
-      </c>
-      <c r="G580" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H580" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E581" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F581" s="9">
-        <v>5</v>
-      </c>
-      <c r="G581" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H581" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E582" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F582" s="9">
-        <v>56</v>
-      </c>
-      <c r="G582" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H582" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E583" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F583" s="9">
-        <v>100</v>
-      </c>
-      <c r="G583" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H583" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E584" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F584" s="9">
-        <v>100</v>
-      </c>
-      <c r="G584" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H584" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E585" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="F585" s="9">
-        <v>100</v>
-      </c>
-      <c r="G585" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H585" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E586" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A587">
-        <v>95</v>
-      </c>
-      <c r="B587" t="s">
-        <v>63</v>
-      </c>
-      <c r="C587">
-        <v>5</v>
-      </c>
-      <c r="D587" t="s">
-        <v>490</v>
-      </c>
-      <c r="E587" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F587" s="9">
-        <v>30</v>
-      </c>
-      <c r="G587" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H587" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I587" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="J587">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E588" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F588" s="9">
-        <v>30</v>
-      </c>
-      <c r="G588" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H588" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E589" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F589" s="9">
-        <v>120</v>
-      </c>
-      <c r="G589" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H589" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E590" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="F590" s="9">
-        <v>200</v>
-      </c>
-      <c r="G590" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H590" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E591" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F591" s="9">
-        <v>250</v>
-      </c>
-      <c r="G591" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H591" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E592" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G592" s="9"/>
-    </row>
-    <row r="593" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A593">
-        <v>96</v>
-      </c>
-      <c r="B593" t="s">
-        <v>64</v>
-      </c>
-      <c r="C593">
-        <v>30</v>
-      </c>
-      <c r="D593" t="s">
-        <v>493</v>
-      </c>
-      <c r="E593" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F593" s="9">
-        <v>200</v>
-      </c>
-      <c r="G593" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H593" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="I593" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="J593">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E594" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F594" s="9">
-        <v>420</v>
-      </c>
-      <c r="G594" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H594" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E595" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F595" s="9">
-        <v>50</v>
-      </c>
-      <c r="G595" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H595" s="9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E596" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="F596" s="9">
-        <v>15</v>
-      </c>
-      <c r="G596" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H596" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E597" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F597" s="9">
-        <v>5</v>
-      </c>
-      <c r="G597" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H597" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E598" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="F598" s="9">
-        <v>1</v>
-      </c>
-      <c r="G598" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H598" s="9" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E599" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F599" s="9">
-        <v>45</v>
-      </c>
-      <c r="G599" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H599" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E600" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F600" s="9">
-        <v>200</v>
-      </c>
-      <c r="G600" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H600" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E601" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F601" s="9">
-        <v>250</v>
-      </c>
-      <c r="G601" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H601" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E602" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="603" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A603">
-        <v>97</v>
-      </c>
-      <c r="B603" t="s">
-        <v>174</v>
-      </c>
-      <c r="C603">
-        <v>5</v>
-      </c>
-      <c r="D603" t="s">
-        <v>501</v>
-      </c>
-      <c r="E603" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F603" s="9">
-        <v>50</v>
-      </c>
-      <c r="G603" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H603" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="I603" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="J603">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E604" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F604" s="9">
-        <v>180</v>
-      </c>
-      <c r="G604" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H604" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E605" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A606">
-        <v>98</v>
-      </c>
-      <c r="B606" t="s">
-        <v>96</v>
-      </c>
-      <c r="C606">
-        <v>15</v>
-      </c>
-      <c r="D606" t="s">
-        <v>503</v>
-      </c>
-      <c r="E606" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F606" s="9">
-        <v>15</v>
-      </c>
-      <c r="G606" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H606" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="I606" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="J606">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E607" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F607" s="9">
-        <v>30</v>
-      </c>
-      <c r="G607" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H607" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E608" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F608" s="9">
-        <v>120</v>
-      </c>
-      <c r="G608" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H608" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="609" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E609" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F609" s="9">
-        <v>60</v>
-      </c>
-      <c r="G609" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H609" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="610" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E610" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F610" s="9">
-        <v>60</v>
-      </c>
-      <c r="G610" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H610" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="611" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E611" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F611" s="9">
-        <v>10</v>
-      </c>
-      <c r="G611" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H611" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="612" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E612" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F612" s="9">
-        <v>90</v>
-      </c>
-      <c r="G612" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H612" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="613" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E613" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F613" s="9">
-        <v>7</v>
-      </c>
-      <c r="G613" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H613" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="614" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E614" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F614" s="9">
-        <v>250</v>
-      </c>
-      <c r="G614" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H614" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="615" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E615" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="F615" s="1"/>
+      <c r="G615" s="1"/>
+      <c r="H615" s="1"/>
+      <c r="I615" s="1"/>
+      <c r="J615" s="1"/>
+      <c r="K615" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docker/excel/jadlospis2.xlsx
+++ b/Docker/excel/jadlospis2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMOWANIE\etmeall2\EatMeAll\BackEnd\ExcelReader\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9349D5AD-1785-452B-BB3B-3AEC0AF7A821}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCDDD9E-F2AD-495A-9BCE-AE32B3A39BB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{DC9E3696-05CD-4AC0-85C8-C796492A84E0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5958" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5954" uniqueCount="501">
   <si>
     <t>ml</t>
   </si>
@@ -1024,9 +1024,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>jogurt owocowy z suszonymi owocami</t>
@@ -1543,13 +1540,13 @@
     <t>wymieszaj jogurt z musli</t>
   </si>
   <si>
-    <t>sałatka z pomidorem, ogórkiem, sałatą i mozzarelląsałata</t>
-  </si>
-  <si>
     <t>pokrój pomidora, cebulę i ogórka; wymieszaj warzywa oraz dodaj porwane na mniejsze części liście sałaty; dodaj kawałki mozzarelli, oliwę oraz pieprz i sól. wymieszaj; podawaj z pieczywem z masłem</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>sałatka z pomidorem, ogórkiem, sałatą i mozzarellą sałata</t>
   </si>
 </sst>
 </file>
@@ -1939,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1838D449-8DD4-4711-984B-E0AC88629B5C}">
   <dimension ref="A1:K615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A601" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D606" sqref="D606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,7 +2103,7 @@
         <v>332</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>332</v>
@@ -2138,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>42</v>
@@ -2153,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J6" s="2">
         <v>300</v>
@@ -2185,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>332</v>
@@ -2281,7 +2278,7 @@
         <v>332</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>332</v>
@@ -2313,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
@@ -2328,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J11" s="2">
         <v>300</v>
@@ -2456,7 +2453,7 @@
         <v>332</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>332</v>
@@ -2488,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>111</v>
@@ -2503,7 +2500,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J16" s="2">
         <v>300</v>
@@ -2640,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>332</v>
@@ -2666,7 +2663,7 @@
         <v>332</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>332</v>
@@ -2698,7 +2695,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -2713,7 +2710,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J22" s="2">
         <v>300</v>
@@ -2911,7 +2908,7 @@
         <v>332</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>332</v>
@@ -2943,7 +2940,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>68</v>
@@ -3086,7 +3083,7 @@
         <v>332</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>332</v>
@@ -3118,7 +3115,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>99</v>
@@ -3133,7 +3130,7 @@
         <v>36</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J34" s="2">
         <v>350</v>
@@ -3331,7 +3328,7 @@
         <v>332</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>332</v>
@@ -3363,7 +3360,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>92</v>
@@ -3378,7 +3375,7 @@
         <v>41</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J41" s="2">
         <v>350</v>
@@ -3436,7 +3433,7 @@
         <v>332</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>332</v>
@@ -3468,7 +3465,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -3483,7 +3480,7 @@
         <v>30</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J44" s="2">
         <v>350</v>
@@ -3646,7 +3643,7 @@
         <v>332</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>332</v>
@@ -3678,7 +3675,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>34</v>
@@ -3693,7 +3690,7 @@
         <v>14</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J50" s="2">
         <v>350</v>
@@ -3891,7 +3888,7 @@
         <v>332</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F56" s="2">
         <v>30</v>
@@ -3926,7 +3923,7 @@
         <v>332</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>332</v>
@@ -3958,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>42</v>
@@ -3973,7 +3970,7 @@
         <v>30</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J58" s="2">
         <v>350</v>
@@ -4031,7 +4028,7 @@
         <v>332</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>332</v>
@@ -4063,7 +4060,7 @@
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>122</v>
@@ -4078,7 +4075,7 @@
         <v>30</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J61" s="2">
         <v>350</v>
@@ -4136,7 +4133,7 @@
         <v>332</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>332</v>
@@ -4168,7 +4165,7 @@
         <v>45</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>101</v>
@@ -4183,7 +4180,7 @@
         <v>30</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J64" s="2">
         <v>600</v>
@@ -4416,7 +4413,7 @@
         <v>332</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>332</v>
@@ -4448,7 +4445,7 @@
         <v>45</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>55</v>
@@ -4463,7 +4460,7 @@
         <v>56</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J72" s="2">
         <v>600</v>
@@ -4775,7 +4772,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>332</v>
@@ -4906,7 +4903,7 @@
         <v>332</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>332</v>
@@ -4938,7 +4935,7 @@
         <v>45</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>110</v>
@@ -4953,7 +4950,7 @@
         <v>46</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J86" s="2">
         <v>600</v>
@@ -5221,7 +5218,7 @@
         <v>332</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>332</v>
@@ -5253,7 +5250,7 @@
         <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>99</v>
@@ -5268,7 +5265,7 @@
         <v>36</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J95" s="2">
         <v>350</v>
@@ -5501,7 +5498,7 @@
         <v>332</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>332</v>
@@ -5533,7 +5530,7 @@
         <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>99</v>
@@ -5548,7 +5545,7 @@
         <v>33</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J103" s="2">
         <v>350</v>
@@ -5678,11 +5675,11 @@
       <c r="E107" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>332</v>
+      <c r="F107" s="2">
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>332</v>
+        <v>4</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>47</v>
@@ -5746,7 +5743,7 @@
         <v>332</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>332</v>
@@ -5778,7 +5775,7 @@
         <v>20</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>114</v>
@@ -5956,7 +5953,7 @@
         <v>332</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>332</v>
@@ -5988,7 +5985,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>151</v>
@@ -6003,7 +6000,7 @@
         <v>30</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J116" s="2">
         <v>100</v>
@@ -6026,7 +6023,7 @@
         <v>332</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>332</v>
@@ -6058,7 +6055,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>152</v>
@@ -6073,7 +6070,7 @@
         <v>153</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J118" s="2">
         <v>100</v>
@@ -6131,7 +6128,7 @@
         <v>332</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>332</v>
@@ -6163,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>42</v>
@@ -6178,7 +6175,7 @@
         <v>30</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J121" s="2">
         <v>100</v>
@@ -6201,7 +6198,7 @@
         <v>332</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>332</v>
@@ -6233,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>154</v>
@@ -6248,7 +6245,7 @@
         <v>30</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J123" s="2">
         <v>100</v>
@@ -6271,7 +6268,7 @@
         <v>332</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>332</v>
@@ -6318,7 +6315,7 @@
         <v>14</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J125" s="2">
         <v>100</v>
@@ -6341,7 +6338,7 @@
         <v>332</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>332</v>
@@ -6373,7 +6370,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>122</v>
@@ -6388,7 +6385,7 @@
         <v>30</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J127" s="2">
         <v>100</v>
@@ -6411,7 +6408,7 @@
         <v>332</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>332</v>
@@ -6443,10 +6440,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F129" s="2">
         <v>40</v>
@@ -6458,7 +6455,7 @@
         <v>156</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J129" s="2">
         <v>100</v>
@@ -6481,7 +6478,7 @@
         <v>332</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>332</v>
@@ -6513,7 +6510,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>123</v>
@@ -6528,7 +6525,7 @@
         <v>30</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J131" s="2">
         <v>100</v>
@@ -6551,7 +6548,7 @@
         <v>332</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>332</v>
@@ -6583,7 +6580,7 @@
         <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>157</v>
@@ -6598,7 +6595,7 @@
         <v>30</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J133" s="2">
         <v>125</v>
@@ -6691,7 +6688,7 @@
         <v>332</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F136" s="2">
         <v>20</v>
@@ -6761,7 +6758,7 @@
         <v>332</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>332</v>
@@ -6793,7 +6790,7 @@
         <v>15</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>114</v>
@@ -6936,7 +6933,7 @@
         <v>332</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>332</v>
@@ -6968,7 +6965,7 @@
         <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>34</v>
@@ -7076,7 +7073,7 @@
         <v>332</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>332</v>
@@ -7108,7 +7105,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>128</v>
@@ -7129,7 +7126,7 @@
         <v>500</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7190,7 +7187,7 @@
         <v>4</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>332</v>
@@ -7356,7 +7353,7 @@
         <v>332</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>332</v>
@@ -7388,7 +7385,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>99</v>
@@ -7403,13 +7400,13 @@
         <v>121</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J156" s="2">
         <v>837</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7496,7 +7493,7 @@
         <v>332</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>332</v>
@@ -7528,7 +7525,7 @@
         <v>5</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>135</v>
@@ -7543,13 +7540,13 @@
         <v>12</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J160" s="2">
         <v>590</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7601,7 +7598,7 @@
         <v>332</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>332</v>
@@ -7633,7 +7630,7 @@
         <v>40</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>102</v>
@@ -7648,13 +7645,13 @@
         <v>138</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J163" s="2">
         <v>300</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7916,7 +7913,7 @@
         <v>332</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>332</v>
@@ -7948,7 +7945,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>17</v>
@@ -7969,7 +7966,7 @@
         <v>590</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8231,7 +8228,7 @@
         <v>332</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>332</v>
@@ -8263,7 +8260,7 @@
         <v>20</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>165</v>
@@ -8284,7 +8281,7 @@
         <v>606</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8476,7 +8473,7 @@
         <v>332</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>332</v>
@@ -8508,7 +8505,7 @@
         <v>5</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>92</v>
@@ -8529,7 +8526,7 @@
         <v>538</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8616,7 +8613,7 @@
         <v>332</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>332</v>
@@ -8648,7 +8645,7 @@
         <v>30</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>167</v>
@@ -8669,7 +8666,7 @@
         <v>900</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8896,7 +8893,7 @@
         <v>332</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>332</v>
@@ -8928,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>183</v>
@@ -8943,13 +8940,13 @@
         <v>184</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J200" s="2">
         <v>300</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8966,7 +8963,7 @@
         <v>332</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>332</v>
@@ -8998,7 +8995,7 @@
         <v>7</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>17</v>
@@ -9019,7 +9016,7 @@
         <v>590</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9211,7 +9208,7 @@
         <v>332</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>332</v>
@@ -9243,7 +9240,7 @@
         <v>6</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>189</v>
@@ -9264,7 +9261,7 @@
         <v>548</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9491,7 +9488,7 @@
         <v>332</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>332</v>
@@ -9523,7 +9520,7 @@
         <v>10</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>68</v>
@@ -9544,7 +9541,7 @@
         <v>616</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9736,7 +9733,7 @@
         <v>332</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>332</v>
@@ -9768,7 +9765,7 @@
         <v>30</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>177</v>
@@ -9783,13 +9780,13 @@
         <v>178</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J224" s="2">
         <v>860</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9806,7 +9803,7 @@
         <v>332</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F225" s="2">
         <v>30</v>
@@ -10086,7 +10083,7 @@
         <v>332</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>332</v>
@@ -10118,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>154</v>
@@ -10133,13 +10130,13 @@
         <v>30</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J234" s="2">
         <v>256</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10191,7 +10188,7 @@
         <v>332</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>332</v>
@@ -10223,7 +10220,7 @@
         <v>15</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>129</v>
@@ -10238,13 +10235,13 @@
         <v>203</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J237" s="2">
         <v>590</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10436,7 +10433,7 @@
         <v>332</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>332</v>
@@ -10468,7 +10465,7 @@
         <v>15</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>68</v>
@@ -10483,13 +10480,13 @@
         <v>14</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J244" s="2">
         <v>605</v>
       </c>
       <c r="K244" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10681,7 +10678,7 @@
         <v>332</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>332</v>
@@ -10713,7 +10710,7 @@
         <v>5</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>10</v>
@@ -10728,13 +10725,13 @@
         <v>208</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J251" s="2">
         <v>570</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10856,7 +10853,7 @@
         <v>332</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>332</v>
@@ -10888,7 +10885,7 @@
         <v>25</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>210</v>
@@ -10903,13 +10900,13 @@
         <v>211</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J256" s="2">
         <v>857</v>
       </c>
       <c r="K256" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11171,7 +11168,7 @@
         <v>332</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>332</v>
@@ -11203,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>209</v>
@@ -11218,13 +11215,13 @@
         <v>125</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J265" s="2">
         <v>306</v>
       </c>
       <c r="K265" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11241,7 +11238,7 @@
         <v>332</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F266" s="2">
         <v>40</v>
@@ -11276,7 +11273,7 @@
         <v>332</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>332</v>
@@ -11308,7 +11305,7 @@
         <v>15</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>115</v>
@@ -11323,13 +11320,13 @@
         <v>124</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J268" s="2">
         <v>551</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11521,7 +11518,7 @@
         <v>332</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>332</v>
@@ -11553,7 +11550,7 @@
         <v>10</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>133</v>
@@ -11568,13 +11565,13 @@
         <v>12</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J275" s="2">
         <v>610</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11731,7 +11728,7 @@
         <v>332</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>332</v>
@@ -11763,7 +11760,7 @@
         <v>10</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>180</v>
@@ -11778,13 +11775,13 @@
         <v>138</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J281" s="2">
         <v>579</v>
       </c>
       <c r="K281" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="282" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11836,7 +11833,7 @@
         <v>332</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F283" s="2">
         <v>60</v>
@@ -11906,7 +11903,7 @@
         <v>332</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>332</v>
@@ -11938,7 +11935,7 @@
         <v>25</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>228</v>
@@ -11953,13 +11950,13 @@
         <v>211</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J286" s="2">
         <v>853</v>
       </c>
       <c r="K286" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12011,7 +12008,7 @@
         <v>332</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F288" s="2">
         <v>122</v>
@@ -12256,7 +12253,7 @@
         <v>332</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>332</v>
@@ -12288,7 +12285,7 @@
         <v>5</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>189</v>
@@ -12303,13 +12300,13 @@
         <v>232</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J296" s="2">
         <v>584</v>
       </c>
       <c r="K296" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="297" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12501,7 +12498,7 @@
         <v>332</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>332</v>
@@ -12533,7 +12530,7 @@
         <v>7</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>193</v>
@@ -12548,13 +12545,13 @@
         <v>156</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J303" s="2">
         <v>567</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12746,7 +12743,7 @@
         <v>332</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>332</v>
@@ -12778,7 +12775,7 @@
         <v>5</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>223</v>
@@ -12793,13 +12790,13 @@
         <v>14</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J310" s="2">
         <v>551</v>
       </c>
       <c r="K310" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12956,7 +12953,7 @@
         <v>332</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>332</v>
@@ -12988,7 +12985,7 @@
         <v>30</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>72</v>
@@ -13003,13 +13000,13 @@
         <v>125</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J316" s="2">
         <v>829</v>
       </c>
       <c r="K316" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="317" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13306,7 +13303,7 @@
         <v>332</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>332</v>
@@ -13338,10 +13335,10 @@
         <v>1</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F326" s="2">
         <v>60</v>
@@ -13359,7 +13356,7 @@
         <v>314</v>
       </c>
       <c r="K326" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13376,7 +13373,7 @@
         <v>332</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>332</v>
@@ -13408,7 +13405,7 @@
         <v>10</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>99</v>
@@ -13423,13 +13420,13 @@
         <v>127</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J328" s="2">
         <v>608</v>
       </c>
       <c r="K328" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13481,7 +13478,7 @@
         <v>332</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F330" s="2">
         <v>120</v>
@@ -13691,7 +13688,7 @@
         <v>332</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>332</v>
@@ -13723,7 +13720,7 @@
         <v>30</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>102</v>
@@ -13738,13 +13735,13 @@
         <v>238</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J337" s="2">
         <v>630</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="338" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13936,7 +13933,7 @@
         <v>332</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>332</v>
@@ -13968,7 +13965,7 @@
         <v>5</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>189</v>
@@ -13983,13 +13980,13 @@
         <v>126</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J344" s="2">
         <v>560</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="345" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14181,7 +14178,7 @@
         <v>332</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>332</v>
@@ -14213,7 +14210,7 @@
         <v>30</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>103</v>
@@ -14228,13 +14225,13 @@
         <v>216</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J351" s="2">
         <v>876</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="352" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14286,7 +14283,7 @@
         <v>332</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F353" s="2">
         <v>30</v>
@@ -14531,7 +14528,7 @@
         <v>332</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>332</v>
@@ -14563,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>225</v>
@@ -14578,13 +14575,13 @@
         <v>226</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J361" s="2">
         <v>290</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="362" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14636,7 +14633,7 @@
         <v>332</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>332</v>
@@ -14668,7 +14665,7 @@
         <v>10</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>99</v>
@@ -14683,13 +14680,13 @@
         <v>127</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J364" s="2">
         <v>594</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14881,7 +14878,7 @@
         <v>332</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>332</v>
@@ -14913,7 +14910,7 @@
         <v>10</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>223</v>
@@ -14928,13 +14925,13 @@
         <v>208</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J371" s="2">
         <v>629</v>
       </c>
       <c r="K371" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="372" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15091,7 +15088,7 @@
         <v>332</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>332</v>
@@ -15123,7 +15120,7 @@
         <v>5</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>189</v>
@@ -15138,13 +15135,13 @@
         <v>126</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J377" s="2">
         <v>618</v>
       </c>
       <c r="K377" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="378" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15336,7 +15333,7 @@
         <v>332</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>332</v>
@@ -15368,7 +15365,7 @@
         <v>30</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>251</v>
@@ -15383,13 +15380,13 @@
         <v>178</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J384" s="2">
         <v>859</v>
       </c>
       <c r="K384" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="385" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15511,7 +15508,7 @@
         <v>332</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F388" s="2">
         <v>3</v>
@@ -15651,7 +15648,7 @@
         <v>332</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>332</v>
@@ -15683,7 +15680,7 @@
         <v>5</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>236</v>
@@ -15698,13 +15695,13 @@
         <v>9</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J393" s="2">
         <v>279</v>
       </c>
       <c r="K393" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="394" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15756,7 +15753,7 @@
         <v>332</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>332</v>
@@ -15788,7 +15785,7 @@
         <v>15</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>229</v>
@@ -15803,13 +15800,13 @@
         <v>257</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J396" s="2">
         <v>573</v>
       </c>
       <c r="K396" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="397" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16083,7 +16080,7 @@
         <v>30</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J404" s="2" t="s">
         <v>332</v>
@@ -16106,7 +16103,7 @@
         <v>332</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>332</v>
@@ -16138,7 +16135,7 @@
         <v>15</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>189</v>
@@ -16153,13 +16150,13 @@
         <v>261</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J406" s="2">
         <v>624</v>
       </c>
       <c r="K406" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="407" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16386,7 +16383,7 @@
         <v>332</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>332</v>
@@ -16418,7 +16415,7 @@
         <v>5</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>189</v>
@@ -16433,13 +16430,13 @@
         <v>126</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J414" s="2">
         <v>638</v>
       </c>
       <c r="K414" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="415" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16631,7 +16628,7 @@
         <v>332</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>332</v>
@@ -16663,7 +16660,7 @@
         <v>30</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>102</v>
@@ -16678,13 +16675,13 @@
         <v>138</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J421" s="2">
         <v>908</v>
       </c>
       <c r="K421" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="422" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16981,7 +16978,7 @@
         <v>332</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>333</v>
+        <v>499</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>332</v>
@@ -17009,11 +17006,11 @@
       <c r="B431" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>332</v>
+      <c r="C431" s="2">
+        <v>1</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>270</v>
@@ -17028,13 +17025,13 @@
         <v>226</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J431" s="2">
         <v>218</v>
       </c>
       <c r="K431" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="432" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17086,7 +17083,7 @@
         <v>332</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>332</v>
@@ -17118,7 +17115,7 @@
         <v>10</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>189</v>
@@ -17133,13 +17130,13 @@
         <v>261</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J434" s="2">
         <v>572</v>
       </c>
       <c r="K434" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="435" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17436,7 +17433,7 @@
         <v>332</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>332</v>
@@ -17468,7 +17465,7 @@
         <v>10</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>64</v>
@@ -17483,13 +17480,13 @@
         <v>130</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J444" s="2">
         <v>574</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="445" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17646,7 +17643,7 @@
         <v>332</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>332</v>
@@ -17678,7 +17675,7 @@
         <v>5</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>133</v>
@@ -17693,13 +17690,13 @@
         <v>278</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J450" s="2">
         <v>554</v>
       </c>
       <c r="K450" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="451" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17786,7 +17783,7 @@
         <v>332</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>332</v>
@@ -17818,7 +17815,7 @@
         <v>25</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>267</v>
@@ -17833,13 +17830,13 @@
         <v>178</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J454" s="2">
         <v>890</v>
       </c>
       <c r="K454" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="455" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18101,7 +18098,7 @@
         <v>332</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>332</v>
@@ -18129,11 +18126,11 @@
       <c r="B463" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C463" s="2" t="s">
-        <v>332</v>
+      <c r="C463" s="2">
+        <v>1</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>92</v>
@@ -18148,13 +18145,13 @@
         <v>30</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J463" s="2">
         <v>288</v>
       </c>
       <c r="K463" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="464" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18206,7 +18203,7 @@
         <v>332</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>332</v>
@@ -18238,7 +18235,7 @@
         <v>25</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>175</v>
@@ -18253,13 +18250,13 @@
         <v>6</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J466" s="2">
         <v>616</v>
       </c>
       <c r="K466" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="467" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18416,7 +18413,7 @@
         <v>332</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F471" s="2">
         <v>30</v>
@@ -18451,7 +18448,7 @@
         <v>332</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>332</v>
@@ -18483,7 +18480,7 @@
         <v>10</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>189</v>
@@ -18498,13 +18495,13 @@
         <v>289</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J473" s="2">
         <v>596</v>
       </c>
       <c r="K473" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="474" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18731,7 +18728,7 @@
         <v>332</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>332</v>
@@ -18763,7 +18760,7 @@
         <v>5</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>64</v>
@@ -18778,13 +18775,13 @@
         <v>130</v>
       </c>
       <c r="I481" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J481" s="2">
         <v>581</v>
       </c>
       <c r="K481" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="482" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18941,7 +18938,7 @@
         <v>332</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>332</v>
@@ -18973,7 +18970,7 @@
         <v>30</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>220</v>
@@ -18988,13 +18985,13 @@
         <v>12</v>
       </c>
       <c r="I487" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J487" s="2">
         <v>852</v>
       </c>
       <c r="K487" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="488" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19361,7 +19358,7 @@
         <v>332</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>332</v>
@@ -19393,7 +19390,7 @@
         <v>1</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>131</v>
@@ -19408,13 +19405,13 @@
         <v>268</v>
       </c>
       <c r="I499" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J499" s="2">
         <v>284</v>
       </c>
       <c r="K499" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="500" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19431,7 +19428,7 @@
         <v>332</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F500" s="2">
         <v>40</v>
@@ -19466,7 +19463,7 @@
         <v>332</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>332</v>
@@ -19498,7 +19495,7 @@
         <v>15</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>189</v>
@@ -19513,13 +19510,13 @@
         <v>289</v>
       </c>
       <c r="I502" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J502" s="2">
         <v>614</v>
       </c>
       <c r="K502" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="503" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19816,7 +19813,7 @@
         <v>332</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>332</v>
@@ -19848,7 +19845,7 @@
         <v>15</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>92</v>
@@ -19863,13 +19860,13 @@
         <v>30</v>
       </c>
       <c r="I512" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J512" s="2">
         <v>630</v>
       </c>
       <c r="K512" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="513" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20026,7 +20023,7 @@
         <v>332</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>332</v>
@@ -20058,7 +20055,7 @@
         <v>5</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>189</v>
@@ -20073,13 +20070,13 @@
         <v>126</v>
       </c>
       <c r="I518" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J518" s="2">
         <v>561</v>
       </c>
       <c r="K518" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="519" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20306,7 +20303,7 @@
         <v>332</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>332</v>
@@ -20338,7 +20335,7 @@
         <v>25</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>332</v>
@@ -20353,13 +20350,13 @@
         <v>303</v>
       </c>
       <c r="I526" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J526" s="2">
         <v>895</v>
       </c>
       <c r="K526" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="527" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20621,7 +20618,7 @@
         <v>332</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>332</v>
@@ -20653,7 +20650,7 @@
         <v>5</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>271</v>
@@ -20668,13 +20665,13 @@
         <v>138</v>
       </c>
       <c r="I535" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J535" s="2">
         <v>289</v>
       </c>
       <c r="K535" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="536" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20761,7 +20758,7 @@
         <v>332</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>332</v>
@@ -20793,7 +20790,7 @@
         <v>12</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>193</v>
@@ -20808,13 +20805,13 @@
         <v>307</v>
       </c>
       <c r="I539" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J539" s="2">
         <v>565</v>
       </c>
       <c r="K539" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="540" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20948,7 +20945,7 @@
         <v>127</v>
       </c>
       <c r="I543" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J543" s="2" t="s">
         <v>332</v>
@@ -21041,7 +21038,7 @@
         <v>332</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>332</v>
@@ -21073,7 +21070,7 @@
         <v>20</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>310</v>
@@ -21088,13 +21085,13 @@
         <v>126</v>
       </c>
       <c r="I547" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J547" s="2">
         <v>581</v>
       </c>
       <c r="K547" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="548" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21286,7 +21283,7 @@
         <v>332</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>332</v>
@@ -21318,7 +21315,7 @@
         <v>5</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>96</v>
@@ -21333,13 +21330,13 @@
         <v>6</v>
       </c>
       <c r="I554" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J554" s="2">
         <v>617</v>
       </c>
       <c r="K554" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="555" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21496,7 +21493,7 @@
         <v>332</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>332</v>
@@ -21528,7 +21525,7 @@
         <v>30</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>210</v>
@@ -21543,13 +21540,13 @@
         <v>178</v>
       </c>
       <c r="I560" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J560" s="2">
         <v>882</v>
       </c>
       <c r="K560" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="561" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21881,7 +21878,7 @@
         <v>332</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F570" s="2" t="s">
         <v>332</v>
@@ -21909,14 +21906,14 @@
       <c r="B571" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C571" s="2" t="s">
-        <v>332</v>
+      <c r="C571" s="2">
+        <v>1</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F571" s="2">
         <v>60</v>
@@ -21928,13 +21925,13 @@
         <v>244</v>
       </c>
       <c r="I571" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J571" s="2">
         <v>314</v>
       </c>
       <c r="K571" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="572" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21951,7 +21948,7 @@
         <v>332</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F572" s="2" t="s">
         <v>332</v>
@@ -21983,7 +21980,7 @@
         <v>10</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>301</v>
@@ -21998,7 +21995,7 @@
         <v>126</v>
       </c>
       <c r="I573" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J573" s="2">
         <v>596</v>
@@ -22161,7 +22158,7 @@
         <v>332</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F578" s="2" t="s">
         <v>332</v>
@@ -22193,7 +22190,7 @@
         <v>30</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>317</v>
@@ -22208,13 +22205,13 @@
         <v>320</v>
       </c>
       <c r="I579" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J579" s="2">
         <v>636</v>
       </c>
       <c r="K579" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="580" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22441,7 +22438,7 @@
         <v>332</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F586" s="2" t="s">
         <v>332</v>
@@ -22473,7 +22470,7 @@
         <v>5</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>202</v>
@@ -22488,13 +22485,13 @@
         <v>12</v>
       </c>
       <c r="I587" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J587" s="2">
         <v>603</v>
       </c>
       <c r="K587" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="588" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22651,7 +22648,7 @@
         <v>332</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F592" s="2" t="s">
         <v>332</v>
@@ -22683,7 +22680,7 @@
         <v>30</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>323</v>
@@ -22698,13 +22695,13 @@
         <v>326</v>
       </c>
       <c r="I593" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J593" s="2">
         <v>814</v>
       </c>
       <c r="K593" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="594" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23001,7 +22998,7 @@
         <v>332</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F602" s="2" t="s">
         <v>332</v>
@@ -23033,7 +23030,7 @@
         <v>5</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>170</v>
@@ -23048,13 +23045,13 @@
         <v>208</v>
       </c>
       <c r="I603" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J603" s="2">
         <v>304</v>
       </c>
       <c r="K603" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="604" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23106,7 +23103,7 @@
         <v>332</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>332</v>
@@ -23138,7 +23135,7 @@
         <v>15</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>64</v>
@@ -23153,13 +23150,13 @@
         <v>329</v>
       </c>
       <c r="I606" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J606" s="2">
         <v>599</v>
       </c>
       <c r="K606" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="607" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23456,7 +23453,7 @@
         <v>332</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F615" s="2" t="s">
         <v>332</v>
